--- a/Översikt SVENLJUNGA.xlsx
+++ b/Översikt SVENLJUNGA.xlsx
@@ -572,7 +572,7 @@
         <v>44579</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>44838</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>44210</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         <v>43620</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>44250</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>44613</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>44613</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1189,7 +1189,7 @@
         <v>44764</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1274,7 +1274,7 @@
         <v>43314</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1331,7 +1331,7 @@
         <v>43325</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1388,7 +1388,7 @@
         <v>43328</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1450,7 +1450,7 @@
         <v>43329</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1507,7 +1507,7 @@
         <v>43346</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1564,7 +1564,7 @@
         <v>43349</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1621,7 +1621,7 @@
         <v>43349</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1678,7 +1678,7 @@
         <v>43353</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1735,7 +1735,7 @@
         <v>43357</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
         <v>43363</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
         <v>43374</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>43381</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>43390</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
         <v>43398</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2087,7 +2087,7 @@
         <v>43402</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>43411</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         <v>43413</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>43413</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>43413</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>43419</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2434,7 +2434,7 @@
         <v>43423</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>43424</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>43425</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>43425</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         <v>43426</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         <v>43428</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>43430</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         <v>43433</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         <v>43433</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>43437</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>43437</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>43438</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>43439</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>43444</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43447</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>43447</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>43448</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>43451</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         <v>43454</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3522,7 +3522,7 @@
         <v>43454</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3584,7 +3584,7 @@
         <v>43454</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3641,7 +3641,7 @@
         <v>43454</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3698,7 +3698,7 @@
         <v>43454</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3760,7 +3760,7 @@
         <v>43454</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3817,7 +3817,7 @@
         <v>43454</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3874,7 +3874,7 @@
         <v>43455</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3931,7 +3931,7 @@
         <v>43455</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3988,7 +3988,7 @@
         <v>43455</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>43461</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>43461</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4169,7 +4169,7 @@
         <v>43462</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         <v>43473</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4283,7 +4283,7 @@
         <v>43475</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4340,7 +4340,7 @@
         <v>43486</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4397,7 +4397,7 @@
         <v>43494</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4454,7 +4454,7 @@
         <v>43495</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4511,7 +4511,7 @@
         <v>43500</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         <v>43501</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>43501</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4682,7 +4682,7 @@
         <v>43511</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>43531</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
         <v>43542</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4853,7 +4853,7 @@
         <v>43544</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         <v>43544</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4977,7 +4977,7 @@
         <v>43554</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5034,7 +5034,7 @@
         <v>43554</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>43554</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>43558</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5205,7 +5205,7 @@
         <v>43559</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5262,7 +5262,7 @@
         <v>43559</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5319,7 +5319,7 @@
         <v>43560</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5376,7 +5376,7 @@
         <v>43565</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5433,7 +5433,7 @@
         <v>43565</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5490,7 +5490,7 @@
         <v>43565</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5547,7 +5547,7 @@
         <v>43572</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5604,7 +5604,7 @@
         <v>43585</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5661,7 +5661,7 @@
         <v>43588</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5718,7 +5718,7 @@
         <v>43591</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5775,7 +5775,7 @@
         <v>43592</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5837,7 +5837,7 @@
         <v>43599</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5894,7 +5894,7 @@
         <v>43599</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5951,7 +5951,7 @@
         <v>43599</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6008,7 +6008,7 @@
         <v>43599</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6065,7 +6065,7 @@
         <v>43609</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
         <v>43609</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         <v>43620</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6241,7 +6241,7 @@
         <v>43620</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6298,7 +6298,7 @@
         <v>43626</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         <v>43626</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6412,7 +6412,7 @@
         <v>43634</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6469,7 +6469,7 @@
         <v>43644</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6526,7 +6526,7 @@
         <v>43644</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6583,7 +6583,7 @@
         <v>43644</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6640,7 +6640,7 @@
         <v>43644</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
         <v>43647</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6759,7 +6759,7 @@
         <v>43647</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6821,7 +6821,7 @@
         <v>43658</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         <v>43676</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         <v>43676</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         <v>43676</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7064,7 +7064,7 @@
         <v>43676</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7126,7 +7126,7 @@
         <v>43677</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>43697</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         <v>43699</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7307,7 +7307,7 @@
         <v>43705</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7364,7 +7364,7 @@
         <v>43706</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7421,7 +7421,7 @@
         <v>43721</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7478,7 +7478,7 @@
         <v>43728</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7535,7 +7535,7 @@
         <v>43728</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7592,7 +7592,7 @@
         <v>43733</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7649,7 +7649,7 @@
         <v>43745</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7706,7 +7706,7 @@
         <v>43758</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7763,7 +7763,7 @@
         <v>43760</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7820,7 +7820,7 @@
         <v>43761</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7877,7 +7877,7 @@
         <v>43770</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7934,7 +7934,7 @@
         <v>43771</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7991,7 +7991,7 @@
         <v>43773</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8048,7 +8048,7 @@
         <v>43780</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8105,7 +8105,7 @@
         <v>43780</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8162,7 +8162,7 @@
         <v>43782</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8219,7 +8219,7 @@
         <v>43782</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8276,7 +8276,7 @@
         <v>43788</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8333,7 +8333,7 @@
         <v>43788</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8390,7 +8390,7 @@
         <v>43788</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8447,7 +8447,7 @@
         <v>43790</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8504,7 +8504,7 @@
         <v>43791</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8561,7 +8561,7 @@
         <v>43795</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8623,7 +8623,7 @@
         <v>43798</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8680,7 +8680,7 @@
         <v>43798</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8737,7 +8737,7 @@
         <v>43798</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8794,7 +8794,7 @@
         <v>43803</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8851,7 +8851,7 @@
         <v>43803</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8908,7 +8908,7 @@
         <v>43804</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8970,7 +8970,7 @@
         <v>43817</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9032,7 +9032,7 @@
         <v>43818</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9094,7 +9094,7 @@
         <v>43832</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9151,7 +9151,7 @@
         <v>43853</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9208,7 +9208,7 @@
         <v>43867</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9265,7 +9265,7 @@
         <v>43868</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9322,7 +9322,7 @@
         <v>43868</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         <v>43868</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9436,7 +9436,7 @@
         <v>43873</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9498,7 +9498,7 @@
         <v>43892</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9555,7 +9555,7 @@
         <v>43894</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9612,7 +9612,7 @@
         <v>43900</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9669,7 +9669,7 @@
         <v>43902</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9726,7 +9726,7 @@
         <v>43902</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9783,7 +9783,7 @@
         <v>43912</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9840,7 +9840,7 @@
         <v>43914</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9897,7 +9897,7 @@
         <v>43915</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9954,7 +9954,7 @@
         <v>43915</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10011,7 +10011,7 @@
         <v>43915</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10068,7 +10068,7 @@
         <v>43920</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10125,7 +10125,7 @@
         <v>43922</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10182,7 +10182,7 @@
         <v>43923</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10239,7 +10239,7 @@
         <v>43923</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10296,7 +10296,7 @@
         <v>43933</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10353,7 +10353,7 @@
         <v>43937</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10415,7 +10415,7 @@
         <v>43949</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10472,7 +10472,7 @@
         <v>43955</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10529,7 +10529,7 @@
         <v>43962</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10586,7 +10586,7 @@
         <v>43963</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10643,7 +10643,7 @@
         <v>43965</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10700,7 +10700,7 @@
         <v>43971</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10762,7 +10762,7 @@
         <v>43983</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10824,7 +10824,7 @@
         <v>43986</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10881,7 +10881,7 @@
         <v>43986</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10938,7 +10938,7 @@
         <v>43991</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10995,7 +10995,7 @@
         <v>44008</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11052,7 +11052,7 @@
         <v>44015</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11109,7 +11109,7 @@
         <v>44018</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11166,7 +11166,7 @@
         <v>44036</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11223,7 +11223,7 @@
         <v>44036</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11280,7 +11280,7 @@
         <v>44050</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11337,7 +11337,7 @@
         <v>44053</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11394,7 +11394,7 @@
         <v>44056</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11451,7 +11451,7 @@
         <v>44061</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11508,7 +11508,7 @@
         <v>44063</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11565,7 +11565,7 @@
         <v>44063</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11622,7 +11622,7 @@
         <v>44068</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11679,7 +11679,7 @@
         <v>44069</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11736,7 +11736,7 @@
         <v>44076</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11793,7 +11793,7 @@
         <v>44082</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11850,7 +11850,7 @@
         <v>44086</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11907,7 +11907,7 @@
         <v>44086</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11964,7 +11964,7 @@
         <v>44089</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12021,7 +12021,7 @@
         <v>44109</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12078,7 +12078,7 @@
         <v>44109</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12135,7 +12135,7 @@
         <v>44116</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12192,7 +12192,7 @@
         <v>44117</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12249,7 +12249,7 @@
         <v>44127</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12306,7 +12306,7 @@
         <v>44129</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12363,7 +12363,7 @@
         <v>44130</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12420,7 +12420,7 @@
         <v>44130</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12477,7 +12477,7 @@
         <v>44130</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12534,7 +12534,7 @@
         <v>44132</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12591,7 +12591,7 @@
         <v>44133</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12648,7 +12648,7 @@
         <v>44133</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12705,7 +12705,7 @@
         <v>44138</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12762,7 +12762,7 @@
         <v>44138</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12819,7 +12819,7 @@
         <v>44154</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12876,7 +12876,7 @@
         <v>44159</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12933,7 +12933,7 @@
         <v>44159</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12990,7 +12990,7 @@
         <v>44162</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13047,7 +13047,7 @@
         <v>44165</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13104,7 +13104,7 @@
         <v>44168</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13161,7 +13161,7 @@
         <v>44173</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13223,7 +13223,7 @@
         <v>44174</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13280,7 +13280,7 @@
         <v>44174</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13337,7 +13337,7 @@
         <v>44187</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13394,7 +13394,7 @@
         <v>44194</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13451,7 +13451,7 @@
         <v>44200</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13508,7 +13508,7 @@
         <v>44209</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13565,7 +13565,7 @@
         <v>44210</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13627,7 +13627,7 @@
         <v>44210</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13689,7 +13689,7 @@
         <v>44210</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13751,7 +13751,7 @@
         <v>44218</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13808,7 +13808,7 @@
         <v>44223</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13865,7 +13865,7 @@
         <v>44224</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13922,7 +13922,7 @@
         <v>44224</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13979,7 +13979,7 @@
         <v>44224</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14036,7 +14036,7 @@
         <v>44229</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14093,7 +14093,7 @@
         <v>44242</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14150,7 +14150,7 @@
         <v>44250</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14207,7 +14207,7 @@
         <v>44250</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14264,7 +14264,7 @@
         <v>44250</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14321,7 +14321,7 @@
         <v>44258</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14378,7 +14378,7 @@
         <v>44264</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14435,7 +14435,7 @@
         <v>44320</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14492,7 +14492,7 @@
         <v>44337</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14549,7 +14549,7 @@
         <v>44337</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14606,7 +14606,7 @@
         <v>44341</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14663,7 +14663,7 @@
         <v>44344</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14725,7 +14725,7 @@
         <v>44349</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14787,7 +14787,7 @@
         <v>44350</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14849,7 +14849,7 @@
         <v>44355</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14906,7 +14906,7 @@
         <v>44357</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14968,7 +14968,7 @@
         <v>44357</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15030,7 +15030,7 @@
         <v>44357</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15092,7 +15092,7 @@
         <v>44376</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15149,7 +15149,7 @@
         <v>44391</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15206,7 +15206,7 @@
         <v>44417</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15263,7 +15263,7 @@
         <v>44418</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15320,7 +15320,7 @@
         <v>44432</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15377,7 +15377,7 @@
         <v>44432</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15434,7 +15434,7 @@
         <v>44434</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15491,7 +15491,7 @@
         <v>44440</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15548,7 +15548,7 @@
         <v>44448</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15605,7 +15605,7 @@
         <v>44491</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15662,7 +15662,7 @@
         <v>44496</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15719,7 +15719,7 @@
         <v>44496</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15776,7 +15776,7 @@
         <v>44497</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15833,7 +15833,7 @@
         <v>44497</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15890,7 +15890,7 @@
         <v>44517</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15947,7 +15947,7 @@
         <v>44517</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16004,7 +16004,7 @@
         <v>44517</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16061,7 +16061,7 @@
         <v>44517</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16118,7 +16118,7 @@
         <v>44517</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16175,7 +16175,7 @@
         <v>44530</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16237,7 +16237,7 @@
         <v>44564</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16294,7 +16294,7 @@
         <v>44579</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16351,7 +16351,7 @@
         <v>44588</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16408,7 +16408,7 @@
         <v>44588</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16465,7 +16465,7 @@
         <v>44610</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16522,7 +16522,7 @@
         <v>44613</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         <v>44615</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16636,7 +16636,7 @@
         <v>44616</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16693,7 +16693,7 @@
         <v>44616</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16750,7 +16750,7 @@
         <v>44617</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16807,7 +16807,7 @@
         <v>44641</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16869,7 +16869,7 @@
         <v>44641</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16931,7 +16931,7 @@
         <v>44641</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16993,7 +16993,7 @@
         <v>44645</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17055,7 +17055,7 @@
         <v>44656</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17112,7 +17112,7 @@
         <v>44656</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17169,7 +17169,7 @@
         <v>44656</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17226,7 +17226,7 @@
         <v>44658</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17283,7 +17283,7 @@
         <v>44659</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17340,7 +17340,7 @@
         <v>44659</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
         <v>44662</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17454,7 +17454,7 @@
         <v>44687</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17511,7 +17511,7 @@
         <v>44706</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17568,7 +17568,7 @@
         <v>44725</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17625,7 +17625,7 @@
         <v>44725</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17682,7 +17682,7 @@
         <v>44726</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17739,7 +17739,7 @@
         <v>44785</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17796,7 +17796,7 @@
         <v>44792</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17853,7 +17853,7 @@
         <v>44797</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17910,7 +17910,7 @@
         <v>44800</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17967,7 +17967,7 @@
         <v>44813</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18024,7 +18024,7 @@
         <v>44824</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18081,7 +18081,7 @@
         <v>44831</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18138,7 +18138,7 @@
         <v>44837</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18195,7 +18195,7 @@
         <v>44837</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18252,7 +18252,7 @@
         <v>44837</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18309,7 +18309,7 @@
         <v>44859</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18371,7 +18371,7 @@
         <v>44859</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18428,7 +18428,7 @@
         <v>44872</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18485,7 +18485,7 @@
         <v>44895</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18542,7 +18542,7 @@
         <v>44895</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18599,7 +18599,7 @@
         <v>44897</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18656,7 +18656,7 @@
         <v>44898</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18713,7 +18713,7 @@
         <v>44901</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18770,7 +18770,7 @@
         <v>44902</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18827,7 +18827,7 @@
         <v>44902</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18884,7 +18884,7 @@
         <v>44902</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18941,7 +18941,7 @@
         <v>44903</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18998,7 +18998,7 @@
         <v>44914</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19055,7 +19055,7 @@
         <v>44915</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19112,7 +19112,7 @@
         <v>44930</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19169,7 +19169,7 @@
         <v>44937</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19226,7 +19226,7 @@
         <v>44937</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19283,7 +19283,7 @@
         <v>44938</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19340,7 +19340,7 @@
         <v>44950</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19397,7 +19397,7 @@
         <v>44953</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19454,7 +19454,7 @@
         <v>44953</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19511,7 +19511,7 @@
         <v>44958</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19573,7 +19573,7 @@
         <v>44958</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19630,7 +19630,7 @@
         <v>44964</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19687,7 +19687,7 @@
         <v>44964</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19744,7 +19744,7 @@
         <v>44964</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19801,7 +19801,7 @@
         <v>44964</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19858,7 +19858,7 @@
         <v>44964</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19915,7 +19915,7 @@
         <v>44964</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19977,7 +19977,7 @@
         <v>44974</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20034,7 +20034,7 @@
         <v>44979</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20091,7 +20091,7 @@
         <v>44979</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20148,7 +20148,7 @@
         <v>44981</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20205,7 +20205,7 @@
         <v>44981</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20262,7 +20262,7 @@
         <v>44981</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20319,7 +20319,7 @@
         <v>44987</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20376,7 +20376,7 @@
         <v>44988</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20433,7 +20433,7 @@
         <v>45000</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20490,7 +20490,7 @@
         <v>45002</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20547,7 +20547,7 @@
         <v>45002</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20604,7 +20604,7 @@
         <v>45006</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20661,7 +20661,7 @@
         <v>45021</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20718,7 +20718,7 @@
         <v>45029</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20775,7 +20775,7 @@
         <v>45034</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20832,7 +20832,7 @@
         <v>45036</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20889,7 +20889,7 @@
         <v>45037</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         <v>45043</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21003,7 +21003,7 @@
         <v>45043</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21060,7 +21060,7 @@
         <v>45048</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21117,7 +21117,7 @@
         <v>45053</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21174,7 +21174,7 @@
         <v>45056</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21231,7 +21231,7 @@
         <v>45062</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21288,7 +21288,7 @@
         <v>45069</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21345,7 +21345,7 @@
         <v>45069</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21402,7 +21402,7 @@
         <v>45069</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21459,7 +21459,7 @@
         <v>45069</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21516,7 +21516,7 @@
         <v>45079</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         <v>45082</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21635,7 +21635,7 @@
         <v>45082</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21697,7 +21697,7 @@
         <v>45084</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21754,7 +21754,7 @@
         <v>45086</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21811,7 +21811,7 @@
         <v>45098</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21868,7 +21868,7 @@
         <v>45099</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21925,7 +21925,7 @@
         <v>45099</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -21982,7 +21982,7 @@
         <v>45099</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22044,7 +22044,7 @@
         <v>45106</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22101,7 +22101,7 @@
         <v>45107</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22158,7 +22158,7 @@
         <v>45111</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22215,7 +22215,7 @@
         <v>45111</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22272,7 +22272,7 @@
         <v>45114</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22329,7 +22329,7 @@
         <v>45114</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         <v>45120</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22443,7 +22443,7 @@
         <v>45120</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22500,7 +22500,7 @@
         <v>45120</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22557,7 +22557,7 @@
         <v>45120</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22614,7 +22614,7 @@
         <v>45131</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22671,7 +22671,7 @@
         <v>45147</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22728,7 +22728,7 @@
         <v>45149</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22785,7 +22785,7 @@
         <v>45149</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22842,7 +22842,7 @@
         <v>45160</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22899,7 +22899,7 @@
         <v>45162</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>

--- a/Översikt SVENLJUNGA.xlsx
+++ b/Översikt SVENLJUNGA.xlsx
@@ -572,7 +572,7 @@
         <v>44579</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>44838</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>44210</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         <v>43620</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>44250</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>44613</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>44613</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1189,7 +1189,7 @@
         <v>44764</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1274,7 +1274,7 @@
         <v>43314</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1331,7 +1331,7 @@
         <v>43325</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1388,7 +1388,7 @@
         <v>43328</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1450,7 +1450,7 @@
         <v>43329</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1507,7 +1507,7 @@
         <v>43346</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1564,7 +1564,7 @@
         <v>43349</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1621,7 +1621,7 @@
         <v>43349</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1678,7 +1678,7 @@
         <v>43353</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1735,7 +1735,7 @@
         <v>43357</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
         <v>43363</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
         <v>43374</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>43381</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>43390</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
         <v>43398</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2087,7 +2087,7 @@
         <v>43402</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>43411</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         <v>43413</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>43413</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>43413</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>43419</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2434,7 +2434,7 @@
         <v>43423</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>43424</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>43425</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>43425</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         <v>43426</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         <v>43428</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>43430</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         <v>43433</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         <v>43433</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>43437</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>43437</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>43438</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>43439</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>43444</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43447</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>43447</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>43448</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>43451</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         <v>43454</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3522,7 +3522,7 @@
         <v>43454</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3584,7 +3584,7 @@
         <v>43454</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3641,7 +3641,7 @@
         <v>43454</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3698,7 +3698,7 @@
         <v>43454</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3760,7 +3760,7 @@
         <v>43454</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3817,7 +3817,7 @@
         <v>43454</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3874,7 +3874,7 @@
         <v>43455</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3931,7 +3931,7 @@
         <v>43455</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3988,7 +3988,7 @@
         <v>43455</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>43461</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>43461</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4169,7 +4169,7 @@
         <v>43462</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         <v>43473</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4283,7 +4283,7 @@
         <v>43475</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4340,7 +4340,7 @@
         <v>43486</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4397,7 +4397,7 @@
         <v>43494</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4454,7 +4454,7 @@
         <v>43495</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4511,7 +4511,7 @@
         <v>43500</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         <v>43501</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>43501</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4682,7 +4682,7 @@
         <v>43511</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>43531</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
         <v>43542</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4853,7 +4853,7 @@
         <v>43544</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         <v>43544</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4977,7 +4977,7 @@
         <v>43554</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5034,7 +5034,7 @@
         <v>43554</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>43554</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>43558</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5205,7 +5205,7 @@
         <v>43559</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5262,7 +5262,7 @@
         <v>43559</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5319,7 +5319,7 @@
         <v>43560</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5376,7 +5376,7 @@
         <v>43565</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5433,7 +5433,7 @@
         <v>43565</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5490,7 +5490,7 @@
         <v>43565</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5547,7 +5547,7 @@
         <v>43572</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5604,7 +5604,7 @@
         <v>43585</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5661,7 +5661,7 @@
         <v>43588</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5718,7 +5718,7 @@
         <v>43591</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5775,7 +5775,7 @@
         <v>43592</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5837,7 +5837,7 @@
         <v>43599</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5894,7 +5894,7 @@
         <v>43599</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5951,7 +5951,7 @@
         <v>43599</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6008,7 +6008,7 @@
         <v>43599</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6065,7 +6065,7 @@
         <v>43609</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
         <v>43609</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         <v>43620</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6241,7 +6241,7 @@
         <v>43620</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6298,7 +6298,7 @@
         <v>43626</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         <v>43626</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6412,7 +6412,7 @@
         <v>43634</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6469,7 +6469,7 @@
         <v>43644</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6526,7 +6526,7 @@
         <v>43644</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6583,7 +6583,7 @@
         <v>43644</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6640,7 +6640,7 @@
         <v>43644</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
         <v>43647</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6759,7 +6759,7 @@
         <v>43647</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6821,7 +6821,7 @@
         <v>43658</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         <v>43676</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         <v>43676</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         <v>43676</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7064,7 +7064,7 @@
         <v>43676</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7126,7 +7126,7 @@
         <v>43677</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>43697</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         <v>43699</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7307,7 +7307,7 @@
         <v>43705</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7364,7 +7364,7 @@
         <v>43706</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7421,7 +7421,7 @@
         <v>43721</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7478,7 +7478,7 @@
         <v>43728</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7535,7 +7535,7 @@
         <v>43728</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7592,7 +7592,7 @@
         <v>43733</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7649,7 +7649,7 @@
         <v>43745</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7706,7 +7706,7 @@
         <v>43758</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7763,7 +7763,7 @@
         <v>43760</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7820,7 +7820,7 @@
         <v>43761</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7877,7 +7877,7 @@
         <v>43770</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7934,7 +7934,7 @@
         <v>43771</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7991,7 +7991,7 @@
         <v>43773</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8048,7 +8048,7 @@
         <v>43780</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8105,7 +8105,7 @@
         <v>43780</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8162,7 +8162,7 @@
         <v>43782</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8219,7 +8219,7 @@
         <v>43782</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8276,7 +8276,7 @@
         <v>43788</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8333,7 +8333,7 @@
         <v>43788</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8390,7 +8390,7 @@
         <v>43788</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8447,7 +8447,7 @@
         <v>43790</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8504,7 +8504,7 @@
         <v>43791</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8561,7 +8561,7 @@
         <v>43795</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8623,7 +8623,7 @@
         <v>43798</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8680,7 +8680,7 @@
         <v>43798</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8737,7 +8737,7 @@
         <v>43798</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8794,7 +8794,7 @@
         <v>43803</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8851,7 +8851,7 @@
         <v>43803</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8908,7 +8908,7 @@
         <v>43804</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8970,7 +8970,7 @@
         <v>43817</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9032,7 +9032,7 @@
         <v>43818</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9094,7 +9094,7 @@
         <v>43832</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9151,7 +9151,7 @@
         <v>43853</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9208,7 +9208,7 @@
         <v>43867</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9265,7 +9265,7 @@
         <v>43868</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9322,7 +9322,7 @@
         <v>43868</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         <v>43868</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9436,7 +9436,7 @@
         <v>43873</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9498,7 +9498,7 @@
         <v>43892</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9555,7 +9555,7 @@
         <v>43894</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9612,7 +9612,7 @@
         <v>43900</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9669,7 +9669,7 @@
         <v>43902</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9726,7 +9726,7 @@
         <v>43902</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9783,7 +9783,7 @@
         <v>43912</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9840,7 +9840,7 @@
         <v>43914</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9897,7 +9897,7 @@
         <v>43915</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9954,7 +9954,7 @@
         <v>43915</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10011,7 +10011,7 @@
         <v>43915</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10068,7 +10068,7 @@
         <v>43920</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10125,7 +10125,7 @@
         <v>43922</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10182,7 +10182,7 @@
         <v>43923</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10239,7 +10239,7 @@
         <v>43923</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10296,7 +10296,7 @@
         <v>43933</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10353,7 +10353,7 @@
         <v>43937</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10415,7 +10415,7 @@
         <v>43949</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10472,7 +10472,7 @@
         <v>43955</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10529,7 +10529,7 @@
         <v>43962</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10586,7 +10586,7 @@
         <v>43963</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10643,7 +10643,7 @@
         <v>43965</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10700,7 +10700,7 @@
         <v>43971</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10762,7 +10762,7 @@
         <v>43983</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10824,7 +10824,7 @@
         <v>43986</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10881,7 +10881,7 @@
         <v>43986</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10938,7 +10938,7 @@
         <v>43991</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10995,7 +10995,7 @@
         <v>44008</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11052,7 +11052,7 @@
         <v>44015</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11109,7 +11109,7 @@
         <v>44018</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11166,7 +11166,7 @@
         <v>44036</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11223,7 +11223,7 @@
         <v>44036</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11280,7 +11280,7 @@
         <v>44050</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11337,7 +11337,7 @@
         <v>44053</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11394,7 +11394,7 @@
         <v>44056</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11451,7 +11451,7 @@
         <v>44061</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11508,7 +11508,7 @@
         <v>44063</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11565,7 +11565,7 @@
         <v>44063</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11622,7 +11622,7 @@
         <v>44068</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11679,7 +11679,7 @@
         <v>44069</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11736,7 +11736,7 @@
         <v>44076</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11793,7 +11793,7 @@
         <v>44082</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11850,7 +11850,7 @@
         <v>44086</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11907,7 +11907,7 @@
         <v>44086</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11964,7 +11964,7 @@
         <v>44089</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12021,7 +12021,7 @@
         <v>44109</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12078,7 +12078,7 @@
         <v>44109</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12135,7 +12135,7 @@
         <v>44116</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12192,7 +12192,7 @@
         <v>44117</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12249,7 +12249,7 @@
         <v>44127</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12306,7 +12306,7 @@
         <v>44129</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12363,7 +12363,7 @@
         <v>44130</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12420,7 +12420,7 @@
         <v>44130</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12477,7 +12477,7 @@
         <v>44130</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12534,7 +12534,7 @@
         <v>44132</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12591,7 +12591,7 @@
         <v>44133</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12648,7 +12648,7 @@
         <v>44133</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12705,7 +12705,7 @@
         <v>44138</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12762,7 +12762,7 @@
         <v>44138</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12819,7 +12819,7 @@
         <v>44154</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12876,7 +12876,7 @@
         <v>44159</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12933,7 +12933,7 @@
         <v>44159</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12990,7 +12990,7 @@
         <v>44162</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13047,7 +13047,7 @@
         <v>44165</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13104,7 +13104,7 @@
         <v>44168</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13161,7 +13161,7 @@
         <v>44173</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13223,7 +13223,7 @@
         <v>44174</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13280,7 +13280,7 @@
         <v>44174</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13337,7 +13337,7 @@
         <v>44187</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13394,7 +13394,7 @@
         <v>44194</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13451,7 +13451,7 @@
         <v>44200</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13508,7 +13508,7 @@
         <v>44209</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13565,7 +13565,7 @@
         <v>44210</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13627,7 +13627,7 @@
         <v>44210</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13689,7 +13689,7 @@
         <v>44210</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13751,7 +13751,7 @@
         <v>44218</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13808,7 +13808,7 @@
         <v>44223</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13865,7 +13865,7 @@
         <v>44224</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13922,7 +13922,7 @@
         <v>44224</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13979,7 +13979,7 @@
         <v>44224</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14036,7 +14036,7 @@
         <v>44229</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14093,7 +14093,7 @@
         <v>44242</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14150,7 +14150,7 @@
         <v>44250</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14207,7 +14207,7 @@
         <v>44250</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14264,7 +14264,7 @@
         <v>44250</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14321,7 +14321,7 @@
         <v>44258</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14378,7 +14378,7 @@
         <v>44264</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14435,7 +14435,7 @@
         <v>44320</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14492,7 +14492,7 @@
         <v>44337</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14549,7 +14549,7 @@
         <v>44337</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14606,7 +14606,7 @@
         <v>44341</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14663,7 +14663,7 @@
         <v>44344</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14725,7 +14725,7 @@
         <v>44349</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14787,7 +14787,7 @@
         <v>44350</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14849,7 +14849,7 @@
         <v>44355</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14906,7 +14906,7 @@
         <v>44357</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14968,7 +14968,7 @@
         <v>44357</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15030,7 +15030,7 @@
         <v>44357</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15092,7 +15092,7 @@
         <v>44376</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15149,7 +15149,7 @@
         <v>44391</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15206,7 +15206,7 @@
         <v>44417</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15263,7 +15263,7 @@
         <v>44418</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15320,7 +15320,7 @@
         <v>44432</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15377,7 +15377,7 @@
         <v>44432</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15434,7 +15434,7 @@
         <v>44434</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15491,7 +15491,7 @@
         <v>44440</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15548,7 +15548,7 @@
         <v>44448</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15605,7 +15605,7 @@
         <v>44491</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15662,7 +15662,7 @@
         <v>44496</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15719,7 +15719,7 @@
         <v>44496</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15776,7 +15776,7 @@
         <v>44497</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15833,7 +15833,7 @@
         <v>44497</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15890,7 +15890,7 @@
         <v>44517</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15947,7 +15947,7 @@
         <v>44517</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16004,7 +16004,7 @@
         <v>44517</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16061,7 +16061,7 @@
         <v>44517</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16118,7 +16118,7 @@
         <v>44517</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16175,7 +16175,7 @@
         <v>44530</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16237,7 +16237,7 @@
         <v>44564</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16294,7 +16294,7 @@
         <v>44579</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16351,7 +16351,7 @@
         <v>44588</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16408,7 +16408,7 @@
         <v>44588</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16465,7 +16465,7 @@
         <v>44610</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16522,7 +16522,7 @@
         <v>44613</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         <v>44615</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16636,7 +16636,7 @@
         <v>44616</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16693,7 +16693,7 @@
         <v>44616</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16750,7 +16750,7 @@
         <v>44617</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16807,7 +16807,7 @@
         <v>44641</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16869,7 +16869,7 @@
         <v>44641</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16931,7 +16931,7 @@
         <v>44641</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16993,7 +16993,7 @@
         <v>44645</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17055,7 +17055,7 @@
         <v>44656</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17112,7 +17112,7 @@
         <v>44656</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17169,7 +17169,7 @@
         <v>44656</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17226,7 +17226,7 @@
         <v>44658</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17283,7 +17283,7 @@
         <v>44659</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17340,7 +17340,7 @@
         <v>44659</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
         <v>44662</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17454,7 +17454,7 @@
         <v>44687</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17511,7 +17511,7 @@
         <v>44706</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17568,7 +17568,7 @@
         <v>44725</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17625,7 +17625,7 @@
         <v>44725</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17682,7 +17682,7 @@
         <v>44726</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17739,7 +17739,7 @@
         <v>44785</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17796,7 +17796,7 @@
         <v>44792</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17853,7 +17853,7 @@
         <v>44797</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17910,7 +17910,7 @@
         <v>44800</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17967,7 +17967,7 @@
         <v>44813</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18024,7 +18024,7 @@
         <v>44824</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18081,7 +18081,7 @@
         <v>44831</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18138,7 +18138,7 @@
         <v>44837</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18195,7 +18195,7 @@
         <v>44837</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18252,7 +18252,7 @@
         <v>44837</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18309,7 +18309,7 @@
         <v>44859</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18371,7 +18371,7 @@
         <v>44859</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18428,7 +18428,7 @@
         <v>44872</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18485,7 +18485,7 @@
         <v>44895</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18542,7 +18542,7 @@
         <v>44895</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18599,7 +18599,7 @@
         <v>44897</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18656,7 +18656,7 @@
         <v>44898</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18713,7 +18713,7 @@
         <v>44901</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18770,7 +18770,7 @@
         <v>44902</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18827,7 +18827,7 @@
         <v>44902</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18884,7 +18884,7 @@
         <v>44902</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18941,7 +18941,7 @@
         <v>44903</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18998,7 +18998,7 @@
         <v>44914</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19055,7 +19055,7 @@
         <v>44915</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19112,7 +19112,7 @@
         <v>44930</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19169,7 +19169,7 @@
         <v>44937</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19226,7 +19226,7 @@
         <v>44937</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19283,7 +19283,7 @@
         <v>44938</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19340,7 +19340,7 @@
         <v>44950</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19397,7 +19397,7 @@
         <v>44953</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19454,7 +19454,7 @@
         <v>44953</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19511,7 +19511,7 @@
         <v>44958</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19573,7 +19573,7 @@
         <v>44958</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19630,7 +19630,7 @@
         <v>44964</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19687,7 +19687,7 @@
         <v>44964</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19744,7 +19744,7 @@
         <v>44964</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19801,7 +19801,7 @@
         <v>44964</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19858,7 +19858,7 @@
         <v>44964</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19915,7 +19915,7 @@
         <v>44964</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19977,7 +19977,7 @@
         <v>44974</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20034,7 +20034,7 @@
         <v>44979</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20091,7 +20091,7 @@
         <v>44979</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20148,7 +20148,7 @@
         <v>44981</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20205,7 +20205,7 @@
         <v>44981</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20262,7 +20262,7 @@
         <v>44981</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20319,7 +20319,7 @@
         <v>44987</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20376,7 +20376,7 @@
         <v>44988</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20433,7 +20433,7 @@
         <v>45000</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20490,7 +20490,7 @@
         <v>45002</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20547,7 +20547,7 @@
         <v>45002</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20604,7 +20604,7 @@
         <v>45006</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20661,7 +20661,7 @@
         <v>45021</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20718,7 +20718,7 @@
         <v>45029</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20775,7 +20775,7 @@
         <v>45034</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20832,7 +20832,7 @@
         <v>45036</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20889,7 +20889,7 @@
         <v>45037</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         <v>45043</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21003,7 +21003,7 @@
         <v>45043</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21060,7 +21060,7 @@
         <v>45048</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21117,7 +21117,7 @@
         <v>45053</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21174,7 +21174,7 @@
         <v>45056</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21231,7 +21231,7 @@
         <v>45062</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21288,7 +21288,7 @@
         <v>45069</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21345,7 +21345,7 @@
         <v>45069</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21402,7 +21402,7 @@
         <v>45069</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21459,7 +21459,7 @@
         <v>45069</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21516,7 +21516,7 @@
         <v>45079</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         <v>45082</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21635,7 +21635,7 @@
         <v>45082</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21697,7 +21697,7 @@
         <v>45084</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21754,7 +21754,7 @@
         <v>45086</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21811,7 +21811,7 @@
         <v>45098</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21868,7 +21868,7 @@
         <v>45099</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21925,7 +21925,7 @@
         <v>45099</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -21982,7 +21982,7 @@
         <v>45099</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22044,7 +22044,7 @@
         <v>45106</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22101,7 +22101,7 @@
         <v>45107</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22158,7 +22158,7 @@
         <v>45111</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22215,7 +22215,7 @@
         <v>45111</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22272,7 +22272,7 @@
         <v>45114</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22329,7 +22329,7 @@
         <v>45114</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         <v>45120</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22443,7 +22443,7 @@
         <v>45120</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22500,7 +22500,7 @@
         <v>45120</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22557,7 +22557,7 @@
         <v>45120</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22614,7 +22614,7 @@
         <v>45131</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22671,7 +22671,7 @@
         <v>45147</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22728,7 +22728,7 @@
         <v>45149</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22785,7 +22785,7 @@
         <v>45149</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22842,7 +22842,7 @@
         <v>45160</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22899,7 +22899,7 @@
         <v>45162</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>

--- a/Översikt SVENLJUNGA.xlsx
+++ b/Översikt SVENLJUNGA.xlsx
@@ -572,7 +572,7 @@
         <v>44579</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>44838</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>44210</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         <v>43620</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>44250</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>44613</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>44613</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1189,7 +1189,7 @@
         <v>44764</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1274,7 +1274,7 @@
         <v>43314</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1331,7 +1331,7 @@
         <v>43325</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1388,7 +1388,7 @@
         <v>43328</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1450,7 +1450,7 @@
         <v>43329</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1507,7 +1507,7 @@
         <v>43346</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1564,7 +1564,7 @@
         <v>43349</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1621,7 +1621,7 @@
         <v>43349</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1678,7 +1678,7 @@
         <v>43353</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1735,7 +1735,7 @@
         <v>43357</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
         <v>43363</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
         <v>43374</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>43381</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>43390</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
         <v>43398</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2087,7 +2087,7 @@
         <v>43402</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>43411</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         <v>43413</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>43413</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>43413</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>43419</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2434,7 +2434,7 @@
         <v>43423</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>43424</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>43425</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>43425</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         <v>43426</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         <v>43428</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>43430</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         <v>43433</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         <v>43433</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>43437</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>43437</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>43438</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>43439</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>43444</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43447</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>43447</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>43448</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>43451</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         <v>43454</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3522,7 +3522,7 @@
         <v>43454</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3584,7 +3584,7 @@
         <v>43454</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3641,7 +3641,7 @@
         <v>43454</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3698,7 +3698,7 @@
         <v>43454</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3760,7 +3760,7 @@
         <v>43454</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3817,7 +3817,7 @@
         <v>43454</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3874,7 +3874,7 @@
         <v>43455</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3931,7 +3931,7 @@
         <v>43455</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3988,7 +3988,7 @@
         <v>43455</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>43461</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>43461</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4169,7 +4169,7 @@
         <v>43462</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         <v>43473</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4283,7 +4283,7 @@
         <v>43475</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4340,7 +4340,7 @@
         <v>43486</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4397,7 +4397,7 @@
         <v>43494</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4454,7 +4454,7 @@
         <v>43495</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4511,7 +4511,7 @@
         <v>43500</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         <v>43501</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>43501</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4682,7 +4682,7 @@
         <v>43511</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>43531</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
         <v>43542</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4853,7 +4853,7 @@
         <v>43544</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         <v>43544</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4977,7 +4977,7 @@
         <v>43554</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5034,7 +5034,7 @@
         <v>43554</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>43554</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>43558</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5205,7 +5205,7 @@
         <v>43559</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5262,7 +5262,7 @@
         <v>43559</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5319,7 +5319,7 @@
         <v>43560</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5376,7 +5376,7 @@
         <v>43565</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5433,7 +5433,7 @@
         <v>43565</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5490,7 +5490,7 @@
         <v>43565</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5547,7 +5547,7 @@
         <v>43572</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5604,7 +5604,7 @@
         <v>43585</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5661,7 +5661,7 @@
         <v>43588</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5718,7 +5718,7 @@
         <v>43591</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5775,7 +5775,7 @@
         <v>43592</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5837,7 +5837,7 @@
         <v>43599</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5894,7 +5894,7 @@
         <v>43599</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5951,7 +5951,7 @@
         <v>43599</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6008,7 +6008,7 @@
         <v>43599</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6065,7 +6065,7 @@
         <v>43609</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
         <v>43609</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         <v>43620</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6241,7 +6241,7 @@
         <v>43620</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6298,7 +6298,7 @@
         <v>43626</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         <v>43626</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6412,7 +6412,7 @@
         <v>43634</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6469,7 +6469,7 @@
         <v>43644</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6526,7 +6526,7 @@
         <v>43644</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6583,7 +6583,7 @@
         <v>43644</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6640,7 +6640,7 @@
         <v>43644</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
         <v>43647</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6759,7 +6759,7 @@
         <v>43647</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6821,7 +6821,7 @@
         <v>43658</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         <v>43676</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         <v>43676</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         <v>43676</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7064,7 +7064,7 @@
         <v>43676</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7126,7 +7126,7 @@
         <v>43677</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>43697</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         <v>43699</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7307,7 +7307,7 @@
         <v>43705</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7364,7 +7364,7 @@
         <v>43706</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7421,7 +7421,7 @@
         <v>43721</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7478,7 +7478,7 @@
         <v>43728</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7535,7 +7535,7 @@
         <v>43728</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7592,7 +7592,7 @@
         <v>43733</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7649,7 +7649,7 @@
         <v>43745</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7706,7 +7706,7 @@
         <v>43758</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7763,7 +7763,7 @@
         <v>43760</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7820,7 +7820,7 @@
         <v>43761</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7877,7 +7877,7 @@
         <v>43770</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7934,7 +7934,7 @@
         <v>43771</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7991,7 +7991,7 @@
         <v>43773</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8048,7 +8048,7 @@
         <v>43780</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8105,7 +8105,7 @@
         <v>43780</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8162,7 +8162,7 @@
         <v>43782</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8219,7 +8219,7 @@
         <v>43782</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8276,7 +8276,7 @@
         <v>43788</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8333,7 +8333,7 @@
         <v>43788</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8390,7 +8390,7 @@
         <v>43788</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8447,7 +8447,7 @@
         <v>43790</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8504,7 +8504,7 @@
         <v>43791</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8561,7 +8561,7 @@
         <v>43795</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8623,7 +8623,7 @@
         <v>43798</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8680,7 +8680,7 @@
         <v>43798</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8737,7 +8737,7 @@
         <v>43798</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8794,7 +8794,7 @@
         <v>43803</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8851,7 +8851,7 @@
         <v>43803</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8908,7 +8908,7 @@
         <v>43804</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8970,7 +8970,7 @@
         <v>43817</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9032,7 +9032,7 @@
         <v>43818</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9094,7 +9094,7 @@
         <v>43832</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9151,7 +9151,7 @@
         <v>43853</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9208,7 +9208,7 @@
         <v>43867</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9265,7 +9265,7 @@
         <v>43868</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9322,7 +9322,7 @@
         <v>43868</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         <v>43868</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9436,7 +9436,7 @@
         <v>43873</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9498,7 +9498,7 @@
         <v>43892</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9555,7 +9555,7 @@
         <v>43894</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9612,7 +9612,7 @@
         <v>43900</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9669,7 +9669,7 @@
         <v>43902</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9726,7 +9726,7 @@
         <v>43902</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9783,7 +9783,7 @@
         <v>43912</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9840,7 +9840,7 @@
         <v>43914</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9897,7 +9897,7 @@
         <v>43915</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9954,7 +9954,7 @@
         <v>43915</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10011,7 +10011,7 @@
         <v>43915</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10068,7 +10068,7 @@
         <v>43920</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10125,7 +10125,7 @@
         <v>43922</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10182,7 +10182,7 @@
         <v>43923</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10239,7 +10239,7 @@
         <v>43923</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10296,7 +10296,7 @@
         <v>43933</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10353,7 +10353,7 @@
         <v>43937</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10415,7 +10415,7 @@
         <v>43949</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10472,7 +10472,7 @@
         <v>43955</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10529,7 +10529,7 @@
         <v>43962</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10586,7 +10586,7 @@
         <v>43963</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10643,7 +10643,7 @@
         <v>43965</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10700,7 +10700,7 @@
         <v>43971</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10762,7 +10762,7 @@
         <v>43983</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10824,7 +10824,7 @@
         <v>43986</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10881,7 +10881,7 @@
         <v>43986</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10938,7 +10938,7 @@
         <v>43991</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10995,7 +10995,7 @@
         <v>44008</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11052,7 +11052,7 @@
         <v>44015</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11109,7 +11109,7 @@
         <v>44018</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11166,7 +11166,7 @@
         <v>44036</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11223,7 +11223,7 @@
         <v>44036</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11280,7 +11280,7 @@
         <v>44050</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11337,7 +11337,7 @@
         <v>44053</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11394,7 +11394,7 @@
         <v>44056</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11451,7 +11451,7 @@
         <v>44061</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11508,7 +11508,7 @@
         <v>44063</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11565,7 +11565,7 @@
         <v>44063</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11622,7 +11622,7 @@
         <v>44068</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11679,7 +11679,7 @@
         <v>44069</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11736,7 +11736,7 @@
         <v>44076</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11793,7 +11793,7 @@
         <v>44082</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11850,7 +11850,7 @@
         <v>44086</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11907,7 +11907,7 @@
         <v>44086</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11964,7 +11964,7 @@
         <v>44089</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12021,7 +12021,7 @@
         <v>44109</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12078,7 +12078,7 @@
         <v>44109</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12135,7 +12135,7 @@
         <v>44116</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12192,7 +12192,7 @@
         <v>44117</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12249,7 +12249,7 @@
         <v>44127</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12306,7 +12306,7 @@
         <v>44129</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12363,7 +12363,7 @@
         <v>44130</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12420,7 +12420,7 @@
         <v>44130</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12477,7 +12477,7 @@
         <v>44130</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12534,7 +12534,7 @@
         <v>44132</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12591,7 +12591,7 @@
         <v>44133</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12648,7 +12648,7 @@
         <v>44133</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12705,7 +12705,7 @@
         <v>44138</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12762,7 +12762,7 @@
         <v>44138</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12819,7 +12819,7 @@
         <v>44154</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12876,7 +12876,7 @@
         <v>44159</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12933,7 +12933,7 @@
         <v>44159</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12990,7 +12990,7 @@
         <v>44162</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13047,7 +13047,7 @@
         <v>44165</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13104,7 +13104,7 @@
         <v>44168</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13161,7 +13161,7 @@
         <v>44173</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13223,7 +13223,7 @@
         <v>44174</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13280,7 +13280,7 @@
         <v>44174</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13337,7 +13337,7 @@
         <v>44187</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13394,7 +13394,7 @@
         <v>44194</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13451,7 +13451,7 @@
         <v>44200</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13508,7 +13508,7 @@
         <v>44209</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13565,7 +13565,7 @@
         <v>44210</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13627,7 +13627,7 @@
         <v>44210</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13689,7 +13689,7 @@
         <v>44210</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13751,7 +13751,7 @@
         <v>44218</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13808,7 +13808,7 @@
         <v>44223</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13865,7 +13865,7 @@
         <v>44224</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13922,7 +13922,7 @@
         <v>44224</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13979,7 +13979,7 @@
         <v>44224</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14036,7 +14036,7 @@
         <v>44229</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14093,7 +14093,7 @@
         <v>44242</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14150,7 +14150,7 @@
         <v>44250</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14207,7 +14207,7 @@
         <v>44250</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14264,7 +14264,7 @@
         <v>44250</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14321,7 +14321,7 @@
         <v>44258</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14378,7 +14378,7 @@
         <v>44264</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14435,7 +14435,7 @@
         <v>44320</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14492,7 +14492,7 @@
         <v>44337</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14549,7 +14549,7 @@
         <v>44337</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14606,7 +14606,7 @@
         <v>44341</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14663,7 +14663,7 @@
         <v>44344</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14725,7 +14725,7 @@
         <v>44349</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14787,7 +14787,7 @@
         <v>44350</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14849,7 +14849,7 @@
         <v>44355</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14906,7 +14906,7 @@
         <v>44357</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14968,7 +14968,7 @@
         <v>44357</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15030,7 +15030,7 @@
         <v>44357</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15092,7 +15092,7 @@
         <v>44376</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15149,7 +15149,7 @@
         <v>44391</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15206,7 +15206,7 @@
         <v>44417</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15263,7 +15263,7 @@
         <v>44418</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15320,7 +15320,7 @@
         <v>44432</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15377,7 +15377,7 @@
         <v>44432</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15434,7 +15434,7 @@
         <v>44434</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15491,7 +15491,7 @@
         <v>44440</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15548,7 +15548,7 @@
         <v>44448</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15605,7 +15605,7 @@
         <v>44491</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15662,7 +15662,7 @@
         <v>44496</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15719,7 +15719,7 @@
         <v>44496</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15776,7 +15776,7 @@
         <v>44497</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15833,7 +15833,7 @@
         <v>44497</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15890,7 +15890,7 @@
         <v>44517</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15947,7 +15947,7 @@
         <v>44517</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16004,7 +16004,7 @@
         <v>44517</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16061,7 +16061,7 @@
         <v>44517</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16118,7 +16118,7 @@
         <v>44517</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16175,7 +16175,7 @@
         <v>44530</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16237,7 +16237,7 @@
         <v>44564</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16294,7 +16294,7 @@
         <v>44579</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16351,7 +16351,7 @@
         <v>44588</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16408,7 +16408,7 @@
         <v>44588</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16465,7 +16465,7 @@
         <v>44610</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16522,7 +16522,7 @@
         <v>44613</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         <v>44615</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16636,7 +16636,7 @@
         <v>44616</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16693,7 +16693,7 @@
         <v>44616</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16750,7 +16750,7 @@
         <v>44617</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16807,7 +16807,7 @@
         <v>44641</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16869,7 +16869,7 @@
         <v>44641</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16931,7 +16931,7 @@
         <v>44641</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16993,7 +16993,7 @@
         <v>44645</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17055,7 +17055,7 @@
         <v>44656</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17112,7 +17112,7 @@
         <v>44656</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17169,7 +17169,7 @@
         <v>44656</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17226,7 +17226,7 @@
         <v>44658</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17283,7 +17283,7 @@
         <v>44659</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17340,7 +17340,7 @@
         <v>44659</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
         <v>44662</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17454,7 +17454,7 @@
         <v>44687</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17511,7 +17511,7 @@
         <v>44706</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17568,7 +17568,7 @@
         <v>44725</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17625,7 +17625,7 @@
         <v>44725</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17682,7 +17682,7 @@
         <v>44726</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17739,7 +17739,7 @@
         <v>44785</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17796,7 +17796,7 @@
         <v>44792</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17853,7 +17853,7 @@
         <v>44797</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17910,7 +17910,7 @@
         <v>44800</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17967,7 +17967,7 @@
         <v>44813</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18024,7 +18024,7 @@
         <v>44824</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18081,7 +18081,7 @@
         <v>44831</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18138,7 +18138,7 @@
         <v>44837</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18195,7 +18195,7 @@
         <v>44837</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18252,7 +18252,7 @@
         <v>44837</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18309,7 +18309,7 @@
         <v>44859</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18371,7 +18371,7 @@
         <v>44859</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18428,7 +18428,7 @@
         <v>44872</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18485,7 +18485,7 @@
         <v>44895</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18542,7 +18542,7 @@
         <v>44895</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18599,7 +18599,7 @@
         <v>44897</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18656,7 +18656,7 @@
         <v>44898</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18713,7 +18713,7 @@
         <v>44901</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18770,7 +18770,7 @@
         <v>44902</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18827,7 +18827,7 @@
         <v>44902</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18884,7 +18884,7 @@
         <v>44902</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18941,7 +18941,7 @@
         <v>44903</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18998,7 +18998,7 @@
         <v>44914</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19055,7 +19055,7 @@
         <v>44915</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19112,7 +19112,7 @@
         <v>44930</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19169,7 +19169,7 @@
         <v>44937</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19226,7 +19226,7 @@
         <v>44937</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19283,7 +19283,7 @@
         <v>44938</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19340,7 +19340,7 @@
         <v>44950</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19397,7 +19397,7 @@
         <v>44953</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19454,7 +19454,7 @@
         <v>44953</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19511,7 +19511,7 @@
         <v>44958</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19573,7 +19573,7 @@
         <v>44958</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19630,7 +19630,7 @@
         <v>44964</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19687,7 +19687,7 @@
         <v>44964</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19744,7 +19744,7 @@
         <v>44964</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19801,7 +19801,7 @@
         <v>44964</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19858,7 +19858,7 @@
         <v>44964</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19915,7 +19915,7 @@
         <v>44964</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19977,7 +19977,7 @@
         <v>44974</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20034,7 +20034,7 @@
         <v>44979</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20091,7 +20091,7 @@
         <v>44979</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20148,7 +20148,7 @@
         <v>44981</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20205,7 +20205,7 @@
         <v>44981</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20262,7 +20262,7 @@
         <v>44981</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20319,7 +20319,7 @@
         <v>44987</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20376,7 +20376,7 @@
         <v>44988</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20433,7 +20433,7 @@
         <v>45000</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20490,7 +20490,7 @@
         <v>45002</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20547,7 +20547,7 @@
         <v>45002</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20604,7 +20604,7 @@
         <v>45006</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20661,7 +20661,7 @@
         <v>45021</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20718,7 +20718,7 @@
         <v>45029</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20775,7 +20775,7 @@
         <v>45034</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20832,7 +20832,7 @@
         <v>45036</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20889,7 +20889,7 @@
         <v>45037</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         <v>45043</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21003,7 +21003,7 @@
         <v>45043</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21060,7 +21060,7 @@
         <v>45048</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21117,7 +21117,7 @@
         <v>45053</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21174,7 +21174,7 @@
         <v>45056</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21231,7 +21231,7 @@
         <v>45062</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21288,7 +21288,7 @@
         <v>45069</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21345,7 +21345,7 @@
         <v>45069</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21402,7 +21402,7 @@
         <v>45069</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21459,7 +21459,7 @@
         <v>45069</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21516,7 +21516,7 @@
         <v>45079</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         <v>45082</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21635,7 +21635,7 @@
         <v>45082</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21697,7 +21697,7 @@
         <v>45084</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21754,7 +21754,7 @@
         <v>45086</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21811,7 +21811,7 @@
         <v>45098</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21868,7 +21868,7 @@
         <v>45099</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21925,7 +21925,7 @@
         <v>45099</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -21982,7 +21982,7 @@
         <v>45099</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22044,7 +22044,7 @@
         <v>45106</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22101,7 +22101,7 @@
         <v>45107</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22158,7 +22158,7 @@
         <v>45111</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22215,7 +22215,7 @@
         <v>45111</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22272,7 +22272,7 @@
         <v>45114</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22329,7 +22329,7 @@
         <v>45114</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         <v>45120</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22443,7 +22443,7 @@
         <v>45120</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22500,7 +22500,7 @@
         <v>45120</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22557,7 +22557,7 @@
         <v>45120</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22614,7 +22614,7 @@
         <v>45131</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22671,7 +22671,7 @@
         <v>45147</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22728,7 +22728,7 @@
         <v>45149</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22785,7 +22785,7 @@
         <v>45149</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22842,7 +22842,7 @@
         <v>45160</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22899,7 +22899,7 @@
         <v>45162</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>

--- a/Översikt SVENLJUNGA.xlsx
+++ b/Översikt SVENLJUNGA.xlsx
@@ -572,7 +572,7 @@
         <v>44579</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>44838</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>44210</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         <v>43620</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>44250</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>44613</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>44613</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1189,7 +1189,7 @@
         <v>44764</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1274,7 +1274,7 @@
         <v>43314</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1331,7 +1331,7 @@
         <v>43325</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1388,7 +1388,7 @@
         <v>43328</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1450,7 +1450,7 @@
         <v>43329</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1507,7 +1507,7 @@
         <v>43346</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1564,7 +1564,7 @@
         <v>43349</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1621,7 +1621,7 @@
         <v>43349</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1678,7 +1678,7 @@
         <v>43353</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1735,7 +1735,7 @@
         <v>43357</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
         <v>43363</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
         <v>43374</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>43381</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>43390</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
         <v>43398</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2087,7 +2087,7 @@
         <v>43402</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>43411</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         <v>43413</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>43413</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>43413</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>43419</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2434,7 +2434,7 @@
         <v>43423</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>43424</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>43425</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>43425</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         <v>43426</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         <v>43428</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>43430</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         <v>43433</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         <v>43433</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>43437</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>43437</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>43438</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>43439</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>43444</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43447</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>43447</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>43448</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>43451</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         <v>43454</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3522,7 +3522,7 @@
         <v>43454</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3584,7 +3584,7 @@
         <v>43454</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3641,7 +3641,7 @@
         <v>43454</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3698,7 +3698,7 @@
         <v>43454</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3760,7 +3760,7 @@
         <v>43454</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3817,7 +3817,7 @@
         <v>43454</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3874,7 +3874,7 @@
         <v>43455</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3931,7 +3931,7 @@
         <v>43455</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3988,7 +3988,7 @@
         <v>43455</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>43461</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>43461</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4169,7 +4169,7 @@
         <v>43462</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         <v>43473</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4283,7 +4283,7 @@
         <v>43475</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4340,7 +4340,7 @@
         <v>43486</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4397,7 +4397,7 @@
         <v>43494</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4454,7 +4454,7 @@
         <v>43495</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4511,7 +4511,7 @@
         <v>43500</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         <v>43501</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>43501</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4682,7 +4682,7 @@
         <v>43511</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>43531</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
         <v>43542</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4853,7 +4853,7 @@
         <v>43544</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         <v>43544</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4977,7 +4977,7 @@
         <v>43554</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5034,7 +5034,7 @@
         <v>43554</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>43554</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>43558</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5205,7 +5205,7 @@
         <v>43559</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5262,7 +5262,7 @@
         <v>43559</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5319,7 +5319,7 @@
         <v>43560</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5376,7 +5376,7 @@
         <v>43565</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5433,7 +5433,7 @@
         <v>43565</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5490,7 +5490,7 @@
         <v>43565</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5547,7 +5547,7 @@
         <v>43572</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5604,7 +5604,7 @@
         <v>43585</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5661,7 +5661,7 @@
         <v>43588</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5718,7 +5718,7 @@
         <v>43591</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5775,7 +5775,7 @@
         <v>43592</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5837,7 +5837,7 @@
         <v>43599</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5894,7 +5894,7 @@
         <v>43599</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5951,7 +5951,7 @@
         <v>43599</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6008,7 +6008,7 @@
         <v>43599</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6065,7 +6065,7 @@
         <v>43609</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
         <v>43609</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         <v>43620</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6241,7 +6241,7 @@
         <v>43620</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6298,7 +6298,7 @@
         <v>43626</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         <v>43626</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6412,7 +6412,7 @@
         <v>43634</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6469,7 +6469,7 @@
         <v>43644</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6526,7 +6526,7 @@
         <v>43644</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6583,7 +6583,7 @@
         <v>43644</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6640,7 +6640,7 @@
         <v>43644</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
         <v>43647</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6759,7 +6759,7 @@
         <v>43647</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6821,7 +6821,7 @@
         <v>43658</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         <v>43676</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         <v>43676</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         <v>43676</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7064,7 +7064,7 @@
         <v>43676</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7126,7 +7126,7 @@
         <v>43677</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>43697</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         <v>43699</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7307,7 +7307,7 @@
         <v>43705</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7364,7 +7364,7 @@
         <v>43706</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7421,7 +7421,7 @@
         <v>43721</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7478,7 +7478,7 @@
         <v>43728</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7535,7 +7535,7 @@
         <v>43728</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7592,7 +7592,7 @@
         <v>43733</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7649,7 +7649,7 @@
         <v>43745</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7706,7 +7706,7 @@
         <v>43758</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7763,7 +7763,7 @@
         <v>43760</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7820,7 +7820,7 @@
         <v>43761</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7877,7 +7877,7 @@
         <v>43770</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7934,7 +7934,7 @@
         <v>43771</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7991,7 +7991,7 @@
         <v>43773</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8048,7 +8048,7 @@
         <v>43780</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8105,7 +8105,7 @@
         <v>43780</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8162,7 +8162,7 @@
         <v>43782</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8219,7 +8219,7 @@
         <v>43782</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8276,7 +8276,7 @@
         <v>43788</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8333,7 +8333,7 @@
         <v>43788</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8390,7 +8390,7 @@
         <v>43788</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8447,7 +8447,7 @@
         <v>43790</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8504,7 +8504,7 @@
         <v>43791</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8561,7 +8561,7 @@
         <v>43795</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8623,7 +8623,7 @@
         <v>43798</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8680,7 +8680,7 @@
         <v>43798</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8737,7 +8737,7 @@
         <v>43798</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8794,7 +8794,7 @@
         <v>43803</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8851,7 +8851,7 @@
         <v>43803</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8908,7 +8908,7 @@
         <v>43804</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8970,7 +8970,7 @@
         <v>43817</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9032,7 +9032,7 @@
         <v>43818</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9094,7 +9094,7 @@
         <v>43832</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9151,7 +9151,7 @@
         <v>43853</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9208,7 +9208,7 @@
         <v>43867</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9265,7 +9265,7 @@
         <v>43868</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9322,7 +9322,7 @@
         <v>43868</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         <v>43868</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9436,7 +9436,7 @@
         <v>43873</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9498,7 +9498,7 @@
         <v>43892</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9555,7 +9555,7 @@
         <v>43894</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9612,7 +9612,7 @@
         <v>43900</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9669,7 +9669,7 @@
         <v>43902</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9726,7 +9726,7 @@
         <v>43902</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9783,7 +9783,7 @@
         <v>43912</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9840,7 +9840,7 @@
         <v>43914</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9897,7 +9897,7 @@
         <v>43915</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9954,7 +9954,7 @@
         <v>43915</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10011,7 +10011,7 @@
         <v>43915</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10068,7 +10068,7 @@
         <v>43920</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10125,7 +10125,7 @@
         <v>43922</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10182,7 +10182,7 @@
         <v>43923</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10239,7 +10239,7 @@
         <v>43923</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10296,7 +10296,7 @@
         <v>43933</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10353,7 +10353,7 @@
         <v>43937</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10415,7 +10415,7 @@
         <v>43949</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10472,7 +10472,7 @@
         <v>43955</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10529,7 +10529,7 @@
         <v>43962</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10586,7 +10586,7 @@
         <v>43963</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10643,7 +10643,7 @@
         <v>43965</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10700,7 +10700,7 @@
         <v>43971</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10762,7 +10762,7 @@
         <v>43983</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10824,7 +10824,7 @@
         <v>43986</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10881,7 +10881,7 @@
         <v>43986</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10938,7 +10938,7 @@
         <v>43991</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10995,7 +10995,7 @@
         <v>44008</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11052,7 +11052,7 @@
         <v>44015</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11109,7 +11109,7 @@
         <v>44018</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11166,7 +11166,7 @@
         <v>44036</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11223,7 +11223,7 @@
         <v>44036</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11280,7 +11280,7 @@
         <v>44050</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11337,7 +11337,7 @@
         <v>44053</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11394,7 +11394,7 @@
         <v>44056</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11451,7 +11451,7 @@
         <v>44061</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11508,7 +11508,7 @@
         <v>44063</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11565,7 +11565,7 @@
         <v>44063</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11622,7 +11622,7 @@
         <v>44068</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11679,7 +11679,7 @@
         <v>44069</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11736,7 +11736,7 @@
         <v>44076</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11793,7 +11793,7 @@
         <v>44082</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11850,7 +11850,7 @@
         <v>44086</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11907,7 +11907,7 @@
         <v>44086</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11964,7 +11964,7 @@
         <v>44089</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12021,7 +12021,7 @@
         <v>44109</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12078,7 +12078,7 @@
         <v>44109</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12135,7 +12135,7 @@
         <v>44116</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12192,7 +12192,7 @@
         <v>44117</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12249,7 +12249,7 @@
         <v>44127</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12306,7 +12306,7 @@
         <v>44129</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12363,7 +12363,7 @@
         <v>44130</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12420,7 +12420,7 @@
         <v>44130</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12477,7 +12477,7 @@
         <v>44130</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12534,7 +12534,7 @@
         <v>44132</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12591,7 +12591,7 @@
         <v>44133</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12648,7 +12648,7 @@
         <v>44133</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12705,7 +12705,7 @@
         <v>44138</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12762,7 +12762,7 @@
         <v>44138</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12819,7 +12819,7 @@
         <v>44154</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12876,7 +12876,7 @@
         <v>44159</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12933,7 +12933,7 @@
         <v>44159</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12990,7 +12990,7 @@
         <v>44162</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13047,7 +13047,7 @@
         <v>44165</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13104,7 +13104,7 @@
         <v>44168</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13161,7 +13161,7 @@
         <v>44173</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13223,7 +13223,7 @@
         <v>44174</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13280,7 +13280,7 @@
         <v>44174</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13337,7 +13337,7 @@
         <v>44187</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13394,7 +13394,7 @@
         <v>44194</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13451,7 +13451,7 @@
         <v>44200</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13508,7 +13508,7 @@
         <v>44209</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13565,7 +13565,7 @@
         <v>44210</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13627,7 +13627,7 @@
         <v>44210</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13689,7 +13689,7 @@
         <v>44210</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13751,7 +13751,7 @@
         <v>44218</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13808,7 +13808,7 @@
         <v>44223</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13865,7 +13865,7 @@
         <v>44224</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13922,7 +13922,7 @@
         <v>44224</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13979,7 +13979,7 @@
         <v>44224</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14036,7 +14036,7 @@
         <v>44229</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14093,7 +14093,7 @@
         <v>44242</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14150,7 +14150,7 @@
         <v>44250</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14207,7 +14207,7 @@
         <v>44250</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14264,7 +14264,7 @@
         <v>44250</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14321,7 +14321,7 @@
         <v>44258</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14378,7 +14378,7 @@
         <v>44264</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14435,7 +14435,7 @@
         <v>44320</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14492,7 +14492,7 @@
         <v>44337</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14549,7 +14549,7 @@
         <v>44337</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14606,7 +14606,7 @@
         <v>44341</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14663,7 +14663,7 @@
         <v>44344</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14725,7 +14725,7 @@
         <v>44349</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14787,7 +14787,7 @@
         <v>44350</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14849,7 +14849,7 @@
         <v>44355</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14906,7 +14906,7 @@
         <v>44357</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14968,7 +14968,7 @@
         <v>44357</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15030,7 +15030,7 @@
         <v>44357</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15092,7 +15092,7 @@
         <v>44376</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15149,7 +15149,7 @@
         <v>44391</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15206,7 +15206,7 @@
         <v>44417</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15263,7 +15263,7 @@
         <v>44418</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15320,7 +15320,7 @@
         <v>44432</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15377,7 +15377,7 @@
         <v>44432</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15434,7 +15434,7 @@
         <v>44434</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15491,7 +15491,7 @@
         <v>44440</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15548,7 +15548,7 @@
         <v>44448</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15605,7 +15605,7 @@
         <v>44491</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15662,7 +15662,7 @@
         <v>44496</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15719,7 +15719,7 @@
         <v>44496</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15776,7 +15776,7 @@
         <v>44497</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15833,7 +15833,7 @@
         <v>44497</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15890,7 +15890,7 @@
         <v>44517</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15947,7 +15947,7 @@
         <v>44517</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16004,7 +16004,7 @@
         <v>44517</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16061,7 +16061,7 @@
         <v>44517</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16118,7 +16118,7 @@
         <v>44517</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16175,7 +16175,7 @@
         <v>44530</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16237,7 +16237,7 @@
         <v>44564</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16294,7 +16294,7 @@
         <v>44579</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16351,7 +16351,7 @@
         <v>44588</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16408,7 +16408,7 @@
         <v>44588</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16465,7 +16465,7 @@
         <v>44610</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16522,7 +16522,7 @@
         <v>44613</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         <v>44615</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16636,7 +16636,7 @@
         <v>44616</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16693,7 +16693,7 @@
         <v>44616</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16750,7 +16750,7 @@
         <v>44617</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16807,7 +16807,7 @@
         <v>44641</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16869,7 +16869,7 @@
         <v>44641</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16931,7 +16931,7 @@
         <v>44641</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16993,7 +16993,7 @@
         <v>44645</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17055,7 +17055,7 @@
         <v>44656</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17112,7 +17112,7 @@
         <v>44656</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17169,7 +17169,7 @@
         <v>44656</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17226,7 +17226,7 @@
         <v>44658</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17283,7 +17283,7 @@
         <v>44659</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17340,7 +17340,7 @@
         <v>44659</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
         <v>44662</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17454,7 +17454,7 @@
         <v>44687</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17511,7 +17511,7 @@
         <v>44706</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17568,7 +17568,7 @@
         <v>44725</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17625,7 +17625,7 @@
         <v>44725</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17682,7 +17682,7 @@
         <v>44726</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17739,7 +17739,7 @@
         <v>44785</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17796,7 +17796,7 @@
         <v>44792</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17853,7 +17853,7 @@
         <v>44797</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17910,7 +17910,7 @@
         <v>44800</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17967,7 +17967,7 @@
         <v>44813</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18024,7 +18024,7 @@
         <v>44824</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18081,7 +18081,7 @@
         <v>44831</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18138,7 +18138,7 @@
         <v>44837</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18195,7 +18195,7 @@
         <v>44837</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18252,7 +18252,7 @@
         <v>44837</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18309,7 +18309,7 @@
         <v>44859</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18371,7 +18371,7 @@
         <v>44859</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18428,7 +18428,7 @@
         <v>44872</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18485,7 +18485,7 @@
         <v>44895</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18542,7 +18542,7 @@
         <v>44895</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18599,7 +18599,7 @@
         <v>44897</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18656,7 +18656,7 @@
         <v>44898</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18713,7 +18713,7 @@
         <v>44901</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18770,7 +18770,7 @@
         <v>44902</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18827,7 +18827,7 @@
         <v>44902</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18884,7 +18884,7 @@
         <v>44902</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18941,7 +18941,7 @@
         <v>44903</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18998,7 +18998,7 @@
         <v>44914</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19055,7 +19055,7 @@
         <v>44915</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19112,7 +19112,7 @@
         <v>44930</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19169,7 +19169,7 @@
         <v>44937</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19226,7 +19226,7 @@
         <v>44937</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19283,7 +19283,7 @@
         <v>44938</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19340,7 +19340,7 @@
         <v>44950</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19397,7 +19397,7 @@
         <v>44953</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19454,7 +19454,7 @@
         <v>44953</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19511,7 +19511,7 @@
         <v>44958</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19573,7 +19573,7 @@
         <v>44958</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19630,7 +19630,7 @@
         <v>44964</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19687,7 +19687,7 @@
         <v>44964</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19744,7 +19744,7 @@
         <v>44964</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19801,7 +19801,7 @@
         <v>44964</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19858,7 +19858,7 @@
         <v>44964</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19915,7 +19915,7 @@
         <v>44964</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19977,7 +19977,7 @@
         <v>44974</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20034,7 +20034,7 @@
         <v>44979</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20091,7 +20091,7 @@
         <v>44979</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20148,7 +20148,7 @@
         <v>44981</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20205,7 +20205,7 @@
         <v>44981</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20262,7 +20262,7 @@
         <v>44981</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20319,7 +20319,7 @@
         <v>44987</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20376,7 +20376,7 @@
         <v>44988</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20433,7 +20433,7 @@
         <v>45000</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20490,7 +20490,7 @@
         <v>45002</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20547,7 +20547,7 @@
         <v>45002</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20604,7 +20604,7 @@
         <v>45006</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20661,7 +20661,7 @@
         <v>45021</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20718,7 +20718,7 @@
         <v>45029</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20775,7 +20775,7 @@
         <v>45034</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20832,7 +20832,7 @@
         <v>45036</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20889,7 +20889,7 @@
         <v>45037</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         <v>45043</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21003,7 +21003,7 @@
         <v>45043</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21060,7 +21060,7 @@
         <v>45048</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21117,7 +21117,7 @@
         <v>45053</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21174,7 +21174,7 @@
         <v>45056</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21231,7 +21231,7 @@
         <v>45062</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21288,7 +21288,7 @@
         <v>45069</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21345,7 +21345,7 @@
         <v>45069</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21402,7 +21402,7 @@
         <v>45069</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21459,7 +21459,7 @@
         <v>45069</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21516,7 +21516,7 @@
         <v>45079</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         <v>45082</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21635,7 +21635,7 @@
         <v>45082</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21697,7 +21697,7 @@
         <v>45084</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21754,7 +21754,7 @@
         <v>45086</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21811,7 +21811,7 @@
         <v>45098</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21868,7 +21868,7 @@
         <v>45099</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21925,7 +21925,7 @@
         <v>45099</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -21982,7 +21982,7 @@
         <v>45099</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22044,7 +22044,7 @@
         <v>45106</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22101,7 +22101,7 @@
         <v>45107</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22158,7 +22158,7 @@
         <v>45111</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22215,7 +22215,7 @@
         <v>45111</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22272,7 +22272,7 @@
         <v>45114</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22329,7 +22329,7 @@
         <v>45114</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         <v>45120</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22443,7 +22443,7 @@
         <v>45120</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22500,7 +22500,7 @@
         <v>45120</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22557,7 +22557,7 @@
         <v>45120</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22614,7 +22614,7 @@
         <v>45131</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22671,7 +22671,7 @@
         <v>45147</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22728,7 +22728,7 @@
         <v>45149</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22785,7 +22785,7 @@
         <v>45149</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22842,7 +22842,7 @@
         <v>45160</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22899,7 +22899,7 @@
         <v>45162</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>

--- a/Översikt SVENLJUNGA.xlsx
+++ b/Översikt SVENLJUNGA.xlsx
@@ -572,7 +572,7 @@
         <v>44579</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>44838</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>44210</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         <v>43620</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>44250</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>44613</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>44613</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1189,7 +1189,7 @@
         <v>44764</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1274,7 +1274,7 @@
         <v>43314</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1331,7 +1331,7 @@
         <v>43325</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1388,7 +1388,7 @@
         <v>43328</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1450,7 +1450,7 @@
         <v>43329</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1507,7 +1507,7 @@
         <v>43346</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1564,7 +1564,7 @@
         <v>43349</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1621,7 +1621,7 @@
         <v>43349</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1678,7 +1678,7 @@
         <v>43353</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1735,7 +1735,7 @@
         <v>43357</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
         <v>43363</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
         <v>43374</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>43381</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>43390</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
         <v>43398</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2087,7 +2087,7 @@
         <v>43402</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>43411</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         <v>43413</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>43413</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>43413</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>43419</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2434,7 +2434,7 @@
         <v>43423</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>43424</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>43425</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>43425</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         <v>43426</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         <v>43428</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>43430</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         <v>43433</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         <v>43433</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>43437</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>43437</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>43438</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>43439</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>43444</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43447</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>43447</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>43448</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>43451</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         <v>43454</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3522,7 +3522,7 @@
         <v>43454</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3584,7 +3584,7 @@
         <v>43454</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3641,7 +3641,7 @@
         <v>43454</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3698,7 +3698,7 @@
         <v>43454</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3760,7 +3760,7 @@
         <v>43454</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3817,7 +3817,7 @@
         <v>43454</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3874,7 +3874,7 @@
         <v>43455</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3931,7 +3931,7 @@
         <v>43455</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3988,7 +3988,7 @@
         <v>43455</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>43461</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>43461</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4169,7 +4169,7 @@
         <v>43462</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         <v>43473</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4283,7 +4283,7 @@
         <v>43475</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4340,7 +4340,7 @@
         <v>43486</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4397,7 +4397,7 @@
         <v>43494</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4454,7 +4454,7 @@
         <v>43495</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4511,7 +4511,7 @@
         <v>43500</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         <v>43501</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>43501</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4682,7 +4682,7 @@
         <v>43511</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>43531</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
         <v>43542</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4853,7 +4853,7 @@
         <v>43544</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         <v>43544</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4977,7 +4977,7 @@
         <v>43554</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5034,7 +5034,7 @@
         <v>43554</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>43554</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>43558</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5205,7 +5205,7 @@
         <v>43559</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5262,7 +5262,7 @@
         <v>43559</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5319,7 +5319,7 @@
         <v>43560</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5376,7 +5376,7 @@
         <v>43565</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5433,7 +5433,7 @@
         <v>43565</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5490,7 +5490,7 @@
         <v>43565</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5547,7 +5547,7 @@
         <v>43572</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5604,7 +5604,7 @@
         <v>43585</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5661,7 +5661,7 @@
         <v>43588</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5718,7 +5718,7 @@
         <v>43591</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5775,7 +5775,7 @@
         <v>43592</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5837,7 +5837,7 @@
         <v>43599</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5894,7 +5894,7 @@
         <v>43599</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5951,7 +5951,7 @@
         <v>43599</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6008,7 +6008,7 @@
         <v>43599</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6065,7 +6065,7 @@
         <v>43609</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
         <v>43609</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         <v>43620</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6241,7 +6241,7 @@
         <v>43620</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6298,7 +6298,7 @@
         <v>43626</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         <v>43626</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6412,7 +6412,7 @@
         <v>43634</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6469,7 +6469,7 @@
         <v>43644</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6526,7 +6526,7 @@
         <v>43644</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6583,7 +6583,7 @@
         <v>43644</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6640,7 +6640,7 @@
         <v>43644</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
         <v>43647</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6759,7 +6759,7 @@
         <v>43647</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6821,7 +6821,7 @@
         <v>43658</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         <v>43676</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         <v>43676</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         <v>43676</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7064,7 +7064,7 @@
         <v>43676</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7126,7 +7126,7 @@
         <v>43677</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>43697</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         <v>43699</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7307,7 +7307,7 @@
         <v>43705</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7364,7 +7364,7 @@
         <v>43706</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7421,7 +7421,7 @@
         <v>43721</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7478,7 +7478,7 @@
         <v>43728</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7535,7 +7535,7 @@
         <v>43728</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7592,7 +7592,7 @@
         <v>43733</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7649,7 +7649,7 @@
         <v>43745</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7706,7 +7706,7 @@
         <v>43758</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7763,7 +7763,7 @@
         <v>43760</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7820,7 +7820,7 @@
         <v>43761</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7877,7 +7877,7 @@
         <v>43770</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7934,7 +7934,7 @@
         <v>43771</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7991,7 +7991,7 @@
         <v>43773</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8048,7 +8048,7 @@
         <v>43780</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8105,7 +8105,7 @@
         <v>43780</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8162,7 +8162,7 @@
         <v>43782</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8219,7 +8219,7 @@
         <v>43782</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8276,7 +8276,7 @@
         <v>43788</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8333,7 +8333,7 @@
         <v>43788</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8390,7 +8390,7 @@
         <v>43788</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8447,7 +8447,7 @@
         <v>43790</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8504,7 +8504,7 @@
         <v>43791</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8561,7 +8561,7 @@
         <v>43795</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8623,7 +8623,7 @@
         <v>43798</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8680,7 +8680,7 @@
         <v>43798</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8737,7 +8737,7 @@
         <v>43798</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8794,7 +8794,7 @@
         <v>43803</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8851,7 +8851,7 @@
         <v>43803</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8908,7 +8908,7 @@
         <v>43804</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8970,7 +8970,7 @@
         <v>43817</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9032,7 +9032,7 @@
         <v>43818</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9094,7 +9094,7 @@
         <v>43832</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9151,7 +9151,7 @@
         <v>43853</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9208,7 +9208,7 @@
         <v>43867</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9265,7 +9265,7 @@
         <v>43868</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9322,7 +9322,7 @@
         <v>43868</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         <v>43868</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9436,7 +9436,7 @@
         <v>43873</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9498,7 +9498,7 @@
         <v>43892</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9555,7 +9555,7 @@
         <v>43894</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9612,7 +9612,7 @@
         <v>43900</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9669,7 +9669,7 @@
         <v>43902</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9726,7 +9726,7 @@
         <v>43902</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9783,7 +9783,7 @@
         <v>43912</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9840,7 +9840,7 @@
         <v>43914</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9897,7 +9897,7 @@
         <v>43915</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9954,7 +9954,7 @@
         <v>43915</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10011,7 +10011,7 @@
         <v>43915</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10068,7 +10068,7 @@
         <v>43920</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10125,7 +10125,7 @@
         <v>43922</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10182,7 +10182,7 @@
         <v>43923</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10239,7 +10239,7 @@
         <v>43923</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10296,7 +10296,7 @@
         <v>43933</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10353,7 +10353,7 @@
         <v>43937</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10415,7 +10415,7 @@
         <v>43949</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10472,7 +10472,7 @@
         <v>43955</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10529,7 +10529,7 @@
         <v>43962</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10586,7 +10586,7 @@
         <v>43963</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10643,7 +10643,7 @@
         <v>43965</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10700,7 +10700,7 @@
         <v>43971</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10762,7 +10762,7 @@
         <v>43983</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10824,7 +10824,7 @@
         <v>43986</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10881,7 +10881,7 @@
         <v>43986</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10938,7 +10938,7 @@
         <v>43991</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10995,7 +10995,7 @@
         <v>44008</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11052,7 +11052,7 @@
         <v>44015</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11109,7 +11109,7 @@
         <v>44018</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11166,7 +11166,7 @@
         <v>44036</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11223,7 +11223,7 @@
         <v>44036</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11280,7 +11280,7 @@
         <v>44050</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11337,7 +11337,7 @@
         <v>44053</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11394,7 +11394,7 @@
         <v>44056</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11451,7 +11451,7 @@
         <v>44061</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11508,7 +11508,7 @@
         <v>44063</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11565,7 +11565,7 @@
         <v>44063</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11622,7 +11622,7 @@
         <v>44068</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11679,7 +11679,7 @@
         <v>44069</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11736,7 +11736,7 @@
         <v>44076</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11793,7 +11793,7 @@
         <v>44082</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11850,7 +11850,7 @@
         <v>44086</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11907,7 +11907,7 @@
         <v>44086</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11964,7 +11964,7 @@
         <v>44089</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12021,7 +12021,7 @@
         <v>44109</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12078,7 +12078,7 @@
         <v>44109</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12135,7 +12135,7 @@
         <v>44116</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12192,7 +12192,7 @@
         <v>44117</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12249,7 +12249,7 @@
         <v>44127</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12306,7 +12306,7 @@
         <v>44129</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12363,7 +12363,7 @@
         <v>44130</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12420,7 +12420,7 @@
         <v>44130</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12477,7 +12477,7 @@
         <v>44130</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12534,7 +12534,7 @@
         <v>44132</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12591,7 +12591,7 @@
         <v>44133</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12648,7 +12648,7 @@
         <v>44133</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12705,7 +12705,7 @@
         <v>44138</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12762,7 +12762,7 @@
         <v>44138</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12819,7 +12819,7 @@
         <v>44154</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12876,7 +12876,7 @@
         <v>44159</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12933,7 +12933,7 @@
         <v>44159</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12990,7 +12990,7 @@
         <v>44162</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13047,7 +13047,7 @@
         <v>44165</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13104,7 +13104,7 @@
         <v>44168</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13161,7 +13161,7 @@
         <v>44173</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13223,7 +13223,7 @@
         <v>44174</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13280,7 +13280,7 @@
         <v>44174</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13337,7 +13337,7 @@
         <v>44187</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13394,7 +13394,7 @@
         <v>44194</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13451,7 +13451,7 @@
         <v>44200</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13508,7 +13508,7 @@
         <v>44209</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13565,7 +13565,7 @@
         <v>44210</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13627,7 +13627,7 @@
         <v>44210</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13689,7 +13689,7 @@
         <v>44210</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13751,7 +13751,7 @@
         <v>44218</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13808,7 +13808,7 @@
         <v>44223</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13865,7 +13865,7 @@
         <v>44224</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13922,7 +13922,7 @@
         <v>44224</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13979,7 +13979,7 @@
         <v>44224</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14036,7 +14036,7 @@
         <v>44229</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14093,7 +14093,7 @@
         <v>44242</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14150,7 +14150,7 @@
         <v>44250</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14207,7 +14207,7 @@
         <v>44250</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14264,7 +14264,7 @@
         <v>44250</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14321,7 +14321,7 @@
         <v>44258</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14378,7 +14378,7 @@
         <v>44264</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14435,7 +14435,7 @@
         <v>44320</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14492,7 +14492,7 @@
         <v>44337</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14549,7 +14549,7 @@
         <v>44337</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14606,7 +14606,7 @@
         <v>44341</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14663,7 +14663,7 @@
         <v>44344</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14725,7 +14725,7 @@
         <v>44349</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14787,7 +14787,7 @@
         <v>44350</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14849,7 +14849,7 @@
         <v>44355</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14906,7 +14906,7 @@
         <v>44357</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14968,7 +14968,7 @@
         <v>44357</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15030,7 +15030,7 @@
         <v>44357</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15092,7 +15092,7 @@
         <v>44376</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15149,7 +15149,7 @@
         <v>44391</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15206,7 +15206,7 @@
         <v>44417</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15263,7 +15263,7 @@
         <v>44418</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15320,7 +15320,7 @@
         <v>44432</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15377,7 +15377,7 @@
         <v>44432</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15434,7 +15434,7 @@
         <v>44434</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15491,7 +15491,7 @@
         <v>44440</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15548,7 +15548,7 @@
         <v>44448</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15605,7 +15605,7 @@
         <v>44491</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15662,7 +15662,7 @@
         <v>44496</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15719,7 +15719,7 @@
         <v>44496</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15776,7 +15776,7 @@
         <v>44497</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15833,7 +15833,7 @@
         <v>44497</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15890,7 +15890,7 @@
         <v>44517</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15947,7 +15947,7 @@
         <v>44517</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16004,7 +16004,7 @@
         <v>44517</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16061,7 +16061,7 @@
         <v>44517</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16118,7 +16118,7 @@
         <v>44517</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16175,7 +16175,7 @@
         <v>44530</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16237,7 +16237,7 @@
         <v>44564</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16294,7 +16294,7 @@
         <v>44579</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16351,7 +16351,7 @@
         <v>44588</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16408,7 +16408,7 @@
         <v>44588</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16465,7 +16465,7 @@
         <v>44610</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16522,7 +16522,7 @@
         <v>44613</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         <v>44615</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16636,7 +16636,7 @@
         <v>44616</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16693,7 +16693,7 @@
         <v>44616</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16750,7 +16750,7 @@
         <v>44617</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16807,7 +16807,7 @@
         <v>44641</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16869,7 +16869,7 @@
         <v>44641</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16931,7 +16931,7 @@
         <v>44641</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16993,7 +16993,7 @@
         <v>44645</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17055,7 +17055,7 @@
         <v>44656</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17112,7 +17112,7 @@
         <v>44656</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17169,7 +17169,7 @@
         <v>44656</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17226,7 +17226,7 @@
         <v>44658</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17283,7 +17283,7 @@
         <v>44659</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17340,7 +17340,7 @@
         <v>44659</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
         <v>44662</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17454,7 +17454,7 @@
         <v>44687</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17511,7 +17511,7 @@
         <v>44706</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17568,7 +17568,7 @@
         <v>44725</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17625,7 +17625,7 @@
         <v>44725</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17682,7 +17682,7 @@
         <v>44726</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17739,7 +17739,7 @@
         <v>44785</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17796,7 +17796,7 @@
         <v>44792</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17853,7 +17853,7 @@
         <v>44797</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17910,7 +17910,7 @@
         <v>44800</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17967,7 +17967,7 @@
         <v>44813</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18024,7 +18024,7 @@
         <v>44824</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18081,7 +18081,7 @@
         <v>44831</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18138,7 +18138,7 @@
         <v>44837</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18195,7 +18195,7 @@
         <v>44837</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18252,7 +18252,7 @@
         <v>44837</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18309,7 +18309,7 @@
         <v>44859</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18371,7 +18371,7 @@
         <v>44859</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18428,7 +18428,7 @@
         <v>44872</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18485,7 +18485,7 @@
         <v>44895</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18542,7 +18542,7 @@
         <v>44895</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18599,7 +18599,7 @@
         <v>44897</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18656,7 +18656,7 @@
         <v>44898</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18713,7 +18713,7 @@
         <v>44901</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18770,7 +18770,7 @@
         <v>44902</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18827,7 +18827,7 @@
         <v>44902</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18884,7 +18884,7 @@
         <v>44902</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18941,7 +18941,7 @@
         <v>44903</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18998,7 +18998,7 @@
         <v>44914</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19055,7 +19055,7 @@
         <v>44915</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19112,7 +19112,7 @@
         <v>44930</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19169,7 +19169,7 @@
         <v>44937</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19226,7 +19226,7 @@
         <v>44937</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19283,7 +19283,7 @@
         <v>44938</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19340,7 +19340,7 @@
         <v>44950</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19397,7 +19397,7 @@
         <v>44953</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19454,7 +19454,7 @@
         <v>44953</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19511,7 +19511,7 @@
         <v>44958</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19573,7 +19573,7 @@
         <v>44958</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19630,7 +19630,7 @@
         <v>44964</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19687,7 +19687,7 @@
         <v>44964</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19744,7 +19744,7 @@
         <v>44964</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19801,7 +19801,7 @@
         <v>44964</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19858,7 +19858,7 @@
         <v>44964</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19915,7 +19915,7 @@
         <v>44964</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19977,7 +19977,7 @@
         <v>44974</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20034,7 +20034,7 @@
         <v>44979</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20091,7 +20091,7 @@
         <v>44979</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20148,7 +20148,7 @@
         <v>44981</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20205,7 +20205,7 @@
         <v>44981</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20262,7 +20262,7 @@
         <v>44981</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20319,7 +20319,7 @@
         <v>44987</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20376,7 +20376,7 @@
         <v>44988</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20433,7 +20433,7 @@
         <v>45000</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20490,7 +20490,7 @@
         <v>45002</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20547,7 +20547,7 @@
         <v>45002</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20604,7 +20604,7 @@
         <v>45006</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20661,7 +20661,7 @@
         <v>45021</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20718,7 +20718,7 @@
         <v>45029</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20775,7 +20775,7 @@
         <v>45034</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20832,7 +20832,7 @@
         <v>45036</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20889,7 +20889,7 @@
         <v>45037</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         <v>45043</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21003,7 +21003,7 @@
         <v>45043</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21060,7 +21060,7 @@
         <v>45048</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21117,7 +21117,7 @@
         <v>45053</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21174,7 +21174,7 @@
         <v>45056</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21231,7 +21231,7 @@
         <v>45062</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21288,7 +21288,7 @@
         <v>45069</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21345,7 +21345,7 @@
         <v>45069</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21402,7 +21402,7 @@
         <v>45069</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21459,7 +21459,7 @@
         <v>45069</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21516,7 +21516,7 @@
         <v>45079</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         <v>45082</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21635,7 +21635,7 @@
         <v>45082</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21697,7 +21697,7 @@
         <v>45084</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21754,7 +21754,7 @@
         <v>45086</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21811,7 +21811,7 @@
         <v>45098</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21868,7 +21868,7 @@
         <v>45099</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21925,7 +21925,7 @@
         <v>45099</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -21982,7 +21982,7 @@
         <v>45099</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22044,7 +22044,7 @@
         <v>45106</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22101,7 +22101,7 @@
         <v>45107</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22158,7 +22158,7 @@
         <v>45111</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22215,7 +22215,7 @@
         <v>45111</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22272,7 +22272,7 @@
         <v>45114</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22329,7 +22329,7 @@
         <v>45114</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         <v>45120</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22443,7 +22443,7 @@
         <v>45120</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22500,7 +22500,7 @@
         <v>45120</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22557,7 +22557,7 @@
         <v>45120</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22614,7 +22614,7 @@
         <v>45131</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22671,7 +22671,7 @@
         <v>45147</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22728,7 +22728,7 @@
         <v>45149</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22785,7 +22785,7 @@
         <v>45149</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22842,7 +22842,7 @@
         <v>45160</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22899,7 +22899,7 @@
         <v>45162</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>

--- a/Översikt SVENLJUNGA.xlsx
+++ b/Översikt SVENLJUNGA.xlsx
@@ -572,7 +572,7 @@
         <v>44579</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>44838</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>44210</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         <v>43620</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>44250</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>44613</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>44613</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1189,7 +1189,7 @@
         <v>44764</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1274,7 +1274,7 @@
         <v>43314</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1331,7 +1331,7 @@
         <v>43325</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1388,7 +1388,7 @@
         <v>43328</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1450,7 +1450,7 @@
         <v>43329</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1507,7 +1507,7 @@
         <v>43346</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1564,7 +1564,7 @@
         <v>43349</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1621,7 +1621,7 @@
         <v>43349</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1678,7 +1678,7 @@
         <v>43353</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1735,7 +1735,7 @@
         <v>43357</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
         <v>43363</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
         <v>43374</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>43381</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>43390</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
         <v>43398</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2087,7 +2087,7 @@
         <v>43402</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>43411</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         <v>43413</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>43413</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>43413</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>43419</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2434,7 +2434,7 @@
         <v>43423</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>43424</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>43425</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>43425</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         <v>43426</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         <v>43428</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>43430</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         <v>43433</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         <v>43433</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>43437</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>43437</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>43438</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>43439</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>43444</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43447</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>43447</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>43448</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>43451</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         <v>43454</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3522,7 +3522,7 @@
         <v>43454</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3584,7 +3584,7 @@
         <v>43454</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3641,7 +3641,7 @@
         <v>43454</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3698,7 +3698,7 @@
         <v>43454</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3760,7 +3760,7 @@
         <v>43454</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3817,7 +3817,7 @@
         <v>43454</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3874,7 +3874,7 @@
         <v>43455</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3931,7 +3931,7 @@
         <v>43455</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3988,7 +3988,7 @@
         <v>43455</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>43461</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>43461</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4169,7 +4169,7 @@
         <v>43462</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         <v>43473</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4283,7 +4283,7 @@
         <v>43475</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4340,7 +4340,7 @@
         <v>43486</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4397,7 +4397,7 @@
         <v>43494</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4454,7 +4454,7 @@
         <v>43495</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4511,7 +4511,7 @@
         <v>43500</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         <v>43501</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>43501</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4682,7 +4682,7 @@
         <v>43511</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>43531</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
         <v>43542</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4853,7 +4853,7 @@
         <v>43544</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         <v>43544</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4977,7 +4977,7 @@
         <v>43554</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5034,7 +5034,7 @@
         <v>43554</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>43554</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>43558</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5205,7 +5205,7 @@
         <v>43559</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5262,7 +5262,7 @@
         <v>43559</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5319,7 +5319,7 @@
         <v>43560</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5376,7 +5376,7 @@
         <v>43565</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5433,7 +5433,7 @@
         <v>43565</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5490,7 +5490,7 @@
         <v>43565</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5547,7 +5547,7 @@
         <v>43572</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5604,7 +5604,7 @@
         <v>43585</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5661,7 +5661,7 @@
         <v>43588</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5718,7 +5718,7 @@
         <v>43591</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5775,7 +5775,7 @@
         <v>43592</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5837,7 +5837,7 @@
         <v>43599</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5894,7 +5894,7 @@
         <v>43599</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5951,7 +5951,7 @@
         <v>43599</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6008,7 +6008,7 @@
         <v>43599</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6065,7 +6065,7 @@
         <v>43609</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
         <v>43609</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         <v>43620</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6241,7 +6241,7 @@
         <v>43620</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6298,7 +6298,7 @@
         <v>43626</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         <v>43626</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6412,7 +6412,7 @@
         <v>43634</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6469,7 +6469,7 @@
         <v>43644</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6526,7 +6526,7 @@
         <v>43644</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6583,7 +6583,7 @@
         <v>43644</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6640,7 +6640,7 @@
         <v>43644</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
         <v>43647</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6759,7 +6759,7 @@
         <v>43647</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6821,7 +6821,7 @@
         <v>43658</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         <v>43676</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         <v>43676</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         <v>43676</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7064,7 +7064,7 @@
         <v>43676</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7126,7 +7126,7 @@
         <v>43677</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>43697</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         <v>43699</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7307,7 +7307,7 @@
         <v>43705</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7364,7 +7364,7 @@
         <v>43706</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7421,7 +7421,7 @@
         <v>43721</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7478,7 +7478,7 @@
         <v>43728</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7535,7 +7535,7 @@
         <v>43728</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7592,7 +7592,7 @@
         <v>43733</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7649,7 +7649,7 @@
         <v>43745</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7706,7 +7706,7 @@
         <v>43758</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7763,7 +7763,7 @@
         <v>43760</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7820,7 +7820,7 @@
         <v>43761</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7877,7 +7877,7 @@
         <v>43770</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7934,7 +7934,7 @@
         <v>43771</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7991,7 +7991,7 @@
         <v>43773</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8048,7 +8048,7 @@
         <v>43780</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8105,7 +8105,7 @@
         <v>43780</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8162,7 +8162,7 @@
         <v>43782</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8219,7 +8219,7 @@
         <v>43782</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8276,7 +8276,7 @@
         <v>43788</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8333,7 +8333,7 @@
         <v>43788</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8390,7 +8390,7 @@
         <v>43788</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8447,7 +8447,7 @@
         <v>43790</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8504,7 +8504,7 @@
         <v>43791</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8561,7 +8561,7 @@
         <v>43795</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8623,7 +8623,7 @@
         <v>43798</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8680,7 +8680,7 @@
         <v>43798</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8737,7 +8737,7 @@
         <v>43798</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8794,7 +8794,7 @@
         <v>43803</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8851,7 +8851,7 @@
         <v>43803</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8908,7 +8908,7 @@
         <v>43804</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8970,7 +8970,7 @@
         <v>43817</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9032,7 +9032,7 @@
         <v>43818</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9094,7 +9094,7 @@
         <v>43832</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9151,7 +9151,7 @@
         <v>43853</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9208,7 +9208,7 @@
         <v>43867</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9265,7 +9265,7 @@
         <v>43868</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9322,7 +9322,7 @@
         <v>43868</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         <v>43868</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9436,7 +9436,7 @@
         <v>43873</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9498,7 +9498,7 @@
         <v>43892</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9555,7 +9555,7 @@
         <v>43894</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9612,7 +9612,7 @@
         <v>43900</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9669,7 +9669,7 @@
         <v>43902</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9726,7 +9726,7 @@
         <v>43902</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9783,7 +9783,7 @@
         <v>43912</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9840,7 +9840,7 @@
         <v>43914</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9897,7 +9897,7 @@
         <v>43915</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9954,7 +9954,7 @@
         <v>43915</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10011,7 +10011,7 @@
         <v>43915</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10068,7 +10068,7 @@
         <v>43920</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10125,7 +10125,7 @@
         <v>43922</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10182,7 +10182,7 @@
         <v>43923</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10239,7 +10239,7 @@
         <v>43923</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10296,7 +10296,7 @@
         <v>43933</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10353,7 +10353,7 @@
         <v>43937</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10415,7 +10415,7 @@
         <v>43949</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10472,7 +10472,7 @@
         <v>43955</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10529,7 +10529,7 @@
         <v>43962</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10586,7 +10586,7 @@
         <v>43963</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10643,7 +10643,7 @@
         <v>43965</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10700,7 +10700,7 @@
         <v>43971</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10762,7 +10762,7 @@
         <v>43983</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10824,7 +10824,7 @@
         <v>43986</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10881,7 +10881,7 @@
         <v>43986</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10938,7 +10938,7 @@
         <v>43991</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10995,7 +10995,7 @@
         <v>44008</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11052,7 +11052,7 @@
         <v>44015</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11109,7 +11109,7 @@
         <v>44018</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11166,7 +11166,7 @@
         <v>44036</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11223,7 +11223,7 @@
         <v>44036</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11280,7 +11280,7 @@
         <v>44050</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11337,7 +11337,7 @@
         <v>44053</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11394,7 +11394,7 @@
         <v>44056</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11451,7 +11451,7 @@
         <v>44061</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11508,7 +11508,7 @@
         <v>44063</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11565,7 +11565,7 @@
         <v>44063</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11622,7 +11622,7 @@
         <v>44068</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11679,7 +11679,7 @@
         <v>44069</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11736,7 +11736,7 @@
         <v>44076</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11793,7 +11793,7 @@
         <v>44082</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11850,7 +11850,7 @@
         <v>44086</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11907,7 +11907,7 @@
         <v>44086</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11964,7 +11964,7 @@
         <v>44089</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12021,7 +12021,7 @@
         <v>44109</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12078,7 +12078,7 @@
         <v>44109</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12135,7 +12135,7 @@
         <v>44116</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12192,7 +12192,7 @@
         <v>44117</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12249,7 +12249,7 @@
         <v>44127</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12306,7 +12306,7 @@
         <v>44129</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12363,7 +12363,7 @@
         <v>44130</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12420,7 +12420,7 @@
         <v>44130</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12477,7 +12477,7 @@
         <v>44130</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12534,7 +12534,7 @@
         <v>44132</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12591,7 +12591,7 @@
         <v>44133</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12648,7 +12648,7 @@
         <v>44133</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12705,7 +12705,7 @@
         <v>44138</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12762,7 +12762,7 @@
         <v>44138</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12819,7 +12819,7 @@
         <v>44154</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12876,7 +12876,7 @@
         <v>44159</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12933,7 +12933,7 @@
         <v>44159</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12990,7 +12990,7 @@
         <v>44162</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13047,7 +13047,7 @@
         <v>44165</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13104,7 +13104,7 @@
         <v>44168</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13161,7 +13161,7 @@
         <v>44173</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13223,7 +13223,7 @@
         <v>44174</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13280,7 +13280,7 @@
         <v>44174</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13337,7 +13337,7 @@
         <v>44187</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13394,7 +13394,7 @@
         <v>44194</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13451,7 +13451,7 @@
         <v>44200</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13508,7 +13508,7 @@
         <v>44209</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13565,7 +13565,7 @@
         <v>44210</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13627,7 +13627,7 @@
         <v>44210</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13689,7 +13689,7 @@
         <v>44210</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13751,7 +13751,7 @@
         <v>44218</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13808,7 +13808,7 @@
         <v>44223</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13865,7 +13865,7 @@
         <v>44224</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13922,7 +13922,7 @@
         <v>44224</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13979,7 +13979,7 @@
         <v>44224</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14036,7 +14036,7 @@
         <v>44229</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14093,7 +14093,7 @@
         <v>44242</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14150,7 +14150,7 @@
         <v>44250</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14207,7 +14207,7 @@
         <v>44250</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14264,7 +14264,7 @@
         <v>44250</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14321,7 +14321,7 @@
         <v>44258</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14378,7 +14378,7 @@
         <v>44264</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14435,7 +14435,7 @@
         <v>44320</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14492,7 +14492,7 @@
         <v>44337</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14549,7 +14549,7 @@
         <v>44337</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14606,7 +14606,7 @@
         <v>44341</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14663,7 +14663,7 @@
         <v>44344</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14725,7 +14725,7 @@
         <v>44349</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14787,7 +14787,7 @@
         <v>44350</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14849,7 +14849,7 @@
         <v>44355</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14906,7 +14906,7 @@
         <v>44357</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14968,7 +14968,7 @@
         <v>44357</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15030,7 +15030,7 @@
         <v>44357</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15092,7 +15092,7 @@
         <v>44376</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15149,7 +15149,7 @@
         <v>44391</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15206,7 +15206,7 @@
         <v>44417</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15263,7 +15263,7 @@
         <v>44418</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15320,7 +15320,7 @@
         <v>44432</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15377,7 +15377,7 @@
         <v>44432</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15434,7 +15434,7 @@
         <v>44434</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15491,7 +15491,7 @@
         <v>44440</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15548,7 +15548,7 @@
         <v>44448</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15605,7 +15605,7 @@
         <v>44491</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15662,7 +15662,7 @@
         <v>44496</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15719,7 +15719,7 @@
         <v>44496</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15776,7 +15776,7 @@
         <v>44497</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15833,7 +15833,7 @@
         <v>44497</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15890,7 +15890,7 @@
         <v>44517</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15947,7 +15947,7 @@
         <v>44517</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16004,7 +16004,7 @@
         <v>44517</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16061,7 +16061,7 @@
         <v>44517</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16118,7 +16118,7 @@
         <v>44517</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16175,7 +16175,7 @@
         <v>44530</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16237,7 +16237,7 @@
         <v>44564</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16294,7 +16294,7 @@
         <v>44579</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16351,7 +16351,7 @@
         <v>44588</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16408,7 +16408,7 @@
         <v>44588</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16465,7 +16465,7 @@
         <v>44610</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16522,7 +16522,7 @@
         <v>44613</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         <v>44615</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16636,7 +16636,7 @@
         <v>44616</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16693,7 +16693,7 @@
         <v>44616</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16750,7 +16750,7 @@
         <v>44617</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16807,7 +16807,7 @@
         <v>44641</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16869,7 +16869,7 @@
         <v>44641</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16931,7 +16931,7 @@
         <v>44641</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16993,7 +16993,7 @@
         <v>44645</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17055,7 +17055,7 @@
         <v>44656</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17112,7 +17112,7 @@
         <v>44656</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17169,7 +17169,7 @@
         <v>44656</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17226,7 +17226,7 @@
         <v>44658</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17283,7 +17283,7 @@
         <v>44659</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17340,7 +17340,7 @@
         <v>44659</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
         <v>44662</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17454,7 +17454,7 @@
         <v>44687</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17511,7 +17511,7 @@
         <v>44706</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17568,7 +17568,7 @@
         <v>44725</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17625,7 +17625,7 @@
         <v>44725</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17682,7 +17682,7 @@
         <v>44726</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17739,7 +17739,7 @@
         <v>44785</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17796,7 +17796,7 @@
         <v>44792</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17853,7 +17853,7 @@
         <v>44797</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17910,7 +17910,7 @@
         <v>44800</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17967,7 +17967,7 @@
         <v>44813</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18024,7 +18024,7 @@
         <v>44824</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18081,7 +18081,7 @@
         <v>44831</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18138,7 +18138,7 @@
         <v>44837</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18195,7 +18195,7 @@
         <v>44837</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18252,7 +18252,7 @@
         <v>44837</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18309,7 +18309,7 @@
         <v>44859</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18371,7 +18371,7 @@
         <v>44859</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18428,7 +18428,7 @@
         <v>44872</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18485,7 +18485,7 @@
         <v>44895</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18542,7 +18542,7 @@
         <v>44895</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18599,7 +18599,7 @@
         <v>44897</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18656,7 +18656,7 @@
         <v>44898</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18713,7 +18713,7 @@
         <v>44901</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18770,7 +18770,7 @@
         <v>44902</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18827,7 +18827,7 @@
         <v>44902</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18884,7 +18884,7 @@
         <v>44902</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18941,7 +18941,7 @@
         <v>44903</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18998,7 +18998,7 @@
         <v>44914</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19055,7 +19055,7 @@
         <v>44915</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19112,7 +19112,7 @@
         <v>44930</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19169,7 +19169,7 @@
         <v>44937</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19226,7 +19226,7 @@
         <v>44937</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19283,7 +19283,7 @@
         <v>44938</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19340,7 +19340,7 @@
         <v>44950</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19397,7 +19397,7 @@
         <v>44953</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19454,7 +19454,7 @@
         <v>44953</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19511,7 +19511,7 @@
         <v>44958</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19573,7 +19573,7 @@
         <v>44958</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19630,7 +19630,7 @@
         <v>44964</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19687,7 +19687,7 @@
         <v>44964</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19744,7 +19744,7 @@
         <v>44964</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19801,7 +19801,7 @@
         <v>44964</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19858,7 +19858,7 @@
         <v>44964</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19915,7 +19915,7 @@
         <v>44964</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19977,7 +19977,7 @@
         <v>44974</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20034,7 +20034,7 @@
         <v>44979</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20091,7 +20091,7 @@
         <v>44979</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20148,7 +20148,7 @@
         <v>44981</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20205,7 +20205,7 @@
         <v>44981</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20262,7 +20262,7 @@
         <v>44981</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20319,7 +20319,7 @@
         <v>44987</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20376,7 +20376,7 @@
         <v>44988</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20433,7 +20433,7 @@
         <v>45000</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20490,7 +20490,7 @@
         <v>45002</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20547,7 +20547,7 @@
         <v>45002</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20604,7 +20604,7 @@
         <v>45006</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20661,7 +20661,7 @@
         <v>45021</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20718,7 +20718,7 @@
         <v>45029</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20775,7 +20775,7 @@
         <v>45034</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20832,7 +20832,7 @@
         <v>45036</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20889,7 +20889,7 @@
         <v>45037</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         <v>45043</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21003,7 +21003,7 @@
         <v>45043</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21060,7 +21060,7 @@
         <v>45048</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21117,7 +21117,7 @@
         <v>45053</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21174,7 +21174,7 @@
         <v>45056</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21231,7 +21231,7 @@
         <v>45062</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21288,7 +21288,7 @@
         <v>45069</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21345,7 +21345,7 @@
         <v>45069</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21402,7 +21402,7 @@
         <v>45069</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21459,7 +21459,7 @@
         <v>45069</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21516,7 +21516,7 @@
         <v>45079</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         <v>45082</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21635,7 +21635,7 @@
         <v>45082</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21697,7 +21697,7 @@
         <v>45084</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21754,7 +21754,7 @@
         <v>45086</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21811,7 +21811,7 @@
         <v>45098</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21868,7 +21868,7 @@
         <v>45099</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21925,7 +21925,7 @@
         <v>45099</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -21982,7 +21982,7 @@
         <v>45099</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22044,7 +22044,7 @@
         <v>45106</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22101,7 +22101,7 @@
         <v>45107</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22158,7 +22158,7 @@
         <v>45111</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22215,7 +22215,7 @@
         <v>45111</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22272,7 +22272,7 @@
         <v>45114</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22329,7 +22329,7 @@
         <v>45114</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         <v>45120</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22443,7 +22443,7 @@
         <v>45120</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22500,7 +22500,7 @@
         <v>45120</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22557,7 +22557,7 @@
         <v>45120</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22614,7 +22614,7 @@
         <v>45131</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22671,7 +22671,7 @@
         <v>45147</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22728,7 +22728,7 @@
         <v>45149</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22785,7 +22785,7 @@
         <v>45149</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22842,7 +22842,7 @@
         <v>45160</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22899,7 +22899,7 @@
         <v>45162</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>

--- a/Översikt SVENLJUNGA.xlsx
+++ b/Översikt SVENLJUNGA.xlsx
@@ -572,7 +572,7 @@
         <v>44579</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>44838</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>44210</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         <v>43620</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>44250</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>44613</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>44613</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1189,7 +1189,7 @@
         <v>44764</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1274,7 +1274,7 @@
         <v>43314</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1331,7 +1331,7 @@
         <v>43325</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1388,7 +1388,7 @@
         <v>43328</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1450,7 +1450,7 @@
         <v>43329</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1507,7 +1507,7 @@
         <v>43346</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1564,7 +1564,7 @@
         <v>43349</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1621,7 +1621,7 @@
         <v>43349</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1678,7 +1678,7 @@
         <v>43353</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1735,7 +1735,7 @@
         <v>43357</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
         <v>43363</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
         <v>43374</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>43381</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>43390</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
         <v>43398</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2087,7 +2087,7 @@
         <v>43402</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>43411</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         <v>43413</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>43413</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>43413</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>43419</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2434,7 +2434,7 @@
         <v>43423</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>43424</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>43425</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>43425</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         <v>43426</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         <v>43428</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>43430</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         <v>43433</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         <v>43433</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>43437</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>43437</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>43438</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>43439</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>43444</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43447</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>43447</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>43448</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>43451</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         <v>43454</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3522,7 +3522,7 @@
         <v>43454</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3584,7 +3584,7 @@
         <v>43454</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3641,7 +3641,7 @@
         <v>43454</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3698,7 +3698,7 @@
         <v>43454</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3760,7 +3760,7 @@
         <v>43454</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3817,7 +3817,7 @@
         <v>43454</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3874,7 +3874,7 @@
         <v>43455</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3931,7 +3931,7 @@
         <v>43455</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3988,7 +3988,7 @@
         <v>43455</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>43461</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>43461</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4169,7 +4169,7 @@
         <v>43462</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         <v>43473</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4283,7 +4283,7 @@
         <v>43475</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4340,7 +4340,7 @@
         <v>43486</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4397,7 +4397,7 @@
         <v>43494</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4454,7 +4454,7 @@
         <v>43495</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4511,7 +4511,7 @@
         <v>43500</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         <v>43501</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>43501</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4682,7 +4682,7 @@
         <v>43511</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>43531</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
         <v>43542</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4853,7 +4853,7 @@
         <v>43544</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         <v>43544</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4977,7 +4977,7 @@
         <v>43554</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5034,7 +5034,7 @@
         <v>43554</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>43554</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>43558</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5205,7 +5205,7 @@
         <v>43559</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5262,7 +5262,7 @@
         <v>43559</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5319,7 +5319,7 @@
         <v>43560</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5376,7 +5376,7 @@
         <v>43565</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5433,7 +5433,7 @@
         <v>43565</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5490,7 +5490,7 @@
         <v>43565</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5547,7 +5547,7 @@
         <v>43572</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5604,7 +5604,7 @@
         <v>43585</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5661,7 +5661,7 @@
         <v>43588</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5718,7 +5718,7 @@
         <v>43591</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5775,7 +5775,7 @@
         <v>43592</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5837,7 +5837,7 @@
         <v>43599</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5894,7 +5894,7 @@
         <v>43599</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5951,7 +5951,7 @@
         <v>43599</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6008,7 +6008,7 @@
         <v>43599</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6065,7 +6065,7 @@
         <v>43609</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
         <v>43609</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         <v>43620</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6241,7 +6241,7 @@
         <v>43620</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6298,7 +6298,7 @@
         <v>43626</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         <v>43626</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6412,7 +6412,7 @@
         <v>43634</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6469,7 +6469,7 @@
         <v>43644</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6526,7 +6526,7 @@
         <v>43644</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6583,7 +6583,7 @@
         <v>43644</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6640,7 +6640,7 @@
         <v>43644</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
         <v>43647</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6759,7 +6759,7 @@
         <v>43647</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6821,7 +6821,7 @@
         <v>43658</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         <v>43676</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         <v>43676</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         <v>43676</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7064,7 +7064,7 @@
         <v>43676</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7126,7 +7126,7 @@
         <v>43677</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>43697</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         <v>43699</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7307,7 +7307,7 @@
         <v>43705</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7364,7 +7364,7 @@
         <v>43706</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7421,7 +7421,7 @@
         <v>43721</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7478,7 +7478,7 @@
         <v>43728</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7535,7 +7535,7 @@
         <v>43728</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7592,7 +7592,7 @@
         <v>43733</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7649,7 +7649,7 @@
         <v>43745</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7706,7 +7706,7 @@
         <v>43758</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7763,7 +7763,7 @@
         <v>43760</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7820,7 +7820,7 @@
         <v>43761</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7877,7 +7877,7 @@
         <v>43770</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7934,7 +7934,7 @@
         <v>43771</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7991,7 +7991,7 @@
         <v>43773</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8048,7 +8048,7 @@
         <v>43780</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8105,7 +8105,7 @@
         <v>43780</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8162,7 +8162,7 @@
         <v>43782</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8219,7 +8219,7 @@
         <v>43782</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8276,7 +8276,7 @@
         <v>43788</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8333,7 +8333,7 @@
         <v>43788</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8390,7 +8390,7 @@
         <v>43788</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8447,7 +8447,7 @@
         <v>43790</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8504,7 +8504,7 @@
         <v>43791</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8561,7 +8561,7 @@
         <v>43795</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8623,7 +8623,7 @@
         <v>43798</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8680,7 +8680,7 @@
         <v>43798</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8737,7 +8737,7 @@
         <v>43798</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8794,7 +8794,7 @@
         <v>43803</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8851,7 +8851,7 @@
         <v>43803</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8908,7 +8908,7 @@
         <v>43804</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8970,7 +8970,7 @@
         <v>43817</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9032,7 +9032,7 @@
         <v>43818</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9094,7 +9094,7 @@
         <v>43832</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9151,7 +9151,7 @@
         <v>43853</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9208,7 +9208,7 @@
         <v>43867</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9265,7 +9265,7 @@
         <v>43868</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9322,7 +9322,7 @@
         <v>43868</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         <v>43868</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9436,7 +9436,7 @@
         <v>43873</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9498,7 +9498,7 @@
         <v>43892</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9555,7 +9555,7 @@
         <v>43894</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9612,7 +9612,7 @@
         <v>43900</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9669,7 +9669,7 @@
         <v>43902</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9726,7 +9726,7 @@
         <v>43902</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9783,7 +9783,7 @@
         <v>43912</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9840,7 +9840,7 @@
         <v>43914</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9897,7 +9897,7 @@
         <v>43915</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9954,7 +9954,7 @@
         <v>43915</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10011,7 +10011,7 @@
         <v>43915</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10068,7 +10068,7 @@
         <v>43920</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10125,7 +10125,7 @@
         <v>43922</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10182,7 +10182,7 @@
         <v>43923</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10239,7 +10239,7 @@
         <v>43923</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10296,7 +10296,7 @@
         <v>43933</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10353,7 +10353,7 @@
         <v>43937</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10415,7 +10415,7 @@
         <v>43949</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10472,7 +10472,7 @@
         <v>43955</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10529,7 +10529,7 @@
         <v>43962</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10586,7 +10586,7 @@
         <v>43963</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10643,7 +10643,7 @@
         <v>43965</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10700,7 +10700,7 @@
         <v>43971</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10762,7 +10762,7 @@
         <v>43983</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10824,7 +10824,7 @@
         <v>43986</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10881,7 +10881,7 @@
         <v>43986</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10938,7 +10938,7 @@
         <v>43991</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10995,7 +10995,7 @@
         <v>44008</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11052,7 +11052,7 @@
         <v>44015</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11109,7 +11109,7 @@
         <v>44018</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11166,7 +11166,7 @@
         <v>44036</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11223,7 +11223,7 @@
         <v>44036</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11280,7 +11280,7 @@
         <v>44050</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11337,7 +11337,7 @@
         <v>44053</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11394,7 +11394,7 @@
         <v>44056</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11451,7 +11451,7 @@
         <v>44061</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11508,7 +11508,7 @@
         <v>44063</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11565,7 +11565,7 @@
         <v>44063</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11622,7 +11622,7 @@
         <v>44068</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11679,7 +11679,7 @@
         <v>44069</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11736,7 +11736,7 @@
         <v>44076</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11793,7 +11793,7 @@
         <v>44082</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11850,7 +11850,7 @@
         <v>44086</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11907,7 +11907,7 @@
         <v>44086</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11964,7 +11964,7 @@
         <v>44089</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12021,7 +12021,7 @@
         <v>44109</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12078,7 +12078,7 @@
         <v>44109</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12135,7 +12135,7 @@
         <v>44116</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12192,7 +12192,7 @@
         <v>44117</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12249,7 +12249,7 @@
         <v>44127</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12306,7 +12306,7 @@
         <v>44129</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12363,7 +12363,7 @@
         <v>44130</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12420,7 +12420,7 @@
         <v>44130</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12477,7 +12477,7 @@
         <v>44130</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12534,7 +12534,7 @@
         <v>44132</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12591,7 +12591,7 @@
         <v>44133</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12648,7 +12648,7 @@
         <v>44133</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12705,7 +12705,7 @@
         <v>44138</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12762,7 +12762,7 @@
         <v>44138</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12819,7 +12819,7 @@
         <v>44154</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12876,7 +12876,7 @@
         <v>44159</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12933,7 +12933,7 @@
         <v>44159</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12990,7 +12990,7 @@
         <v>44162</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13047,7 +13047,7 @@
         <v>44165</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13104,7 +13104,7 @@
         <v>44168</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13161,7 +13161,7 @@
         <v>44173</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13223,7 +13223,7 @@
         <v>44174</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13280,7 +13280,7 @@
         <v>44174</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13337,7 +13337,7 @@
         <v>44187</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13394,7 +13394,7 @@
         <v>44194</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13451,7 +13451,7 @@
         <v>44200</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13508,7 +13508,7 @@
         <v>44209</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13565,7 +13565,7 @@
         <v>44210</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13627,7 +13627,7 @@
         <v>44210</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13689,7 +13689,7 @@
         <v>44210</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13751,7 +13751,7 @@
         <v>44218</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13808,7 +13808,7 @@
         <v>44223</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13865,7 +13865,7 @@
         <v>44224</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13922,7 +13922,7 @@
         <v>44224</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13979,7 +13979,7 @@
         <v>44224</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14036,7 +14036,7 @@
         <v>44229</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14093,7 +14093,7 @@
         <v>44242</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14150,7 +14150,7 @@
         <v>44250</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14207,7 +14207,7 @@
         <v>44250</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14264,7 +14264,7 @@
         <v>44250</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14321,7 +14321,7 @@
         <v>44258</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14378,7 +14378,7 @@
         <v>44264</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14435,7 +14435,7 @@
         <v>44320</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14492,7 +14492,7 @@
         <v>44337</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14549,7 +14549,7 @@
         <v>44337</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14606,7 +14606,7 @@
         <v>44341</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14663,7 +14663,7 @@
         <v>44344</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14725,7 +14725,7 @@
         <v>44349</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14787,7 +14787,7 @@
         <v>44350</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14849,7 +14849,7 @@
         <v>44355</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14906,7 +14906,7 @@
         <v>44357</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14968,7 +14968,7 @@
         <v>44357</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15030,7 +15030,7 @@
         <v>44357</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15092,7 +15092,7 @@
         <v>44376</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15149,7 +15149,7 @@
         <v>44391</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15206,7 +15206,7 @@
         <v>44417</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15263,7 +15263,7 @@
         <v>44418</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15320,7 +15320,7 @@
         <v>44432</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15377,7 +15377,7 @@
         <v>44432</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15434,7 +15434,7 @@
         <v>44434</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15491,7 +15491,7 @@
         <v>44440</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15548,7 +15548,7 @@
         <v>44448</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15605,7 +15605,7 @@
         <v>44491</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15662,7 +15662,7 @@
         <v>44496</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15719,7 +15719,7 @@
         <v>44496</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15776,7 +15776,7 @@
         <v>44497</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15833,7 +15833,7 @@
         <v>44497</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15890,7 +15890,7 @@
         <v>44517</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15947,7 +15947,7 @@
         <v>44517</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16004,7 +16004,7 @@
         <v>44517</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16061,7 +16061,7 @@
         <v>44517</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16118,7 +16118,7 @@
         <v>44517</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16175,7 +16175,7 @@
         <v>44530</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16237,7 +16237,7 @@
         <v>44564</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16294,7 +16294,7 @@
         <v>44579</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16351,7 +16351,7 @@
         <v>44588</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16408,7 +16408,7 @@
         <v>44588</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16465,7 +16465,7 @@
         <v>44610</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16522,7 +16522,7 @@
         <v>44613</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         <v>44615</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16636,7 +16636,7 @@
         <v>44616</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16693,7 +16693,7 @@
         <v>44616</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16750,7 +16750,7 @@
         <v>44617</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16807,7 +16807,7 @@
         <v>44641</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16869,7 +16869,7 @@
         <v>44641</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16931,7 +16931,7 @@
         <v>44641</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16993,7 +16993,7 @@
         <v>44645</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17055,7 +17055,7 @@
         <v>44656</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17112,7 +17112,7 @@
         <v>44656</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17169,7 +17169,7 @@
         <v>44656</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17226,7 +17226,7 @@
         <v>44658</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17283,7 +17283,7 @@
         <v>44659</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17340,7 +17340,7 @@
         <v>44659</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
         <v>44662</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17454,7 +17454,7 @@
         <v>44687</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17511,7 +17511,7 @@
         <v>44706</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17568,7 +17568,7 @@
         <v>44725</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17625,7 +17625,7 @@
         <v>44725</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17682,7 +17682,7 @@
         <v>44726</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17739,7 +17739,7 @@
         <v>44785</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17796,7 +17796,7 @@
         <v>44792</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17853,7 +17853,7 @@
         <v>44797</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17910,7 +17910,7 @@
         <v>44800</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17967,7 +17967,7 @@
         <v>44813</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18024,7 +18024,7 @@
         <v>44824</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18081,7 +18081,7 @@
         <v>44831</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18138,7 +18138,7 @@
         <v>44837</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18195,7 +18195,7 @@
         <v>44837</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18252,7 +18252,7 @@
         <v>44837</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18309,7 +18309,7 @@
         <v>44859</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18371,7 +18371,7 @@
         <v>44859</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18428,7 +18428,7 @@
         <v>44872</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18485,7 +18485,7 @@
         <v>44895</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18542,7 +18542,7 @@
         <v>44895</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18599,7 +18599,7 @@
         <v>44897</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18656,7 +18656,7 @@
         <v>44898</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18713,7 +18713,7 @@
         <v>44901</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18770,7 +18770,7 @@
         <v>44902</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18827,7 +18827,7 @@
         <v>44902</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18884,7 +18884,7 @@
         <v>44902</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18941,7 +18941,7 @@
         <v>44903</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18998,7 +18998,7 @@
         <v>44914</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19055,7 +19055,7 @@
         <v>44915</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19112,7 +19112,7 @@
         <v>44930</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19169,7 +19169,7 @@
         <v>44937</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19226,7 +19226,7 @@
         <v>44937</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19283,7 +19283,7 @@
         <v>44938</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19340,7 +19340,7 @@
         <v>44950</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19397,7 +19397,7 @@
         <v>44953</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19454,7 +19454,7 @@
         <v>44953</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19511,7 +19511,7 @@
         <v>44958</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19573,7 +19573,7 @@
         <v>44958</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19630,7 +19630,7 @@
         <v>44964</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19687,7 +19687,7 @@
         <v>44964</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19744,7 +19744,7 @@
         <v>44964</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19801,7 +19801,7 @@
         <v>44964</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19858,7 +19858,7 @@
         <v>44964</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19915,7 +19915,7 @@
         <v>44964</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19977,7 +19977,7 @@
         <v>44974</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20034,7 +20034,7 @@
         <v>44979</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20091,7 +20091,7 @@
         <v>44979</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20148,7 +20148,7 @@
         <v>44981</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20205,7 +20205,7 @@
         <v>44981</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20262,7 +20262,7 @@
         <v>44981</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20319,7 +20319,7 @@
         <v>44987</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20376,7 +20376,7 @@
         <v>44988</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20433,7 +20433,7 @@
         <v>45000</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20490,7 +20490,7 @@
         <v>45002</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20547,7 +20547,7 @@
         <v>45002</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20604,7 +20604,7 @@
         <v>45006</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20661,7 +20661,7 @@
         <v>45021</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20718,7 +20718,7 @@
         <v>45029</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20775,7 +20775,7 @@
         <v>45034</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20832,7 +20832,7 @@
         <v>45036</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20889,7 +20889,7 @@
         <v>45037</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         <v>45043</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21003,7 +21003,7 @@
         <v>45043</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21060,7 +21060,7 @@
         <v>45048</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21117,7 +21117,7 @@
         <v>45053</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21174,7 +21174,7 @@
         <v>45056</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21231,7 +21231,7 @@
         <v>45062</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21288,7 +21288,7 @@
         <v>45069</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21345,7 +21345,7 @@
         <v>45069</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21402,7 +21402,7 @@
         <v>45069</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21459,7 +21459,7 @@
         <v>45069</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21516,7 +21516,7 @@
         <v>45079</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         <v>45082</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21635,7 +21635,7 @@
         <v>45082</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21697,7 +21697,7 @@
         <v>45084</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21754,7 +21754,7 @@
         <v>45086</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21811,7 +21811,7 @@
         <v>45098</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21868,7 +21868,7 @@
         <v>45099</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21925,7 +21925,7 @@
         <v>45099</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -21982,7 +21982,7 @@
         <v>45099</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22044,7 +22044,7 @@
         <v>45106</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22101,7 +22101,7 @@
         <v>45107</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22158,7 +22158,7 @@
         <v>45111</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22215,7 +22215,7 @@
         <v>45111</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22272,7 +22272,7 @@
         <v>45114</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22329,7 +22329,7 @@
         <v>45114</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         <v>45120</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22443,7 +22443,7 @@
         <v>45120</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22500,7 +22500,7 @@
         <v>45120</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22557,7 +22557,7 @@
         <v>45120</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22614,7 +22614,7 @@
         <v>45131</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22671,7 +22671,7 @@
         <v>45147</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22728,7 +22728,7 @@
         <v>45149</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22785,7 +22785,7 @@
         <v>45149</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22842,7 +22842,7 @@
         <v>45160</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22899,7 +22899,7 @@
         <v>45162</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>

--- a/Översikt SVENLJUNGA.xlsx
+++ b/Översikt SVENLJUNGA.xlsx
@@ -572,7 +572,7 @@
         <v>44579</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>44838</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>44210</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         <v>43620</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>44250</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>44613</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>44613</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1189,7 +1189,7 @@
         <v>44764</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1274,7 +1274,7 @@
         <v>43314</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1331,7 +1331,7 @@
         <v>43325</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1388,7 +1388,7 @@
         <v>43328</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1450,7 +1450,7 @@
         <v>43329</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1507,7 +1507,7 @@
         <v>43346</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1564,7 +1564,7 @@
         <v>43349</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1621,7 +1621,7 @@
         <v>43349</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1678,7 +1678,7 @@
         <v>43353</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1735,7 +1735,7 @@
         <v>43357</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
         <v>43363</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
         <v>43374</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>43381</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>43390</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
         <v>43398</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2087,7 +2087,7 @@
         <v>43402</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>43411</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         <v>43413</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>43413</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>43413</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>43419</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2434,7 +2434,7 @@
         <v>43423</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>43424</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>43425</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>43425</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         <v>43426</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         <v>43428</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>43430</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         <v>43433</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         <v>43433</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>43437</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>43437</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>43438</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>43439</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>43444</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43447</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>43447</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>43448</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>43451</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         <v>43454</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3522,7 +3522,7 @@
         <v>43454</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3584,7 +3584,7 @@
         <v>43454</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3641,7 +3641,7 @@
         <v>43454</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3698,7 +3698,7 @@
         <v>43454</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3760,7 +3760,7 @@
         <v>43454</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3817,7 +3817,7 @@
         <v>43454</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3874,7 +3874,7 @@
         <v>43455</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3931,7 +3931,7 @@
         <v>43455</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3988,7 +3988,7 @@
         <v>43455</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>43461</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>43461</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4169,7 +4169,7 @@
         <v>43462</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         <v>43473</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4283,7 +4283,7 @@
         <v>43475</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4340,7 +4340,7 @@
         <v>43486</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4397,7 +4397,7 @@
         <v>43494</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4454,7 +4454,7 @@
         <v>43495</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4511,7 +4511,7 @@
         <v>43500</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         <v>43501</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>43501</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4682,7 +4682,7 @@
         <v>43511</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>43531</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
         <v>43542</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4853,7 +4853,7 @@
         <v>43544</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         <v>43544</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4977,7 +4977,7 @@
         <v>43554</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5034,7 +5034,7 @@
         <v>43554</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>43554</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>43558</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5205,7 +5205,7 @@
         <v>43559</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5262,7 +5262,7 @@
         <v>43559</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5319,7 +5319,7 @@
         <v>43560</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5376,7 +5376,7 @@
         <v>43565</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5433,7 +5433,7 @@
         <v>43565</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5490,7 +5490,7 @@
         <v>43565</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5547,7 +5547,7 @@
         <v>43572</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5604,7 +5604,7 @@
         <v>43585</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5661,7 +5661,7 @@
         <v>43588</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5718,7 +5718,7 @@
         <v>43591</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5775,7 +5775,7 @@
         <v>43592</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5837,7 +5837,7 @@
         <v>43599</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5894,7 +5894,7 @@
         <v>43599</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5951,7 +5951,7 @@
         <v>43599</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6008,7 +6008,7 @@
         <v>43599</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6065,7 +6065,7 @@
         <v>43609</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
         <v>43609</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         <v>43620</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6241,7 +6241,7 @@
         <v>43620</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6298,7 +6298,7 @@
         <v>43626</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         <v>43626</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6412,7 +6412,7 @@
         <v>43634</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6469,7 +6469,7 @@
         <v>43644</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6526,7 +6526,7 @@
         <v>43644</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6583,7 +6583,7 @@
         <v>43644</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6640,7 +6640,7 @@
         <v>43644</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
         <v>43647</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6759,7 +6759,7 @@
         <v>43647</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6821,7 +6821,7 @@
         <v>43658</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         <v>43676</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         <v>43676</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         <v>43676</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7064,7 +7064,7 @@
         <v>43676</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7126,7 +7126,7 @@
         <v>43677</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>43697</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         <v>43699</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7307,7 +7307,7 @@
         <v>43705</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7364,7 +7364,7 @@
         <v>43706</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7421,7 +7421,7 @@
         <v>43721</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7478,7 +7478,7 @@
         <v>43728</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7535,7 +7535,7 @@
         <v>43728</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7592,7 +7592,7 @@
         <v>43733</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7649,7 +7649,7 @@
         <v>43745</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7706,7 +7706,7 @@
         <v>43758</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7763,7 +7763,7 @@
         <v>43760</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7820,7 +7820,7 @@
         <v>43761</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7877,7 +7877,7 @@
         <v>43770</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7934,7 +7934,7 @@
         <v>43771</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7991,7 +7991,7 @@
         <v>43773</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8048,7 +8048,7 @@
         <v>43780</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8105,7 +8105,7 @@
         <v>43780</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8162,7 +8162,7 @@
         <v>43782</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8219,7 +8219,7 @@
         <v>43782</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8276,7 +8276,7 @@
         <v>43788</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8333,7 +8333,7 @@
         <v>43788</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8390,7 +8390,7 @@
         <v>43788</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8447,7 +8447,7 @@
         <v>43790</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8504,7 +8504,7 @@
         <v>43791</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8561,7 +8561,7 @@
         <v>43795</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8623,7 +8623,7 @@
         <v>43798</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8680,7 +8680,7 @@
         <v>43798</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8737,7 +8737,7 @@
         <v>43798</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8794,7 +8794,7 @@
         <v>43803</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8851,7 +8851,7 @@
         <v>43803</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8908,7 +8908,7 @@
         <v>43804</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8970,7 +8970,7 @@
         <v>43817</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9032,7 +9032,7 @@
         <v>43818</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9094,7 +9094,7 @@
         <v>43832</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9151,7 +9151,7 @@
         <v>43853</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9208,7 +9208,7 @@
         <v>43867</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9265,7 +9265,7 @@
         <v>43868</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9322,7 +9322,7 @@
         <v>43868</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         <v>43868</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9436,7 +9436,7 @@
         <v>43873</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9498,7 +9498,7 @@
         <v>43892</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9555,7 +9555,7 @@
         <v>43894</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9612,7 +9612,7 @@
         <v>43900</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9669,7 +9669,7 @@
         <v>43902</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9726,7 +9726,7 @@
         <v>43902</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9783,7 +9783,7 @@
         <v>43912</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9840,7 +9840,7 @@
         <v>43914</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9897,7 +9897,7 @@
         <v>43915</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9954,7 +9954,7 @@
         <v>43915</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10011,7 +10011,7 @@
         <v>43915</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10068,7 +10068,7 @@
         <v>43920</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10125,7 +10125,7 @@
         <v>43922</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10182,7 +10182,7 @@
         <v>43923</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10239,7 +10239,7 @@
         <v>43923</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10296,7 +10296,7 @@
         <v>43933</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10353,7 +10353,7 @@
         <v>43937</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10415,7 +10415,7 @@
         <v>43949</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10472,7 +10472,7 @@
         <v>43955</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10529,7 +10529,7 @@
         <v>43962</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10586,7 +10586,7 @@
         <v>43963</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10643,7 +10643,7 @@
         <v>43965</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10700,7 +10700,7 @@
         <v>43971</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10762,7 +10762,7 @@
         <v>43983</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10824,7 +10824,7 @@
         <v>43986</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10881,7 +10881,7 @@
         <v>43986</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10938,7 +10938,7 @@
         <v>43991</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10995,7 +10995,7 @@
         <v>44008</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11052,7 +11052,7 @@
         <v>44015</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11109,7 +11109,7 @@
         <v>44018</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11166,7 +11166,7 @@
         <v>44036</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11223,7 +11223,7 @@
         <v>44036</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11280,7 +11280,7 @@
         <v>44050</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11337,7 +11337,7 @@
         <v>44053</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11394,7 +11394,7 @@
         <v>44056</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11451,7 +11451,7 @@
         <v>44061</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11508,7 +11508,7 @@
         <v>44063</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11565,7 +11565,7 @@
         <v>44063</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11622,7 +11622,7 @@
         <v>44068</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11679,7 +11679,7 @@
         <v>44069</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11736,7 +11736,7 @@
         <v>44076</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11793,7 +11793,7 @@
         <v>44082</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11850,7 +11850,7 @@
         <v>44086</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11907,7 +11907,7 @@
         <v>44086</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11964,7 +11964,7 @@
         <v>44089</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12021,7 +12021,7 @@
         <v>44109</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12078,7 +12078,7 @@
         <v>44109</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12135,7 +12135,7 @@
         <v>44116</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12192,7 +12192,7 @@
         <v>44117</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12249,7 +12249,7 @@
         <v>44127</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12306,7 +12306,7 @@
         <v>44129</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12363,7 +12363,7 @@
         <v>44130</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12420,7 +12420,7 @@
         <v>44130</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12477,7 +12477,7 @@
         <v>44130</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12534,7 +12534,7 @@
         <v>44132</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12591,7 +12591,7 @@
         <v>44133</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12648,7 +12648,7 @@
         <v>44133</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12705,7 +12705,7 @@
         <v>44138</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12762,7 +12762,7 @@
         <v>44138</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12819,7 +12819,7 @@
         <v>44154</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12876,7 +12876,7 @@
         <v>44159</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12933,7 +12933,7 @@
         <v>44159</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12990,7 +12990,7 @@
         <v>44162</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13047,7 +13047,7 @@
         <v>44165</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13104,7 +13104,7 @@
         <v>44168</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13161,7 +13161,7 @@
         <v>44173</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13223,7 +13223,7 @@
         <v>44174</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13280,7 +13280,7 @@
         <v>44174</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13337,7 +13337,7 @@
         <v>44187</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13394,7 +13394,7 @@
         <v>44194</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13451,7 +13451,7 @@
         <v>44200</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13508,7 +13508,7 @@
         <v>44209</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13565,7 +13565,7 @@
         <v>44210</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13627,7 +13627,7 @@
         <v>44210</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13689,7 +13689,7 @@
         <v>44210</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13751,7 +13751,7 @@
         <v>44218</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13808,7 +13808,7 @@
         <v>44223</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13865,7 +13865,7 @@
         <v>44224</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13922,7 +13922,7 @@
         <v>44224</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13979,7 +13979,7 @@
         <v>44224</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14036,7 +14036,7 @@
         <v>44229</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14093,7 +14093,7 @@
         <v>44242</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14150,7 +14150,7 @@
         <v>44250</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14207,7 +14207,7 @@
         <v>44250</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14264,7 +14264,7 @@
         <v>44250</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14321,7 +14321,7 @@
         <v>44258</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14378,7 +14378,7 @@
         <v>44264</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14435,7 +14435,7 @@
         <v>44320</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14492,7 +14492,7 @@
         <v>44337</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14549,7 +14549,7 @@
         <v>44337</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14606,7 +14606,7 @@
         <v>44341</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14663,7 +14663,7 @@
         <v>44344</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14725,7 +14725,7 @@
         <v>44349</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14787,7 +14787,7 @@
         <v>44350</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14849,7 +14849,7 @@
         <v>44355</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14906,7 +14906,7 @@
         <v>44357</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14968,7 +14968,7 @@
         <v>44357</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15030,7 +15030,7 @@
         <v>44357</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15092,7 +15092,7 @@
         <v>44376</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15149,7 +15149,7 @@
         <v>44391</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15206,7 +15206,7 @@
         <v>44417</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15263,7 +15263,7 @@
         <v>44418</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15320,7 +15320,7 @@
         <v>44432</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15377,7 +15377,7 @@
         <v>44432</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15434,7 +15434,7 @@
         <v>44434</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15491,7 +15491,7 @@
         <v>44440</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15548,7 +15548,7 @@
         <v>44448</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15605,7 +15605,7 @@
         <v>44491</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15662,7 +15662,7 @@
         <v>44496</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15719,7 +15719,7 @@
         <v>44496</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15776,7 +15776,7 @@
         <v>44497</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15833,7 +15833,7 @@
         <v>44497</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15890,7 +15890,7 @@
         <v>44517</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15947,7 +15947,7 @@
         <v>44517</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16004,7 +16004,7 @@
         <v>44517</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16061,7 +16061,7 @@
         <v>44517</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16118,7 +16118,7 @@
         <v>44517</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16175,7 +16175,7 @@
         <v>44530</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16237,7 +16237,7 @@
         <v>44564</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16294,7 +16294,7 @@
         <v>44579</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16351,7 +16351,7 @@
         <v>44588</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16408,7 +16408,7 @@
         <v>44588</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16465,7 +16465,7 @@
         <v>44610</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16522,7 +16522,7 @@
         <v>44613</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         <v>44615</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16636,7 +16636,7 @@
         <v>44616</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16693,7 +16693,7 @@
         <v>44616</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16750,7 +16750,7 @@
         <v>44617</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16807,7 +16807,7 @@
         <v>44641</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16869,7 +16869,7 @@
         <v>44641</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16931,7 +16931,7 @@
         <v>44641</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16993,7 +16993,7 @@
         <v>44645</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17055,7 +17055,7 @@
         <v>44656</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17112,7 +17112,7 @@
         <v>44656</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17169,7 +17169,7 @@
         <v>44656</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17226,7 +17226,7 @@
         <v>44658</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17283,7 +17283,7 @@
         <v>44659</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17340,7 +17340,7 @@
         <v>44659</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
         <v>44662</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17454,7 +17454,7 @@
         <v>44687</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17511,7 +17511,7 @@
         <v>44706</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17568,7 +17568,7 @@
         <v>44725</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17625,7 +17625,7 @@
         <v>44725</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17682,7 +17682,7 @@
         <v>44726</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17739,7 +17739,7 @@
         <v>44785</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17796,7 +17796,7 @@
         <v>44792</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17853,7 +17853,7 @@
         <v>44797</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17910,7 +17910,7 @@
         <v>44800</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17967,7 +17967,7 @@
         <v>44813</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18024,7 +18024,7 @@
         <v>44824</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18081,7 +18081,7 @@
         <v>44831</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18138,7 +18138,7 @@
         <v>44837</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18195,7 +18195,7 @@
         <v>44837</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18252,7 +18252,7 @@
         <v>44837</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18309,7 +18309,7 @@
         <v>44859</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18371,7 +18371,7 @@
         <v>44859</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18428,7 +18428,7 @@
         <v>44872</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18485,7 +18485,7 @@
         <v>44895</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18542,7 +18542,7 @@
         <v>44895</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18599,7 +18599,7 @@
         <v>44897</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18656,7 +18656,7 @@
         <v>44898</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18713,7 +18713,7 @@
         <v>44901</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18770,7 +18770,7 @@
         <v>44902</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18827,7 +18827,7 @@
         <v>44902</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18884,7 +18884,7 @@
         <v>44902</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18941,7 +18941,7 @@
         <v>44903</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18998,7 +18998,7 @@
         <v>44914</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19055,7 +19055,7 @@
         <v>44915</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19112,7 +19112,7 @@
         <v>44930</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19169,7 +19169,7 @@
         <v>44937</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19226,7 +19226,7 @@
         <v>44937</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19283,7 +19283,7 @@
         <v>44938</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19340,7 +19340,7 @@
         <v>44950</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19397,7 +19397,7 @@
         <v>44953</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19454,7 +19454,7 @@
         <v>44953</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19511,7 +19511,7 @@
         <v>44958</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19573,7 +19573,7 @@
         <v>44958</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19630,7 +19630,7 @@
         <v>44964</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19687,7 +19687,7 @@
         <v>44964</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19744,7 +19744,7 @@
         <v>44964</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19801,7 +19801,7 @@
         <v>44964</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19858,7 +19858,7 @@
         <v>44964</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19915,7 +19915,7 @@
         <v>44964</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19977,7 +19977,7 @@
         <v>44974</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20034,7 +20034,7 @@
         <v>44979</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20091,7 +20091,7 @@
         <v>44979</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20148,7 +20148,7 @@
         <v>44981</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20205,7 +20205,7 @@
         <v>44981</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20262,7 +20262,7 @@
         <v>44981</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20319,7 +20319,7 @@
         <v>44987</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20376,7 +20376,7 @@
         <v>44988</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20433,7 +20433,7 @@
         <v>45000</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20490,7 +20490,7 @@
         <v>45002</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20547,7 +20547,7 @@
         <v>45002</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20604,7 +20604,7 @@
         <v>45006</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20661,7 +20661,7 @@
         <v>45021</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20718,7 +20718,7 @@
         <v>45029</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20775,7 +20775,7 @@
         <v>45034</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20832,7 +20832,7 @@
         <v>45036</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20889,7 +20889,7 @@
         <v>45037</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         <v>45043</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21003,7 +21003,7 @@
         <v>45043</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21060,7 +21060,7 @@
         <v>45048</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21117,7 +21117,7 @@
         <v>45053</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21174,7 +21174,7 @@
         <v>45056</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21231,7 +21231,7 @@
         <v>45062</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21288,7 +21288,7 @@
         <v>45069</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21345,7 +21345,7 @@
         <v>45069</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21402,7 +21402,7 @@
         <v>45069</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21459,7 +21459,7 @@
         <v>45069</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21516,7 +21516,7 @@
         <v>45079</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         <v>45082</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21635,7 +21635,7 @@
         <v>45082</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21697,7 +21697,7 @@
         <v>45084</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21754,7 +21754,7 @@
         <v>45086</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21811,7 +21811,7 @@
         <v>45098</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21868,7 +21868,7 @@
         <v>45099</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21925,7 +21925,7 @@
         <v>45099</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -21982,7 +21982,7 @@
         <v>45099</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22044,7 +22044,7 @@
         <v>45106</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22101,7 +22101,7 @@
         <v>45107</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22158,7 +22158,7 @@
         <v>45111</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22215,7 +22215,7 @@
         <v>45111</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22272,7 +22272,7 @@
         <v>45114</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22329,7 +22329,7 @@
         <v>45114</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         <v>45120</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22443,7 +22443,7 @@
         <v>45120</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22500,7 +22500,7 @@
         <v>45120</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22557,7 +22557,7 @@
         <v>45120</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22614,7 +22614,7 @@
         <v>45131</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22671,7 +22671,7 @@
         <v>45147</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22728,7 +22728,7 @@
         <v>45149</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22785,7 +22785,7 @@
         <v>45149</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22842,7 +22842,7 @@
         <v>45160</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22899,7 +22899,7 @@
         <v>45162</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>

--- a/Översikt SVENLJUNGA.xlsx
+++ b/Översikt SVENLJUNGA.xlsx
@@ -572,7 +572,7 @@
         <v>44579</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>44838</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>44210</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         <v>43620</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>44250</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>44613</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>44613</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1189,7 +1189,7 @@
         <v>44764</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1274,7 +1274,7 @@
         <v>43314</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1331,7 +1331,7 @@
         <v>43325</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1388,7 +1388,7 @@
         <v>43328</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1450,7 +1450,7 @@
         <v>43329</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1507,7 +1507,7 @@
         <v>43346</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1564,7 +1564,7 @@
         <v>43349</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1621,7 +1621,7 @@
         <v>43349</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1678,7 +1678,7 @@
         <v>43353</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1735,7 +1735,7 @@
         <v>43357</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
         <v>43363</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
         <v>43374</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>43381</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>43390</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
         <v>43398</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2087,7 +2087,7 @@
         <v>43402</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>43411</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         <v>43413</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>43413</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>43413</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>43419</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2434,7 +2434,7 @@
         <v>43423</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>43424</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>43425</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>43425</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         <v>43426</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         <v>43428</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>43430</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         <v>43433</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         <v>43433</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>43437</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>43437</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>43438</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>43439</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>43444</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43447</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>43447</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>43448</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>43451</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         <v>43454</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3522,7 +3522,7 @@
         <v>43454</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3584,7 +3584,7 @@
         <v>43454</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3641,7 +3641,7 @@
         <v>43454</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3698,7 +3698,7 @@
         <v>43454</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3760,7 +3760,7 @@
         <v>43454</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3817,7 +3817,7 @@
         <v>43454</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3874,7 +3874,7 @@
         <v>43455</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3931,7 +3931,7 @@
         <v>43455</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3988,7 +3988,7 @@
         <v>43455</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>43461</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>43461</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4169,7 +4169,7 @@
         <v>43462</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         <v>43473</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4283,7 +4283,7 @@
         <v>43475</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4340,7 +4340,7 @@
         <v>43486</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4397,7 +4397,7 @@
         <v>43494</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4454,7 +4454,7 @@
         <v>43495</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4511,7 +4511,7 @@
         <v>43500</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         <v>43501</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>43501</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4682,7 +4682,7 @@
         <v>43511</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>43531</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
         <v>43542</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4853,7 +4853,7 @@
         <v>43544</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         <v>43544</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4977,7 +4977,7 @@
         <v>43554</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5034,7 +5034,7 @@
         <v>43554</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>43554</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>43558</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5205,7 +5205,7 @@
         <v>43559</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5262,7 +5262,7 @@
         <v>43559</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5319,7 +5319,7 @@
         <v>43560</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5376,7 +5376,7 @@
         <v>43565</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5433,7 +5433,7 @@
         <v>43565</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5490,7 +5490,7 @@
         <v>43565</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5547,7 +5547,7 @@
         <v>43572</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5604,7 +5604,7 @@
         <v>43585</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5661,7 +5661,7 @@
         <v>43588</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5718,7 +5718,7 @@
         <v>43591</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5775,7 +5775,7 @@
         <v>43592</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5837,7 +5837,7 @@
         <v>43599</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5894,7 +5894,7 @@
         <v>43599</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5951,7 +5951,7 @@
         <v>43599</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6008,7 +6008,7 @@
         <v>43599</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6065,7 +6065,7 @@
         <v>43609</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
         <v>43609</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         <v>43620</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6241,7 +6241,7 @@
         <v>43620</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6298,7 +6298,7 @@
         <v>43626</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         <v>43626</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6412,7 +6412,7 @@
         <v>43634</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6469,7 +6469,7 @@
         <v>43644</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6526,7 +6526,7 @@
         <v>43644</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6583,7 +6583,7 @@
         <v>43644</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6640,7 +6640,7 @@
         <v>43644</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
         <v>43647</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6759,7 +6759,7 @@
         <v>43647</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6821,7 +6821,7 @@
         <v>43658</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         <v>43676</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         <v>43676</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         <v>43676</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7064,7 +7064,7 @@
         <v>43676</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7126,7 +7126,7 @@
         <v>43677</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>43697</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         <v>43699</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7307,7 +7307,7 @@
         <v>43705</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7364,7 +7364,7 @@
         <v>43706</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7421,7 +7421,7 @@
         <v>43721</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7478,7 +7478,7 @@
         <v>43728</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7535,7 +7535,7 @@
         <v>43728</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7592,7 +7592,7 @@
         <v>43733</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7649,7 +7649,7 @@
         <v>43745</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7706,7 +7706,7 @@
         <v>43758</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7763,7 +7763,7 @@
         <v>43760</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7820,7 +7820,7 @@
         <v>43761</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7877,7 +7877,7 @@
         <v>43770</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7934,7 +7934,7 @@
         <v>43771</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7991,7 +7991,7 @@
         <v>43773</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8048,7 +8048,7 @@
         <v>43780</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8105,7 +8105,7 @@
         <v>43780</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8162,7 +8162,7 @@
         <v>43782</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8219,7 +8219,7 @@
         <v>43782</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8276,7 +8276,7 @@
         <v>43788</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8333,7 +8333,7 @@
         <v>43788</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8390,7 +8390,7 @@
         <v>43788</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8447,7 +8447,7 @@
         <v>43790</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8504,7 +8504,7 @@
         <v>43791</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8561,7 +8561,7 @@
         <v>43795</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8623,7 +8623,7 @@
         <v>43798</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8680,7 +8680,7 @@
         <v>43798</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8737,7 +8737,7 @@
         <v>43798</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8794,7 +8794,7 @@
         <v>43803</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8851,7 +8851,7 @@
         <v>43803</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8908,7 +8908,7 @@
         <v>43804</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8970,7 +8970,7 @@
         <v>43817</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9032,7 +9032,7 @@
         <v>43818</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9094,7 +9094,7 @@
         <v>43832</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9151,7 +9151,7 @@
         <v>43853</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9208,7 +9208,7 @@
         <v>43867</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9265,7 +9265,7 @@
         <v>43868</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9322,7 +9322,7 @@
         <v>43868</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         <v>43868</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9436,7 +9436,7 @@
         <v>43873</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9498,7 +9498,7 @@
         <v>43892</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9555,7 +9555,7 @@
         <v>43894</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9612,7 +9612,7 @@
         <v>43900</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9669,7 +9669,7 @@
         <v>43902</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9726,7 +9726,7 @@
         <v>43902</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9783,7 +9783,7 @@
         <v>43912</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9840,7 +9840,7 @@
         <v>43914</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9897,7 +9897,7 @@
         <v>43915</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9954,7 +9954,7 @@
         <v>43915</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10011,7 +10011,7 @@
         <v>43915</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10068,7 +10068,7 @@
         <v>43920</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10125,7 +10125,7 @@
         <v>43922</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10182,7 +10182,7 @@
         <v>43923</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10239,7 +10239,7 @@
         <v>43923</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10296,7 +10296,7 @@
         <v>43933</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10353,7 +10353,7 @@
         <v>43937</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10415,7 +10415,7 @@
         <v>43949</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10472,7 +10472,7 @@
         <v>43955</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10529,7 +10529,7 @@
         <v>43962</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10586,7 +10586,7 @@
         <v>43963</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10643,7 +10643,7 @@
         <v>43965</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10700,7 +10700,7 @@
         <v>43971</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10762,7 +10762,7 @@
         <v>43983</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10824,7 +10824,7 @@
         <v>43986</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10881,7 +10881,7 @@
         <v>43986</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10938,7 +10938,7 @@
         <v>43991</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10995,7 +10995,7 @@
         <v>44008</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11052,7 +11052,7 @@
         <v>44015</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11109,7 +11109,7 @@
         <v>44018</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11166,7 +11166,7 @@
         <v>44036</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11223,7 +11223,7 @@
         <v>44036</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11280,7 +11280,7 @@
         <v>44050</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11337,7 +11337,7 @@
         <v>44053</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11394,7 +11394,7 @@
         <v>44056</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11451,7 +11451,7 @@
         <v>44061</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11508,7 +11508,7 @@
         <v>44063</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11565,7 +11565,7 @@
         <v>44063</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11622,7 +11622,7 @@
         <v>44068</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11679,7 +11679,7 @@
         <v>44069</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11736,7 +11736,7 @@
         <v>44076</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11793,7 +11793,7 @@
         <v>44082</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11850,7 +11850,7 @@
         <v>44086</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11907,7 +11907,7 @@
         <v>44086</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11964,7 +11964,7 @@
         <v>44089</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12021,7 +12021,7 @@
         <v>44109</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12078,7 +12078,7 @@
         <v>44109</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12135,7 +12135,7 @@
         <v>44116</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12192,7 +12192,7 @@
         <v>44117</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12249,7 +12249,7 @@
         <v>44127</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12306,7 +12306,7 @@
         <v>44129</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12363,7 +12363,7 @@
         <v>44130</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12420,7 +12420,7 @@
         <v>44130</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12477,7 +12477,7 @@
         <v>44130</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12534,7 +12534,7 @@
         <v>44132</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12591,7 +12591,7 @@
         <v>44133</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12648,7 +12648,7 @@
         <v>44133</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12705,7 +12705,7 @@
         <v>44138</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12762,7 +12762,7 @@
         <v>44138</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12819,7 +12819,7 @@
         <v>44154</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12876,7 +12876,7 @@
         <v>44159</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12933,7 +12933,7 @@
         <v>44159</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12990,7 +12990,7 @@
         <v>44162</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13047,7 +13047,7 @@
         <v>44165</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13104,7 +13104,7 @@
         <v>44168</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13161,7 +13161,7 @@
         <v>44173</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13223,7 +13223,7 @@
         <v>44174</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13280,7 +13280,7 @@
         <v>44174</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13337,7 +13337,7 @@
         <v>44187</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13394,7 +13394,7 @@
         <v>44194</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13451,7 +13451,7 @@
         <v>44200</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13508,7 +13508,7 @@
         <v>44209</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13565,7 +13565,7 @@
         <v>44210</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13627,7 +13627,7 @@
         <v>44210</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13689,7 +13689,7 @@
         <v>44210</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13751,7 +13751,7 @@
         <v>44218</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13808,7 +13808,7 @@
         <v>44223</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13865,7 +13865,7 @@
         <v>44224</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13922,7 +13922,7 @@
         <v>44224</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13979,7 +13979,7 @@
         <v>44224</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14036,7 +14036,7 @@
         <v>44229</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14093,7 +14093,7 @@
         <v>44242</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14150,7 +14150,7 @@
         <v>44250</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14207,7 +14207,7 @@
         <v>44250</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14264,7 +14264,7 @@
         <v>44250</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14321,7 +14321,7 @@
         <v>44258</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14378,7 +14378,7 @@
         <v>44264</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14435,7 +14435,7 @@
         <v>44320</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14492,7 +14492,7 @@
         <v>44337</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14549,7 +14549,7 @@
         <v>44337</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14606,7 +14606,7 @@
         <v>44341</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14663,7 +14663,7 @@
         <v>44344</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14725,7 +14725,7 @@
         <v>44349</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14787,7 +14787,7 @@
         <v>44350</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14849,7 +14849,7 @@
         <v>44355</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14906,7 +14906,7 @@
         <v>44357</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14968,7 +14968,7 @@
         <v>44357</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15030,7 +15030,7 @@
         <v>44357</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15092,7 +15092,7 @@
         <v>44376</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15149,7 +15149,7 @@
         <v>44391</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15206,7 +15206,7 @@
         <v>44417</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15263,7 +15263,7 @@
         <v>44418</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15320,7 +15320,7 @@
         <v>44432</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15377,7 +15377,7 @@
         <v>44432</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15434,7 +15434,7 @@
         <v>44434</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15491,7 +15491,7 @@
         <v>44440</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15548,7 +15548,7 @@
         <v>44448</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15605,7 +15605,7 @@
         <v>44491</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15662,7 +15662,7 @@
         <v>44496</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15719,7 +15719,7 @@
         <v>44496</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15776,7 +15776,7 @@
         <v>44497</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15833,7 +15833,7 @@
         <v>44497</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15890,7 +15890,7 @@
         <v>44517</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15947,7 +15947,7 @@
         <v>44517</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16004,7 +16004,7 @@
         <v>44517</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16061,7 +16061,7 @@
         <v>44517</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16118,7 +16118,7 @@
         <v>44517</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16175,7 +16175,7 @@
         <v>44530</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16237,7 +16237,7 @@
         <v>44564</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16294,7 +16294,7 @@
         <v>44579</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16351,7 +16351,7 @@
         <v>44588</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16408,7 +16408,7 @@
         <v>44588</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16465,7 +16465,7 @@
         <v>44610</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16522,7 +16522,7 @@
         <v>44613</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         <v>44615</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16636,7 +16636,7 @@
         <v>44616</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16693,7 +16693,7 @@
         <v>44616</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16750,7 +16750,7 @@
         <v>44617</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16807,7 +16807,7 @@
         <v>44641</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16869,7 +16869,7 @@
         <v>44641</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16931,7 +16931,7 @@
         <v>44641</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16993,7 +16993,7 @@
         <v>44645</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17055,7 +17055,7 @@
         <v>44656</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17112,7 +17112,7 @@
         <v>44656</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17169,7 +17169,7 @@
         <v>44656</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17226,7 +17226,7 @@
         <v>44658</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17283,7 +17283,7 @@
         <v>44659</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17340,7 +17340,7 @@
         <v>44659</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
         <v>44662</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17454,7 +17454,7 @@
         <v>44687</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17511,7 +17511,7 @@
         <v>44706</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17568,7 +17568,7 @@
         <v>44725</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17625,7 +17625,7 @@
         <v>44725</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17682,7 +17682,7 @@
         <v>44726</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17739,7 +17739,7 @@
         <v>44785</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17796,7 +17796,7 @@
         <v>44792</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17853,7 +17853,7 @@
         <v>44797</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17910,7 +17910,7 @@
         <v>44800</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17967,7 +17967,7 @@
         <v>44813</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18024,7 +18024,7 @@
         <v>44824</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18081,7 +18081,7 @@
         <v>44831</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18138,7 +18138,7 @@
         <v>44837</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18195,7 +18195,7 @@
         <v>44837</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18252,7 +18252,7 @@
         <v>44837</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18309,7 +18309,7 @@
         <v>44859</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18371,7 +18371,7 @@
         <v>44859</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18428,7 +18428,7 @@
         <v>44872</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18485,7 +18485,7 @@
         <v>44895</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18542,7 +18542,7 @@
         <v>44895</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18599,7 +18599,7 @@
         <v>44897</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18656,7 +18656,7 @@
         <v>44898</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18713,7 +18713,7 @@
         <v>44901</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18770,7 +18770,7 @@
         <v>44902</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18827,7 +18827,7 @@
         <v>44902</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18884,7 +18884,7 @@
         <v>44902</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18941,7 +18941,7 @@
         <v>44903</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18998,7 +18998,7 @@
         <v>44914</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19055,7 +19055,7 @@
         <v>44915</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19112,7 +19112,7 @@
         <v>44930</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19169,7 +19169,7 @@
         <v>44937</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19226,7 +19226,7 @@
         <v>44937</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19283,7 +19283,7 @@
         <v>44938</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19340,7 +19340,7 @@
         <v>44950</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19397,7 +19397,7 @@
         <v>44953</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19454,7 +19454,7 @@
         <v>44953</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19511,7 +19511,7 @@
         <v>44958</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19573,7 +19573,7 @@
         <v>44958</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19630,7 +19630,7 @@
         <v>44964</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19687,7 +19687,7 @@
         <v>44964</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19744,7 +19744,7 @@
         <v>44964</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19801,7 +19801,7 @@
         <v>44964</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19858,7 +19858,7 @@
         <v>44964</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19915,7 +19915,7 @@
         <v>44964</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19977,7 +19977,7 @@
         <v>44974</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20034,7 +20034,7 @@
         <v>44979</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20091,7 +20091,7 @@
         <v>44979</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20148,7 +20148,7 @@
         <v>44981</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20205,7 +20205,7 @@
         <v>44981</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20262,7 +20262,7 @@
         <v>44981</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20319,7 +20319,7 @@
         <v>44987</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20376,7 +20376,7 @@
         <v>44988</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20433,7 +20433,7 @@
         <v>45000</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20490,7 +20490,7 @@
         <v>45002</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20547,7 +20547,7 @@
         <v>45002</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20604,7 +20604,7 @@
         <v>45006</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20661,7 +20661,7 @@
         <v>45021</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20718,7 +20718,7 @@
         <v>45029</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20775,7 +20775,7 @@
         <v>45034</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20832,7 +20832,7 @@
         <v>45036</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20889,7 +20889,7 @@
         <v>45037</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         <v>45043</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21003,7 +21003,7 @@
         <v>45043</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21060,7 +21060,7 @@
         <v>45048</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21117,7 +21117,7 @@
         <v>45053</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21174,7 +21174,7 @@
         <v>45056</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21231,7 +21231,7 @@
         <v>45062</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21288,7 +21288,7 @@
         <v>45069</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21345,7 +21345,7 @@
         <v>45069</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21402,7 +21402,7 @@
         <v>45069</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21459,7 +21459,7 @@
         <v>45069</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21516,7 +21516,7 @@
         <v>45079</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         <v>45082</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21635,7 +21635,7 @@
         <v>45082</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21697,7 +21697,7 @@
         <v>45084</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21754,7 +21754,7 @@
         <v>45086</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21811,7 +21811,7 @@
         <v>45098</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21868,7 +21868,7 @@
         <v>45099</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21925,7 +21925,7 @@
         <v>45099</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -21982,7 +21982,7 @@
         <v>45099</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22044,7 +22044,7 @@
         <v>45106</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22101,7 +22101,7 @@
         <v>45107</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22158,7 +22158,7 @@
         <v>45111</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22215,7 +22215,7 @@
         <v>45111</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22272,7 +22272,7 @@
         <v>45114</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22329,7 +22329,7 @@
         <v>45114</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         <v>45120</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22443,7 +22443,7 @@
         <v>45120</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22500,7 +22500,7 @@
         <v>45120</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22557,7 +22557,7 @@
         <v>45120</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22614,7 +22614,7 @@
         <v>45131</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22671,7 +22671,7 @@
         <v>45147</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22728,7 +22728,7 @@
         <v>45149</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22785,7 +22785,7 @@
         <v>45149</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22842,7 +22842,7 @@
         <v>45160</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22899,7 +22899,7 @@
         <v>45162</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>

--- a/Översikt SVENLJUNGA.xlsx
+++ b/Översikt SVENLJUNGA.xlsx
@@ -572,7 +572,7 @@
         <v>44579</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -632,27 +632,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVENLJUNGA/artfynd/A 2457-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVENLJUNGA/artfynd/A 2457-2022.xlsx", "A 2457-2022")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVENLJUNGA/kartor/A 2457-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVENLJUNGA/kartor/A 2457-2022.png", "A 2457-2022")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVENLJUNGA/klagomål/A 2457-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVENLJUNGA/klagomål/A 2457-2022.docx", "A 2457-2022")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVENLJUNGA/klagomålsmail/A 2457-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVENLJUNGA/klagomålsmail/A 2457-2022.docx", "A 2457-2022")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVENLJUNGA/tillsyn/A 2457-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVENLJUNGA/tillsyn/A 2457-2022.docx", "A 2457-2022")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVENLJUNGA/tillsynsmail/A 2457-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVENLJUNGA/tillsynsmail/A 2457-2022.docx", "A 2457-2022")</f>
         <v/>
       </c>
     </row>
@@ -666,7 +666,7 @@
         <v>44838</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -719,27 +719,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVENLJUNGA/artfynd/A 43911-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVENLJUNGA/artfynd/A 43911-2022.xlsx", "A 43911-2022")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVENLJUNGA/kartor/A 43911-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVENLJUNGA/kartor/A 43911-2022.png", "A 43911-2022")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVENLJUNGA/klagomål/A 43911-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVENLJUNGA/klagomål/A 43911-2022.docx", "A 43911-2022")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVENLJUNGA/klagomålsmail/A 43911-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVENLJUNGA/klagomålsmail/A 43911-2022.docx", "A 43911-2022")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVENLJUNGA/tillsyn/A 43911-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVENLJUNGA/tillsyn/A 43911-2022.docx", "A 43911-2022")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVENLJUNGA/tillsynsmail/A 43911-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVENLJUNGA/tillsynsmail/A 43911-2022.docx", "A 43911-2022")</f>
         <v/>
       </c>
     </row>
@@ -753,7 +753,7 @@
         <v>44210</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -810,27 +810,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVENLJUNGA/artfynd/A 1901-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVENLJUNGA/artfynd/A 1901-2021.xlsx", "A 1901-2021")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVENLJUNGA/kartor/A 1901-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVENLJUNGA/kartor/A 1901-2021.png", "A 1901-2021")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVENLJUNGA/klagomål/A 1901-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVENLJUNGA/klagomål/A 1901-2021.docx", "A 1901-2021")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVENLJUNGA/klagomålsmail/A 1901-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVENLJUNGA/klagomålsmail/A 1901-2021.docx", "A 1901-2021")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVENLJUNGA/tillsyn/A 1901-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVENLJUNGA/tillsyn/A 1901-2021.docx", "A 1901-2021")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVENLJUNGA/tillsynsmail/A 1901-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVENLJUNGA/tillsynsmail/A 1901-2021.docx", "A 1901-2021")</f>
         <v/>
       </c>
     </row>
@@ -844,7 +844,7 @@
         <v>43620</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -900,27 +900,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVENLJUNGA/artfynd/A 27812-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVENLJUNGA/artfynd/A 27812-2019.xlsx", "A 27812-2019")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVENLJUNGA/kartor/A 27812-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVENLJUNGA/kartor/A 27812-2019.png", "A 27812-2019")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVENLJUNGA/klagomål/A 27812-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVENLJUNGA/klagomål/A 27812-2019.docx", "A 27812-2019")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVENLJUNGA/klagomålsmail/A 27812-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVENLJUNGA/klagomålsmail/A 27812-2019.docx", "A 27812-2019")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVENLJUNGA/tillsyn/A 27812-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVENLJUNGA/tillsyn/A 27812-2019.docx", "A 27812-2019")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVENLJUNGA/tillsynsmail/A 27812-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVENLJUNGA/tillsynsmail/A 27812-2019.docx", "A 27812-2019")</f>
         <v/>
       </c>
     </row>
@@ -934,7 +934,7 @@
         <v>44250</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -985,27 +985,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVENLJUNGA/artfynd/A 9246-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVENLJUNGA/artfynd/A 9246-2021.xlsx", "A 9246-2021")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVENLJUNGA/kartor/A 9246-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVENLJUNGA/kartor/A 9246-2021.png", "A 9246-2021")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVENLJUNGA/klagomål/A 9246-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVENLJUNGA/klagomål/A 9246-2021.docx", "A 9246-2021")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVENLJUNGA/klagomålsmail/A 9246-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVENLJUNGA/klagomålsmail/A 9246-2021.docx", "A 9246-2021")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVENLJUNGA/tillsyn/A 9246-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVENLJUNGA/tillsyn/A 9246-2021.docx", "A 9246-2021")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVENLJUNGA/tillsynsmail/A 9246-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVENLJUNGA/tillsynsmail/A 9246-2021.docx", "A 9246-2021")</f>
         <v/>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
         <v>44613</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1070,27 +1070,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVENLJUNGA/artfynd/A 8701-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVENLJUNGA/artfynd/A 8701-2022.xlsx", "A 8701-2022")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVENLJUNGA/kartor/A 8701-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVENLJUNGA/kartor/A 8701-2022.png", "A 8701-2022")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVENLJUNGA/klagomål/A 8701-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVENLJUNGA/klagomål/A 8701-2022.docx", "A 8701-2022")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVENLJUNGA/klagomålsmail/A 8701-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVENLJUNGA/klagomålsmail/A 8701-2022.docx", "A 8701-2022")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVENLJUNGA/tillsyn/A 8701-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVENLJUNGA/tillsyn/A 8701-2022.docx", "A 8701-2022")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVENLJUNGA/tillsynsmail/A 8701-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVENLJUNGA/tillsynsmail/A 8701-2022.docx", "A 8701-2022")</f>
         <v/>
       </c>
     </row>
@@ -1104,7 +1104,7 @@
         <v>44613</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1155,27 +1155,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVENLJUNGA/artfynd/A 8697-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVENLJUNGA/artfynd/A 8697-2022.xlsx", "A 8697-2022")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVENLJUNGA/kartor/A 8697-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVENLJUNGA/kartor/A 8697-2022.png", "A 8697-2022")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVENLJUNGA/klagomål/A 8697-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVENLJUNGA/klagomål/A 8697-2022.docx", "A 8697-2022")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVENLJUNGA/klagomålsmail/A 8697-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVENLJUNGA/klagomålsmail/A 8697-2022.docx", "A 8697-2022")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVENLJUNGA/tillsyn/A 8697-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVENLJUNGA/tillsyn/A 8697-2022.docx", "A 8697-2022")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVENLJUNGA/tillsynsmail/A 8697-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVENLJUNGA/tillsynsmail/A 8697-2022.docx", "A 8697-2022")</f>
         <v/>
       </c>
     </row>
@@ -1189,7 +1189,7 @@
         <v>44764</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1240,27 +1240,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVENLJUNGA/artfynd/A 30771-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVENLJUNGA/artfynd/A 30771-2022.xlsx", "A 30771-2022")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVENLJUNGA/kartor/A 30771-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVENLJUNGA/kartor/A 30771-2022.png", "A 30771-2022")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVENLJUNGA/klagomål/A 30771-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVENLJUNGA/klagomål/A 30771-2022.docx", "A 30771-2022")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVENLJUNGA/klagomålsmail/A 30771-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVENLJUNGA/klagomålsmail/A 30771-2022.docx", "A 30771-2022")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVENLJUNGA/tillsyn/A 30771-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVENLJUNGA/tillsyn/A 30771-2022.docx", "A 30771-2022")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVENLJUNGA/tillsynsmail/A 30771-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVENLJUNGA/tillsynsmail/A 30771-2022.docx", "A 30771-2022")</f>
         <v/>
       </c>
     </row>
@@ -1274,7 +1274,7 @@
         <v>43314</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1331,7 +1331,7 @@
         <v>43325</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1388,7 +1388,7 @@
         <v>43328</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1450,7 +1450,7 @@
         <v>43329</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1507,7 +1507,7 @@
         <v>43346</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1564,7 +1564,7 @@
         <v>43349</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1621,7 +1621,7 @@
         <v>43349</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1678,7 +1678,7 @@
         <v>43353</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1735,7 +1735,7 @@
         <v>43357</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
         <v>43363</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
         <v>43374</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>43381</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>43390</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
         <v>43398</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2087,7 +2087,7 @@
         <v>43402</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>43411</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         <v>43413</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>43413</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>43413</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>43419</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2434,7 +2434,7 @@
         <v>43423</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>43424</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>43425</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>43425</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         <v>43426</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         <v>43428</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>43430</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         <v>43433</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         <v>43433</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>43437</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>43437</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>43438</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>43439</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>43444</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43447</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>43447</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>43448</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>43451</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         <v>43454</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3522,7 +3522,7 @@
         <v>43454</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3584,7 +3584,7 @@
         <v>43454</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3641,7 +3641,7 @@
         <v>43454</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3698,7 +3698,7 @@
         <v>43454</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3760,7 +3760,7 @@
         <v>43454</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3817,7 +3817,7 @@
         <v>43454</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3874,7 +3874,7 @@
         <v>43455</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3931,7 +3931,7 @@
         <v>43455</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3988,7 +3988,7 @@
         <v>43455</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>43461</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>43461</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4169,7 +4169,7 @@
         <v>43462</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         <v>43473</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4283,7 +4283,7 @@
         <v>43475</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4340,7 +4340,7 @@
         <v>43486</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4397,7 +4397,7 @@
         <v>43494</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4454,7 +4454,7 @@
         <v>43495</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4511,7 +4511,7 @@
         <v>43500</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         <v>43501</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>43501</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4682,7 +4682,7 @@
         <v>43511</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>43531</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
         <v>43542</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4853,7 +4853,7 @@
         <v>43544</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         <v>43544</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4977,7 +4977,7 @@
         <v>43554</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5034,7 +5034,7 @@
         <v>43554</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>43554</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>43558</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5205,7 +5205,7 @@
         <v>43559</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5262,7 +5262,7 @@
         <v>43559</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5319,7 +5319,7 @@
         <v>43560</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5376,7 +5376,7 @@
         <v>43565</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5433,7 +5433,7 @@
         <v>43565</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5490,7 +5490,7 @@
         <v>43565</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5547,7 +5547,7 @@
         <v>43572</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5604,7 +5604,7 @@
         <v>43585</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5661,7 +5661,7 @@
         <v>43588</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5718,7 +5718,7 @@
         <v>43591</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5775,7 +5775,7 @@
         <v>43592</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5837,7 +5837,7 @@
         <v>43599</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5894,7 +5894,7 @@
         <v>43599</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5951,7 +5951,7 @@
         <v>43599</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6008,7 +6008,7 @@
         <v>43599</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6065,7 +6065,7 @@
         <v>43609</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
         <v>43609</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         <v>43620</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6241,7 +6241,7 @@
         <v>43620</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6298,7 +6298,7 @@
         <v>43626</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         <v>43626</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6412,7 +6412,7 @@
         <v>43634</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6469,7 +6469,7 @@
         <v>43644</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6526,7 +6526,7 @@
         <v>43644</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6583,7 +6583,7 @@
         <v>43644</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6640,7 +6640,7 @@
         <v>43644</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
         <v>43647</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6759,7 +6759,7 @@
         <v>43647</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6821,7 +6821,7 @@
         <v>43658</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         <v>43676</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         <v>43676</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         <v>43676</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7064,7 +7064,7 @@
         <v>43676</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7126,7 +7126,7 @@
         <v>43677</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>43697</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         <v>43699</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7307,7 +7307,7 @@
         <v>43705</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7364,7 +7364,7 @@
         <v>43706</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7421,7 +7421,7 @@
         <v>43721</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7478,7 +7478,7 @@
         <v>43728</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7535,7 +7535,7 @@
         <v>43728</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7592,7 +7592,7 @@
         <v>43733</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7649,7 +7649,7 @@
         <v>43745</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7706,7 +7706,7 @@
         <v>43758</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7763,7 +7763,7 @@
         <v>43760</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7820,7 +7820,7 @@
         <v>43761</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7877,7 +7877,7 @@
         <v>43770</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7934,7 +7934,7 @@
         <v>43771</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7991,7 +7991,7 @@
         <v>43773</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8048,7 +8048,7 @@
         <v>43780</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8105,7 +8105,7 @@
         <v>43780</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8162,7 +8162,7 @@
         <v>43782</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8219,7 +8219,7 @@
         <v>43782</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8276,7 +8276,7 @@
         <v>43788</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8333,7 +8333,7 @@
         <v>43788</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8390,7 +8390,7 @@
         <v>43788</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8447,7 +8447,7 @@
         <v>43790</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8504,7 +8504,7 @@
         <v>43791</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8561,7 +8561,7 @@
         <v>43795</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8623,7 +8623,7 @@
         <v>43798</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8680,7 +8680,7 @@
         <v>43798</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8737,7 +8737,7 @@
         <v>43798</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8794,7 +8794,7 @@
         <v>43803</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8851,7 +8851,7 @@
         <v>43803</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8908,7 +8908,7 @@
         <v>43804</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8970,7 +8970,7 @@
         <v>43817</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9032,7 +9032,7 @@
         <v>43818</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9094,7 +9094,7 @@
         <v>43832</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9151,7 +9151,7 @@
         <v>43853</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9208,7 +9208,7 @@
         <v>43867</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9265,7 +9265,7 @@
         <v>43868</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9322,7 +9322,7 @@
         <v>43868</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         <v>43868</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9436,7 +9436,7 @@
         <v>43873</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9498,7 +9498,7 @@
         <v>43892</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9555,7 +9555,7 @@
         <v>43894</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9612,7 +9612,7 @@
         <v>43900</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9669,7 +9669,7 @@
         <v>43902</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9726,7 +9726,7 @@
         <v>43902</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9783,7 +9783,7 @@
         <v>43912</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9840,7 +9840,7 @@
         <v>43914</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9897,7 +9897,7 @@
         <v>43915</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9954,7 +9954,7 @@
         <v>43915</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10011,7 +10011,7 @@
         <v>43915</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10068,7 +10068,7 @@
         <v>43920</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10125,7 +10125,7 @@
         <v>43922</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10182,7 +10182,7 @@
         <v>43923</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10239,7 +10239,7 @@
         <v>43923</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10296,7 +10296,7 @@
         <v>43933</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10353,7 +10353,7 @@
         <v>43937</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10415,7 +10415,7 @@
         <v>43949</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10472,7 +10472,7 @@
         <v>43955</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10529,7 +10529,7 @@
         <v>43962</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10586,7 +10586,7 @@
         <v>43963</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10643,7 +10643,7 @@
         <v>43965</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10700,7 +10700,7 @@
         <v>43971</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10762,7 +10762,7 @@
         <v>43983</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10824,7 +10824,7 @@
         <v>43986</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10881,7 +10881,7 @@
         <v>43986</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10938,7 +10938,7 @@
         <v>43991</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10995,7 +10995,7 @@
         <v>44008</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11052,7 +11052,7 @@
         <v>44015</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11109,7 +11109,7 @@
         <v>44018</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11166,7 +11166,7 @@
         <v>44036</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11223,7 +11223,7 @@
         <v>44036</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11280,7 +11280,7 @@
         <v>44050</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11337,7 +11337,7 @@
         <v>44053</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11394,7 +11394,7 @@
         <v>44056</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11451,7 +11451,7 @@
         <v>44061</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11508,7 +11508,7 @@
         <v>44063</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11565,7 +11565,7 @@
         <v>44063</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11622,7 +11622,7 @@
         <v>44068</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11679,7 +11679,7 @@
         <v>44069</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11736,7 +11736,7 @@
         <v>44076</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11793,7 +11793,7 @@
         <v>44082</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11850,7 +11850,7 @@
         <v>44086</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11907,7 +11907,7 @@
         <v>44086</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11964,7 +11964,7 @@
         <v>44089</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12021,7 +12021,7 @@
         <v>44109</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12078,7 +12078,7 @@
         <v>44109</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12135,7 +12135,7 @@
         <v>44116</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12192,7 +12192,7 @@
         <v>44117</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12249,7 +12249,7 @@
         <v>44127</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12306,7 +12306,7 @@
         <v>44129</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12363,7 +12363,7 @@
         <v>44130</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12420,7 +12420,7 @@
         <v>44130</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12477,7 +12477,7 @@
         <v>44130</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12534,7 +12534,7 @@
         <v>44132</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12591,7 +12591,7 @@
         <v>44133</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12648,7 +12648,7 @@
         <v>44133</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12705,7 +12705,7 @@
         <v>44138</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12762,7 +12762,7 @@
         <v>44138</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12819,7 +12819,7 @@
         <v>44154</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12876,7 +12876,7 @@
         <v>44159</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12933,7 +12933,7 @@
         <v>44159</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12990,7 +12990,7 @@
         <v>44162</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13047,7 +13047,7 @@
         <v>44165</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13104,7 +13104,7 @@
         <v>44168</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13161,7 +13161,7 @@
         <v>44173</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13223,7 +13223,7 @@
         <v>44174</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13280,7 +13280,7 @@
         <v>44174</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13337,7 +13337,7 @@
         <v>44187</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13394,7 +13394,7 @@
         <v>44194</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13451,7 +13451,7 @@
         <v>44200</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13508,7 +13508,7 @@
         <v>44209</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13565,7 +13565,7 @@
         <v>44210</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13627,7 +13627,7 @@
         <v>44210</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13689,7 +13689,7 @@
         <v>44210</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13751,7 +13751,7 @@
         <v>44218</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13808,7 +13808,7 @@
         <v>44223</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13865,7 +13865,7 @@
         <v>44224</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13922,7 +13922,7 @@
         <v>44224</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13979,7 +13979,7 @@
         <v>44224</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14036,7 +14036,7 @@
         <v>44229</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14093,7 +14093,7 @@
         <v>44242</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14150,7 +14150,7 @@
         <v>44250</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14207,7 +14207,7 @@
         <v>44250</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14264,7 +14264,7 @@
         <v>44250</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14321,7 +14321,7 @@
         <v>44258</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14378,7 +14378,7 @@
         <v>44264</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14435,7 +14435,7 @@
         <v>44320</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14492,7 +14492,7 @@
         <v>44337</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14549,7 +14549,7 @@
         <v>44337</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14606,7 +14606,7 @@
         <v>44341</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14663,7 +14663,7 @@
         <v>44344</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14725,7 +14725,7 @@
         <v>44349</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14787,7 +14787,7 @@
         <v>44350</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14849,7 +14849,7 @@
         <v>44355</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14906,7 +14906,7 @@
         <v>44357</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14968,7 +14968,7 @@
         <v>44357</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15030,7 +15030,7 @@
         <v>44357</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15092,7 +15092,7 @@
         <v>44376</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15149,7 +15149,7 @@
         <v>44391</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15206,7 +15206,7 @@
         <v>44417</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15263,7 +15263,7 @@
         <v>44418</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15320,7 +15320,7 @@
         <v>44432</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15377,7 +15377,7 @@
         <v>44432</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15434,7 +15434,7 @@
         <v>44434</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15491,7 +15491,7 @@
         <v>44440</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15548,7 +15548,7 @@
         <v>44448</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15605,7 +15605,7 @@
         <v>44491</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15662,7 +15662,7 @@
         <v>44496</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15719,7 +15719,7 @@
         <v>44496</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15776,7 +15776,7 @@
         <v>44497</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15833,7 +15833,7 @@
         <v>44497</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15890,7 +15890,7 @@
         <v>44517</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15947,7 +15947,7 @@
         <v>44517</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16004,7 +16004,7 @@
         <v>44517</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16061,7 +16061,7 @@
         <v>44517</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16118,7 +16118,7 @@
         <v>44517</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16175,7 +16175,7 @@
         <v>44530</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16237,7 +16237,7 @@
         <v>44564</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16294,7 +16294,7 @@
         <v>44579</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16351,7 +16351,7 @@
         <v>44588</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16408,7 +16408,7 @@
         <v>44588</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16465,7 +16465,7 @@
         <v>44610</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16522,7 +16522,7 @@
         <v>44613</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         <v>44615</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16636,7 +16636,7 @@
         <v>44616</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16693,7 +16693,7 @@
         <v>44616</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16750,7 +16750,7 @@
         <v>44617</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16807,7 +16807,7 @@
         <v>44641</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16869,7 +16869,7 @@
         <v>44641</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16931,7 +16931,7 @@
         <v>44641</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16993,7 +16993,7 @@
         <v>44645</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17055,7 +17055,7 @@
         <v>44656</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17112,7 +17112,7 @@
         <v>44656</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17169,7 +17169,7 @@
         <v>44656</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17226,7 +17226,7 @@
         <v>44658</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17283,7 +17283,7 @@
         <v>44659</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17340,7 +17340,7 @@
         <v>44659</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
         <v>44662</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17454,7 +17454,7 @@
         <v>44687</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17511,7 +17511,7 @@
         <v>44706</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17568,7 +17568,7 @@
         <v>44725</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17625,7 +17625,7 @@
         <v>44725</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17682,7 +17682,7 @@
         <v>44726</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17739,7 +17739,7 @@
         <v>44785</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17796,7 +17796,7 @@
         <v>44792</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17853,7 +17853,7 @@
         <v>44797</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17910,7 +17910,7 @@
         <v>44800</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17967,7 +17967,7 @@
         <v>44813</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18024,7 +18024,7 @@
         <v>44824</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18081,7 +18081,7 @@
         <v>44831</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18138,7 +18138,7 @@
         <v>44837</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18195,7 +18195,7 @@
         <v>44837</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18252,7 +18252,7 @@
         <v>44837</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18309,7 +18309,7 @@
         <v>44859</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18371,7 +18371,7 @@
         <v>44859</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18428,7 +18428,7 @@
         <v>44872</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18485,7 +18485,7 @@
         <v>44895</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18542,7 +18542,7 @@
         <v>44895</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18599,7 +18599,7 @@
         <v>44897</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18656,7 +18656,7 @@
         <v>44898</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18713,7 +18713,7 @@
         <v>44901</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18770,7 +18770,7 @@
         <v>44902</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18827,7 +18827,7 @@
         <v>44902</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18884,7 +18884,7 @@
         <v>44902</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18941,7 +18941,7 @@
         <v>44903</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18998,7 +18998,7 @@
         <v>44914</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19055,7 +19055,7 @@
         <v>44915</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19112,7 +19112,7 @@
         <v>44930</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19169,7 +19169,7 @@
         <v>44937</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19226,7 +19226,7 @@
         <v>44937</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19283,7 +19283,7 @@
         <v>44938</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19340,7 +19340,7 @@
         <v>44950</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19397,7 +19397,7 @@
         <v>44953</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19454,7 +19454,7 @@
         <v>44953</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19511,7 +19511,7 @@
         <v>44958</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19573,7 +19573,7 @@
         <v>44958</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19630,7 +19630,7 @@
         <v>44964</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19687,7 +19687,7 @@
         <v>44964</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19744,7 +19744,7 @@
         <v>44964</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19801,7 +19801,7 @@
         <v>44964</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19858,7 +19858,7 @@
         <v>44964</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19915,7 +19915,7 @@
         <v>44964</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19977,7 +19977,7 @@
         <v>44974</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20034,7 +20034,7 @@
         <v>44979</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20091,7 +20091,7 @@
         <v>44979</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20148,7 +20148,7 @@
         <v>44981</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20205,7 +20205,7 @@
         <v>44981</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20262,7 +20262,7 @@
         <v>44981</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20319,7 +20319,7 @@
         <v>44987</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20376,7 +20376,7 @@
         <v>44988</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20433,7 +20433,7 @@
         <v>45000</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20490,7 +20490,7 @@
         <v>45002</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20547,7 +20547,7 @@
         <v>45002</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20604,7 +20604,7 @@
         <v>45006</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20661,7 +20661,7 @@
         <v>45021</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20718,7 +20718,7 @@
         <v>45029</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20775,7 +20775,7 @@
         <v>45034</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20832,7 +20832,7 @@
         <v>45036</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20889,7 +20889,7 @@
         <v>45037</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         <v>45043</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21003,7 +21003,7 @@
         <v>45043</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21060,7 +21060,7 @@
         <v>45048</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21117,7 +21117,7 @@
         <v>45053</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21174,7 +21174,7 @@
         <v>45056</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21231,7 +21231,7 @@
         <v>45062</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21288,7 +21288,7 @@
         <v>45069</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21345,7 +21345,7 @@
         <v>45069</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21402,7 +21402,7 @@
         <v>45069</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21459,7 +21459,7 @@
         <v>45069</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21516,7 +21516,7 @@
         <v>45079</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         <v>45082</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21635,7 +21635,7 @@
         <v>45082</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21697,7 +21697,7 @@
         <v>45084</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21754,7 +21754,7 @@
         <v>45086</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21811,7 +21811,7 @@
         <v>45098</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21868,7 +21868,7 @@
         <v>45099</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21925,7 +21925,7 @@
         <v>45099</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -21982,7 +21982,7 @@
         <v>45099</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22044,7 +22044,7 @@
         <v>45106</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22101,7 +22101,7 @@
         <v>45107</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22158,7 +22158,7 @@
         <v>45111</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22215,7 +22215,7 @@
         <v>45111</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22272,7 +22272,7 @@
         <v>45114</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22329,7 +22329,7 @@
         <v>45114</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         <v>45120</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22443,7 +22443,7 @@
         <v>45120</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22500,7 +22500,7 @@
         <v>45120</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22557,7 +22557,7 @@
         <v>45120</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22614,7 +22614,7 @@
         <v>45131</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22671,7 +22671,7 @@
         <v>45147</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22728,7 +22728,7 @@
         <v>45149</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22785,7 +22785,7 @@
         <v>45149</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22842,7 +22842,7 @@
         <v>45160</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22899,7 +22899,7 @@
         <v>45162</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>

--- a/Översikt SVENLJUNGA.xlsx
+++ b/Översikt SVENLJUNGA.xlsx
@@ -572,7 +572,7 @@
         <v>44579</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>44838</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>44210</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         <v>43620</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>44250</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>44613</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>44613</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1189,7 +1189,7 @@
         <v>44764</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1274,7 +1274,7 @@
         <v>43314</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1331,7 +1331,7 @@
         <v>43325</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1388,7 +1388,7 @@
         <v>43328</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1450,7 +1450,7 @@
         <v>43329</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1507,7 +1507,7 @@
         <v>43346</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1564,7 +1564,7 @@
         <v>43349</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1621,7 +1621,7 @@
         <v>43349</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1678,7 +1678,7 @@
         <v>43353</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1735,7 +1735,7 @@
         <v>43357</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
         <v>43363</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
         <v>43374</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>43381</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>43390</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
         <v>43398</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2087,7 +2087,7 @@
         <v>43402</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>43411</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         <v>43413</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>43413</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>43413</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>43419</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2434,7 +2434,7 @@
         <v>43423</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>43424</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>43425</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>43425</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         <v>43426</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         <v>43428</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>43430</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         <v>43433</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         <v>43433</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>43437</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>43437</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>43438</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>43439</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>43444</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43447</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>43447</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>43448</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>43451</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         <v>43454</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3522,7 +3522,7 @@
         <v>43454</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3584,7 +3584,7 @@
         <v>43454</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3641,7 +3641,7 @@
         <v>43454</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3698,7 +3698,7 @@
         <v>43454</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3760,7 +3760,7 @@
         <v>43454</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3817,7 +3817,7 @@
         <v>43454</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3874,7 +3874,7 @@
         <v>43455</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3931,7 +3931,7 @@
         <v>43455</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3988,7 +3988,7 @@
         <v>43455</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>43461</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>43461</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4169,7 +4169,7 @@
         <v>43462</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         <v>43473</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4283,7 +4283,7 @@
         <v>43475</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4340,7 +4340,7 @@
         <v>43486</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4397,7 +4397,7 @@
         <v>43494</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4454,7 +4454,7 @@
         <v>43495</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4511,7 +4511,7 @@
         <v>43500</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         <v>43501</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>43501</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4682,7 +4682,7 @@
         <v>43511</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>43531</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
         <v>43542</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4853,7 +4853,7 @@
         <v>43544</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         <v>43544</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4977,7 +4977,7 @@
         <v>43554</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5034,7 +5034,7 @@
         <v>43554</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>43554</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>43558</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5205,7 +5205,7 @@
         <v>43559</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5262,7 +5262,7 @@
         <v>43559</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5319,7 +5319,7 @@
         <v>43560</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5376,7 +5376,7 @@
         <v>43565</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5433,7 +5433,7 @@
         <v>43565</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5490,7 +5490,7 @@
         <v>43565</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5547,7 +5547,7 @@
         <v>43572</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5604,7 +5604,7 @@
         <v>43585</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5661,7 +5661,7 @@
         <v>43588</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5718,7 +5718,7 @@
         <v>43591</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5775,7 +5775,7 @@
         <v>43592</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5837,7 +5837,7 @@
         <v>43599</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5894,7 +5894,7 @@
         <v>43599</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5951,7 +5951,7 @@
         <v>43599</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6008,7 +6008,7 @@
         <v>43599</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6065,7 +6065,7 @@
         <v>43609</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
         <v>43609</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         <v>43620</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6241,7 +6241,7 @@
         <v>43620</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6298,7 +6298,7 @@
         <v>43626</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         <v>43626</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6412,7 +6412,7 @@
         <v>43634</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6469,7 +6469,7 @@
         <v>43644</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6526,7 +6526,7 @@
         <v>43644</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6583,7 +6583,7 @@
         <v>43644</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6640,7 +6640,7 @@
         <v>43644</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
         <v>43647</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6759,7 +6759,7 @@
         <v>43647</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6821,7 +6821,7 @@
         <v>43658</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         <v>43676</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         <v>43676</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         <v>43676</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7064,7 +7064,7 @@
         <v>43676</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7126,7 +7126,7 @@
         <v>43677</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>43697</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         <v>43699</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7307,7 +7307,7 @@
         <v>43705</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7364,7 +7364,7 @@
         <v>43706</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7421,7 +7421,7 @@
         <v>43721</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7478,7 +7478,7 @@
         <v>43728</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7535,7 +7535,7 @@
         <v>43728</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7592,7 +7592,7 @@
         <v>43733</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7649,7 +7649,7 @@
         <v>43745</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7706,7 +7706,7 @@
         <v>43758</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7763,7 +7763,7 @@
         <v>43760</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7820,7 +7820,7 @@
         <v>43761</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7877,7 +7877,7 @@
         <v>43770</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7934,7 +7934,7 @@
         <v>43771</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7991,7 +7991,7 @@
         <v>43773</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8048,7 +8048,7 @@
         <v>43780</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8105,7 +8105,7 @@
         <v>43780</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8162,7 +8162,7 @@
         <v>43782</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8219,7 +8219,7 @@
         <v>43782</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8276,7 +8276,7 @@
         <v>43788</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8333,7 +8333,7 @@
         <v>43788</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8390,7 +8390,7 @@
         <v>43788</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8447,7 +8447,7 @@
         <v>43790</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8504,7 +8504,7 @@
         <v>43791</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8561,7 +8561,7 @@
         <v>43795</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8623,7 +8623,7 @@
         <v>43798</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8680,7 +8680,7 @@
         <v>43798</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8737,7 +8737,7 @@
         <v>43798</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8794,7 +8794,7 @@
         <v>43803</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8851,7 +8851,7 @@
         <v>43803</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8908,7 +8908,7 @@
         <v>43804</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8970,7 +8970,7 @@
         <v>43817</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9032,7 +9032,7 @@
         <v>43818</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9094,7 +9094,7 @@
         <v>43832</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9151,7 +9151,7 @@
         <v>43853</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9208,7 +9208,7 @@
         <v>43867</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9265,7 +9265,7 @@
         <v>43868</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9322,7 +9322,7 @@
         <v>43868</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         <v>43868</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9436,7 +9436,7 @@
         <v>43873</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9498,7 +9498,7 @@
         <v>43892</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9555,7 +9555,7 @@
         <v>43894</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9612,7 +9612,7 @@
         <v>43900</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9669,7 +9669,7 @@
         <v>43902</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9726,7 +9726,7 @@
         <v>43902</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9783,7 +9783,7 @@
         <v>43912</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9840,7 +9840,7 @@
         <v>43914</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9897,7 +9897,7 @@
         <v>43915</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9954,7 +9954,7 @@
         <v>43915</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10011,7 +10011,7 @@
         <v>43915</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10068,7 +10068,7 @@
         <v>43920</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10125,7 +10125,7 @@
         <v>43922</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10182,7 +10182,7 @@
         <v>43923</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10239,7 +10239,7 @@
         <v>43923</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10296,7 +10296,7 @@
         <v>43933</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10353,7 +10353,7 @@
         <v>43937</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10415,7 +10415,7 @@
         <v>43949</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10472,7 +10472,7 @@
         <v>43955</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10529,7 +10529,7 @@
         <v>43962</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10586,7 +10586,7 @@
         <v>43963</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10643,7 +10643,7 @@
         <v>43965</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10700,7 +10700,7 @@
         <v>43971</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10762,7 +10762,7 @@
         <v>43983</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10824,7 +10824,7 @@
         <v>43986</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10881,7 +10881,7 @@
         <v>43986</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10938,7 +10938,7 @@
         <v>43991</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10995,7 +10995,7 @@
         <v>44008</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11052,7 +11052,7 @@
         <v>44015</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11109,7 +11109,7 @@
         <v>44018</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11166,7 +11166,7 @@
         <v>44036</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11223,7 +11223,7 @@
         <v>44036</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11280,7 +11280,7 @@
         <v>44050</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11337,7 +11337,7 @@
         <v>44053</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11394,7 +11394,7 @@
         <v>44056</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11451,7 +11451,7 @@
         <v>44061</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11508,7 +11508,7 @@
         <v>44063</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11565,7 +11565,7 @@
         <v>44063</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11622,7 +11622,7 @@
         <v>44068</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11679,7 +11679,7 @@
         <v>44069</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11736,7 +11736,7 @@
         <v>44076</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11793,7 +11793,7 @@
         <v>44082</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11850,7 +11850,7 @@
         <v>44086</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11907,7 +11907,7 @@
         <v>44086</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11964,7 +11964,7 @@
         <v>44089</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12021,7 +12021,7 @@
         <v>44109</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12078,7 +12078,7 @@
         <v>44109</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12135,7 +12135,7 @@
         <v>44116</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12192,7 +12192,7 @@
         <v>44117</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12249,7 +12249,7 @@
         <v>44127</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12306,7 +12306,7 @@
         <v>44129</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12363,7 +12363,7 @@
         <v>44130</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12420,7 +12420,7 @@
         <v>44130</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12477,7 +12477,7 @@
         <v>44130</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12534,7 +12534,7 @@
         <v>44132</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12591,7 +12591,7 @@
         <v>44133</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12648,7 +12648,7 @@
         <v>44133</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12705,7 +12705,7 @@
         <v>44138</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12762,7 +12762,7 @@
         <v>44138</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12819,7 +12819,7 @@
         <v>44154</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12876,7 +12876,7 @@
         <v>44159</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12933,7 +12933,7 @@
         <v>44159</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12990,7 +12990,7 @@
         <v>44162</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13047,7 +13047,7 @@
         <v>44165</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13104,7 +13104,7 @@
         <v>44168</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13161,7 +13161,7 @@
         <v>44173</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13223,7 +13223,7 @@
         <v>44174</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13280,7 +13280,7 @@
         <v>44174</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13337,7 +13337,7 @@
         <v>44187</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13394,7 +13394,7 @@
         <v>44194</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13451,7 +13451,7 @@
         <v>44200</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13508,7 +13508,7 @@
         <v>44209</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13565,7 +13565,7 @@
         <v>44210</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13627,7 +13627,7 @@
         <v>44210</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13689,7 +13689,7 @@
         <v>44210</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13751,7 +13751,7 @@
         <v>44218</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13808,7 +13808,7 @@
         <v>44223</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13865,7 +13865,7 @@
         <v>44224</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13922,7 +13922,7 @@
         <v>44224</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13979,7 +13979,7 @@
         <v>44224</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14036,7 +14036,7 @@
         <v>44229</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14093,7 +14093,7 @@
         <v>44242</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14150,7 +14150,7 @@
         <v>44250</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14207,7 +14207,7 @@
         <v>44250</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14264,7 +14264,7 @@
         <v>44250</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14321,7 +14321,7 @@
         <v>44258</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14378,7 +14378,7 @@
         <v>44264</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14435,7 +14435,7 @@
         <v>44320</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14492,7 +14492,7 @@
         <v>44337</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14549,7 +14549,7 @@
         <v>44337</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14606,7 +14606,7 @@
         <v>44341</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14663,7 +14663,7 @@
         <v>44344</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14725,7 +14725,7 @@
         <v>44349</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14787,7 +14787,7 @@
         <v>44350</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14849,7 +14849,7 @@
         <v>44355</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14906,7 +14906,7 @@
         <v>44357</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14968,7 +14968,7 @@
         <v>44357</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15030,7 +15030,7 @@
         <v>44357</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15092,7 +15092,7 @@
         <v>44376</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15149,7 +15149,7 @@
         <v>44391</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15206,7 +15206,7 @@
         <v>44417</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15263,7 +15263,7 @@
         <v>44418</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15320,7 +15320,7 @@
         <v>44432</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15377,7 +15377,7 @@
         <v>44432</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15434,7 +15434,7 @@
         <v>44434</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15491,7 +15491,7 @@
         <v>44440</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15548,7 +15548,7 @@
         <v>44448</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15605,7 +15605,7 @@
         <v>44491</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15662,7 +15662,7 @@
         <v>44496</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15719,7 +15719,7 @@
         <v>44496</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15776,7 +15776,7 @@
         <v>44497</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15833,7 +15833,7 @@
         <v>44497</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15890,7 +15890,7 @@
         <v>44517</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15947,7 +15947,7 @@
         <v>44517</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16004,7 +16004,7 @@
         <v>44517</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16061,7 +16061,7 @@
         <v>44517</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16118,7 +16118,7 @@
         <v>44517</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16175,7 +16175,7 @@
         <v>44530</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16237,7 +16237,7 @@
         <v>44564</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16294,7 +16294,7 @@
         <v>44579</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16351,7 +16351,7 @@
         <v>44588</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16408,7 +16408,7 @@
         <v>44588</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16465,7 +16465,7 @@
         <v>44610</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16522,7 +16522,7 @@
         <v>44613</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         <v>44615</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16636,7 +16636,7 @@
         <v>44616</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16693,7 +16693,7 @@
         <v>44616</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16750,7 +16750,7 @@
         <v>44617</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16807,7 +16807,7 @@
         <v>44641</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16869,7 +16869,7 @@
         <v>44641</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16931,7 +16931,7 @@
         <v>44641</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16993,7 +16993,7 @@
         <v>44645</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17055,7 +17055,7 @@
         <v>44656</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17112,7 +17112,7 @@
         <v>44656</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17169,7 +17169,7 @@
         <v>44656</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17226,7 +17226,7 @@
         <v>44658</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17283,7 +17283,7 @@
         <v>44659</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17340,7 +17340,7 @@
         <v>44659</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
         <v>44662</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17454,7 +17454,7 @@
         <v>44687</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17511,7 +17511,7 @@
         <v>44706</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17568,7 +17568,7 @@
         <v>44725</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17625,7 +17625,7 @@
         <v>44725</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17682,7 +17682,7 @@
         <v>44726</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17739,7 +17739,7 @@
         <v>44785</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17796,7 +17796,7 @@
         <v>44792</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17853,7 +17853,7 @@
         <v>44797</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17910,7 +17910,7 @@
         <v>44800</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17967,7 +17967,7 @@
         <v>44813</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18024,7 +18024,7 @@
         <v>44824</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18081,7 +18081,7 @@
         <v>44831</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18138,7 +18138,7 @@
         <v>44837</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18195,7 +18195,7 @@
         <v>44837</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18252,7 +18252,7 @@
         <v>44837</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18309,7 +18309,7 @@
         <v>44859</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18371,7 +18371,7 @@
         <v>44859</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18428,7 +18428,7 @@
         <v>44872</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18485,7 +18485,7 @@
         <v>44895</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18542,7 +18542,7 @@
         <v>44895</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18599,7 +18599,7 @@
         <v>44897</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18656,7 +18656,7 @@
         <v>44898</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18713,7 +18713,7 @@
         <v>44901</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18770,7 +18770,7 @@
         <v>44902</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18827,7 +18827,7 @@
         <v>44902</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18884,7 +18884,7 @@
         <v>44902</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18941,7 +18941,7 @@
         <v>44903</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18998,7 +18998,7 @@
         <v>44914</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19055,7 +19055,7 @@
         <v>44915</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19112,7 +19112,7 @@
         <v>44930</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19169,7 +19169,7 @@
         <v>44937</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19226,7 +19226,7 @@
         <v>44937</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19283,7 +19283,7 @@
         <v>44938</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19340,7 +19340,7 @@
         <v>44950</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19397,7 +19397,7 @@
         <v>44953</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19454,7 +19454,7 @@
         <v>44953</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19511,7 +19511,7 @@
         <v>44958</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19573,7 +19573,7 @@
         <v>44958</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19630,7 +19630,7 @@
         <v>44964</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19687,7 +19687,7 @@
         <v>44964</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19744,7 +19744,7 @@
         <v>44964</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19801,7 +19801,7 @@
         <v>44964</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19858,7 +19858,7 @@
         <v>44964</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19915,7 +19915,7 @@
         <v>44964</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19977,7 +19977,7 @@
         <v>44974</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20034,7 +20034,7 @@
         <v>44979</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20091,7 +20091,7 @@
         <v>44979</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20148,7 +20148,7 @@
         <v>44981</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20205,7 +20205,7 @@
         <v>44981</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20262,7 +20262,7 @@
         <v>44981</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20319,7 +20319,7 @@
         <v>44987</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20376,7 +20376,7 @@
         <v>44988</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20433,7 +20433,7 @@
         <v>45000</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20490,7 +20490,7 @@
         <v>45002</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20547,7 +20547,7 @@
         <v>45002</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20604,7 +20604,7 @@
         <v>45006</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20661,7 +20661,7 @@
         <v>45021</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20718,7 +20718,7 @@
         <v>45029</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20775,7 +20775,7 @@
         <v>45034</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20832,7 +20832,7 @@
         <v>45036</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20889,7 +20889,7 @@
         <v>45037</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         <v>45043</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21003,7 +21003,7 @@
         <v>45043</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21060,7 +21060,7 @@
         <v>45048</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21117,7 +21117,7 @@
         <v>45053</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21174,7 +21174,7 @@
         <v>45056</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21231,7 +21231,7 @@
         <v>45062</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21288,7 +21288,7 @@
         <v>45069</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21345,7 +21345,7 @@
         <v>45069</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21402,7 +21402,7 @@
         <v>45069</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21459,7 +21459,7 @@
         <v>45069</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21516,7 +21516,7 @@
         <v>45079</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         <v>45082</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21635,7 +21635,7 @@
         <v>45082</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21697,7 +21697,7 @@
         <v>45084</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21754,7 +21754,7 @@
         <v>45086</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21811,7 +21811,7 @@
         <v>45098</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21868,7 +21868,7 @@
         <v>45099</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21925,7 +21925,7 @@
         <v>45099</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -21982,7 +21982,7 @@
         <v>45099</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22044,7 +22044,7 @@
         <v>45106</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22101,7 +22101,7 @@
         <v>45107</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22158,7 +22158,7 @@
         <v>45111</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22215,7 +22215,7 @@
         <v>45111</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22272,7 +22272,7 @@
         <v>45114</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22329,7 +22329,7 @@
         <v>45114</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         <v>45120</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22443,7 +22443,7 @@
         <v>45120</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22500,7 +22500,7 @@
         <v>45120</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22557,7 +22557,7 @@
         <v>45120</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22614,7 +22614,7 @@
         <v>45131</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22671,7 +22671,7 @@
         <v>45147</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22728,7 +22728,7 @@
         <v>45149</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22785,7 +22785,7 @@
         <v>45149</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22842,7 +22842,7 @@
         <v>45160</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22899,7 +22899,7 @@
         <v>45162</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>

--- a/Översikt SVENLJUNGA.xlsx
+++ b/Översikt SVENLJUNGA.xlsx
@@ -572,7 +572,7 @@
         <v>44579</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>44838</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>44210</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         <v>43620</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>44250</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>44613</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>44613</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1189,7 +1189,7 @@
         <v>44764</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1274,7 +1274,7 @@
         <v>43314</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1331,7 +1331,7 @@
         <v>43325</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1388,7 +1388,7 @@
         <v>43328</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1450,7 +1450,7 @@
         <v>43329</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1507,7 +1507,7 @@
         <v>43346</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1564,7 +1564,7 @@
         <v>43349</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1621,7 +1621,7 @@
         <v>43349</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1678,7 +1678,7 @@
         <v>43353</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1735,7 +1735,7 @@
         <v>43357</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
         <v>43363</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
         <v>43374</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>43381</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>43390</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
         <v>43398</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2087,7 +2087,7 @@
         <v>43402</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>43411</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         <v>43413</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>43413</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>43413</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>43419</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2434,7 +2434,7 @@
         <v>43423</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>43424</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>43425</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>43425</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         <v>43426</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         <v>43428</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>43430</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         <v>43433</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         <v>43433</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>43437</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>43437</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>43438</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>43439</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>43444</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43447</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>43447</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>43448</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>43451</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         <v>43454</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3522,7 +3522,7 @@
         <v>43454</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3584,7 +3584,7 @@
         <v>43454</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3641,7 +3641,7 @@
         <v>43454</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3698,7 +3698,7 @@
         <v>43454</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3760,7 +3760,7 @@
         <v>43454</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3817,7 +3817,7 @@
         <v>43454</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3874,7 +3874,7 @@
         <v>43455</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3931,7 +3931,7 @@
         <v>43455</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3988,7 +3988,7 @@
         <v>43455</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>43461</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>43461</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4169,7 +4169,7 @@
         <v>43462</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         <v>43473</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4283,7 +4283,7 @@
         <v>43475</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4340,7 +4340,7 @@
         <v>43486</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4397,7 +4397,7 @@
         <v>43494</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4454,7 +4454,7 @@
         <v>43495</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4511,7 +4511,7 @@
         <v>43500</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         <v>43501</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>43501</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4682,7 +4682,7 @@
         <v>43511</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>43531</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
         <v>43542</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4853,7 +4853,7 @@
         <v>43544</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         <v>43544</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4977,7 +4977,7 @@
         <v>43554</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5034,7 +5034,7 @@
         <v>43554</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>43554</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>43558</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5205,7 +5205,7 @@
         <v>43559</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5262,7 +5262,7 @@
         <v>43559</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5319,7 +5319,7 @@
         <v>43560</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5376,7 +5376,7 @@
         <v>43565</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5433,7 +5433,7 @@
         <v>43565</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5490,7 +5490,7 @@
         <v>43565</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5547,7 +5547,7 @@
         <v>43572</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5604,7 +5604,7 @@
         <v>43585</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5661,7 +5661,7 @@
         <v>43588</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5718,7 +5718,7 @@
         <v>43591</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5775,7 +5775,7 @@
         <v>43592</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5837,7 +5837,7 @@
         <v>43599</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5894,7 +5894,7 @@
         <v>43599</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5951,7 +5951,7 @@
         <v>43599</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6008,7 +6008,7 @@
         <v>43599</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6065,7 +6065,7 @@
         <v>43609</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
         <v>43609</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         <v>43620</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6241,7 +6241,7 @@
         <v>43620</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6298,7 +6298,7 @@
         <v>43626</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         <v>43626</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6412,7 +6412,7 @@
         <v>43634</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6469,7 +6469,7 @@
         <v>43644</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6526,7 +6526,7 @@
         <v>43644</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6583,7 +6583,7 @@
         <v>43644</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6640,7 +6640,7 @@
         <v>43644</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
         <v>43647</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6759,7 +6759,7 @@
         <v>43647</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6821,7 +6821,7 @@
         <v>43658</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         <v>43676</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         <v>43676</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         <v>43676</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7064,7 +7064,7 @@
         <v>43676</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7126,7 +7126,7 @@
         <v>43677</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>43697</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         <v>43699</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7307,7 +7307,7 @@
         <v>43705</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7364,7 +7364,7 @@
         <v>43706</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7421,7 +7421,7 @@
         <v>43721</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7478,7 +7478,7 @@
         <v>43728</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7535,7 +7535,7 @@
         <v>43728</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7592,7 +7592,7 @@
         <v>43733</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7649,7 +7649,7 @@
         <v>43745</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7706,7 +7706,7 @@
         <v>43758</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7763,7 +7763,7 @@
         <v>43760</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7820,7 +7820,7 @@
         <v>43761</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7877,7 +7877,7 @@
         <v>43770</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7934,7 +7934,7 @@
         <v>43771</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7991,7 +7991,7 @@
         <v>43773</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8048,7 +8048,7 @@
         <v>43780</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8105,7 +8105,7 @@
         <v>43780</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8162,7 +8162,7 @@
         <v>43782</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8219,7 +8219,7 @@
         <v>43782</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8276,7 +8276,7 @@
         <v>43788</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8333,7 +8333,7 @@
         <v>43788</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8390,7 +8390,7 @@
         <v>43788</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8447,7 +8447,7 @@
         <v>43790</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8504,7 +8504,7 @@
         <v>43791</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8561,7 +8561,7 @@
         <v>43795</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8623,7 +8623,7 @@
         <v>43798</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8680,7 +8680,7 @@
         <v>43798</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8737,7 +8737,7 @@
         <v>43798</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8794,7 +8794,7 @@
         <v>43803</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8851,7 +8851,7 @@
         <v>43803</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8908,7 +8908,7 @@
         <v>43804</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8970,7 +8970,7 @@
         <v>43817</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9032,7 +9032,7 @@
         <v>43818</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9094,7 +9094,7 @@
         <v>43832</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9151,7 +9151,7 @@
         <v>43853</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9208,7 +9208,7 @@
         <v>43867</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9265,7 +9265,7 @@
         <v>43868</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9322,7 +9322,7 @@
         <v>43868</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         <v>43868</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9436,7 +9436,7 @@
         <v>43873</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9498,7 +9498,7 @@
         <v>43892</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9555,7 +9555,7 @@
         <v>43894</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9612,7 +9612,7 @@
         <v>43900</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9669,7 +9669,7 @@
         <v>43902</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9726,7 +9726,7 @@
         <v>43902</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9783,7 +9783,7 @@
         <v>43912</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9840,7 +9840,7 @@
         <v>43914</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9897,7 +9897,7 @@
         <v>43915</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9954,7 +9954,7 @@
         <v>43915</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10011,7 +10011,7 @@
         <v>43915</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10068,7 +10068,7 @@
         <v>43920</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10125,7 +10125,7 @@
         <v>43922</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10182,7 +10182,7 @@
         <v>43923</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10239,7 +10239,7 @@
         <v>43923</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10296,7 +10296,7 @@
         <v>43933</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10353,7 +10353,7 @@
         <v>43937</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10415,7 +10415,7 @@
         <v>43949</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10472,7 +10472,7 @@
         <v>43955</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10529,7 +10529,7 @@
         <v>43962</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10586,7 +10586,7 @@
         <v>43963</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10643,7 +10643,7 @@
         <v>43965</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10700,7 +10700,7 @@
         <v>43971</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10762,7 +10762,7 @@
         <v>43983</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10824,7 +10824,7 @@
         <v>43986</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10881,7 +10881,7 @@
         <v>43986</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10938,7 +10938,7 @@
         <v>43991</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10995,7 +10995,7 @@
         <v>44008</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11052,7 +11052,7 @@
         <v>44015</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11109,7 +11109,7 @@
         <v>44018</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11166,7 +11166,7 @@
         <v>44036</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11223,7 +11223,7 @@
         <v>44036</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11280,7 +11280,7 @@
         <v>44050</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11337,7 +11337,7 @@
         <v>44053</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11394,7 +11394,7 @@
         <v>44056</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11451,7 +11451,7 @@
         <v>44061</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11508,7 +11508,7 @@
         <v>44063</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11565,7 +11565,7 @@
         <v>44063</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11622,7 +11622,7 @@
         <v>44068</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11679,7 +11679,7 @@
         <v>44069</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11736,7 +11736,7 @@
         <v>44076</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11793,7 +11793,7 @@
         <v>44082</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11850,7 +11850,7 @@
         <v>44086</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11907,7 +11907,7 @@
         <v>44086</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11964,7 +11964,7 @@
         <v>44089</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12021,7 +12021,7 @@
         <v>44109</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12078,7 +12078,7 @@
         <v>44109</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12135,7 +12135,7 @@
         <v>44116</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12192,7 +12192,7 @@
         <v>44117</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12249,7 +12249,7 @@
         <v>44127</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12306,7 +12306,7 @@
         <v>44129</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12363,7 +12363,7 @@
         <v>44130</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12420,7 +12420,7 @@
         <v>44130</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12477,7 +12477,7 @@
         <v>44130</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12534,7 +12534,7 @@
         <v>44132</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12591,7 +12591,7 @@
         <v>44133</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12648,7 +12648,7 @@
         <v>44133</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12705,7 +12705,7 @@
         <v>44138</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12762,7 +12762,7 @@
         <v>44138</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12819,7 +12819,7 @@
         <v>44154</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12876,7 +12876,7 @@
         <v>44159</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12933,7 +12933,7 @@
         <v>44159</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12990,7 +12990,7 @@
         <v>44162</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13047,7 +13047,7 @@
         <v>44165</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13104,7 +13104,7 @@
         <v>44168</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13161,7 +13161,7 @@
         <v>44173</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13223,7 +13223,7 @@
         <v>44174</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13280,7 +13280,7 @@
         <v>44174</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13337,7 +13337,7 @@
         <v>44187</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13394,7 +13394,7 @@
         <v>44194</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13451,7 +13451,7 @@
         <v>44200</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13508,7 +13508,7 @@
         <v>44209</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13565,7 +13565,7 @@
         <v>44210</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13627,7 +13627,7 @@
         <v>44210</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13689,7 +13689,7 @@
         <v>44210</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13751,7 +13751,7 @@
         <v>44218</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13808,7 +13808,7 @@
         <v>44223</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13865,7 +13865,7 @@
         <v>44224</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13922,7 +13922,7 @@
         <v>44224</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13979,7 +13979,7 @@
         <v>44224</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14036,7 +14036,7 @@
         <v>44229</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14093,7 +14093,7 @@
         <v>44242</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14150,7 +14150,7 @@
         <v>44250</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14207,7 +14207,7 @@
         <v>44250</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14264,7 +14264,7 @@
         <v>44250</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14321,7 +14321,7 @@
         <v>44258</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14378,7 +14378,7 @@
         <v>44264</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14435,7 +14435,7 @@
         <v>44320</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14492,7 +14492,7 @@
         <v>44337</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14549,7 +14549,7 @@
         <v>44337</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14606,7 +14606,7 @@
         <v>44341</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14663,7 +14663,7 @@
         <v>44344</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14725,7 +14725,7 @@
         <v>44349</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14787,7 +14787,7 @@
         <v>44350</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14849,7 +14849,7 @@
         <v>44355</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14906,7 +14906,7 @@
         <v>44357</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14968,7 +14968,7 @@
         <v>44357</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15030,7 +15030,7 @@
         <v>44357</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15092,7 +15092,7 @@
         <v>44376</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15149,7 +15149,7 @@
         <v>44391</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15206,7 +15206,7 @@
         <v>44417</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15263,7 +15263,7 @@
         <v>44418</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15320,7 +15320,7 @@
         <v>44432</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15377,7 +15377,7 @@
         <v>44432</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15434,7 +15434,7 @@
         <v>44434</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15491,7 +15491,7 @@
         <v>44440</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15548,7 +15548,7 @@
         <v>44448</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15605,7 +15605,7 @@
         <v>44491</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15662,7 +15662,7 @@
         <v>44496</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15719,7 +15719,7 @@
         <v>44496</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15776,7 +15776,7 @@
         <v>44497</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15833,7 +15833,7 @@
         <v>44497</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15890,7 +15890,7 @@
         <v>44517</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15947,7 +15947,7 @@
         <v>44517</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16004,7 +16004,7 @@
         <v>44517</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16061,7 +16061,7 @@
         <v>44517</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16118,7 +16118,7 @@
         <v>44517</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16175,7 +16175,7 @@
         <v>44530</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16237,7 +16237,7 @@
         <v>44564</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16294,7 +16294,7 @@
         <v>44579</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16351,7 +16351,7 @@
         <v>44588</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16408,7 +16408,7 @@
         <v>44588</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16465,7 +16465,7 @@
         <v>44610</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16522,7 +16522,7 @@
         <v>44613</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         <v>44615</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16636,7 +16636,7 @@
         <v>44616</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16693,7 +16693,7 @@
         <v>44616</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16750,7 +16750,7 @@
         <v>44617</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16807,7 +16807,7 @@
         <v>44641</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16869,7 +16869,7 @@
         <v>44641</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16931,7 +16931,7 @@
         <v>44641</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16993,7 +16993,7 @@
         <v>44645</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17055,7 +17055,7 @@
         <v>44656</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17112,7 +17112,7 @@
         <v>44656</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17169,7 +17169,7 @@
         <v>44656</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17226,7 +17226,7 @@
         <v>44658</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17283,7 +17283,7 @@
         <v>44659</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17340,7 +17340,7 @@
         <v>44659</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
         <v>44662</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17454,7 +17454,7 @@
         <v>44687</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17511,7 +17511,7 @@
         <v>44706</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17568,7 +17568,7 @@
         <v>44725</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17625,7 +17625,7 @@
         <v>44725</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17682,7 +17682,7 @@
         <v>44726</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17739,7 +17739,7 @@
         <v>44785</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17796,7 +17796,7 @@
         <v>44792</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17853,7 +17853,7 @@
         <v>44797</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17910,7 +17910,7 @@
         <v>44800</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17967,7 +17967,7 @@
         <v>44813</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18024,7 +18024,7 @@
         <v>44824</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18081,7 +18081,7 @@
         <v>44831</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18138,7 +18138,7 @@
         <v>44837</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18195,7 +18195,7 @@
         <v>44837</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18252,7 +18252,7 @@
         <v>44837</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18309,7 +18309,7 @@
         <v>44859</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18371,7 +18371,7 @@
         <v>44859</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18428,7 +18428,7 @@
         <v>44872</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18485,7 +18485,7 @@
         <v>44895</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18542,7 +18542,7 @@
         <v>44895</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18599,7 +18599,7 @@
         <v>44897</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18656,7 +18656,7 @@
         <v>44898</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18713,7 +18713,7 @@
         <v>44901</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18770,7 +18770,7 @@
         <v>44902</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18827,7 +18827,7 @@
         <v>44902</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18884,7 +18884,7 @@
         <v>44902</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18941,7 +18941,7 @@
         <v>44903</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18998,7 +18998,7 @@
         <v>44914</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19055,7 +19055,7 @@
         <v>44915</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19112,7 +19112,7 @@
         <v>44930</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19169,7 +19169,7 @@
         <v>44937</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19226,7 +19226,7 @@
         <v>44937</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19283,7 +19283,7 @@
         <v>44938</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19340,7 +19340,7 @@
         <v>44950</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19397,7 +19397,7 @@
         <v>44953</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19454,7 +19454,7 @@
         <v>44953</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19511,7 +19511,7 @@
         <v>44958</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19573,7 +19573,7 @@
         <v>44958</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19630,7 +19630,7 @@
         <v>44964</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19687,7 +19687,7 @@
         <v>44964</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19744,7 +19744,7 @@
         <v>44964</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19801,7 +19801,7 @@
         <v>44964</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19858,7 +19858,7 @@
         <v>44964</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19915,7 +19915,7 @@
         <v>44964</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19977,7 +19977,7 @@
         <v>44974</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20034,7 +20034,7 @@
         <v>44979</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20091,7 +20091,7 @@
         <v>44979</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20148,7 +20148,7 @@
         <v>44981</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20205,7 +20205,7 @@
         <v>44981</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20262,7 +20262,7 @@
         <v>44981</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20319,7 +20319,7 @@
         <v>44987</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20376,7 +20376,7 @@
         <v>44988</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20433,7 +20433,7 @@
         <v>45000</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20490,7 +20490,7 @@
         <v>45002</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20547,7 +20547,7 @@
         <v>45002</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20604,7 +20604,7 @@
         <v>45006</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20661,7 +20661,7 @@
         <v>45021</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20718,7 +20718,7 @@
         <v>45029</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20775,7 +20775,7 @@
         <v>45034</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20832,7 +20832,7 @@
         <v>45036</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20889,7 +20889,7 @@
         <v>45037</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         <v>45043</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21003,7 +21003,7 @@
         <v>45043</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21060,7 +21060,7 @@
         <v>45048</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21117,7 +21117,7 @@
         <v>45053</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21174,7 +21174,7 @@
         <v>45056</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21231,7 +21231,7 @@
         <v>45062</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21288,7 +21288,7 @@
         <v>45069</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21345,7 +21345,7 @@
         <v>45069</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21402,7 +21402,7 @@
         <v>45069</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21459,7 +21459,7 @@
         <v>45069</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21516,7 +21516,7 @@
         <v>45079</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         <v>45082</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21635,7 +21635,7 @@
         <v>45082</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21697,7 +21697,7 @@
         <v>45084</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21754,7 +21754,7 @@
         <v>45086</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21811,7 +21811,7 @@
         <v>45098</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21868,7 +21868,7 @@
         <v>45099</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21925,7 +21925,7 @@
         <v>45099</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -21982,7 +21982,7 @@
         <v>45099</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22044,7 +22044,7 @@
         <v>45106</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22101,7 +22101,7 @@
         <v>45107</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22158,7 +22158,7 @@
         <v>45111</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22215,7 +22215,7 @@
         <v>45111</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22272,7 +22272,7 @@
         <v>45114</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22329,7 +22329,7 @@
         <v>45114</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         <v>45120</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22443,7 +22443,7 @@
         <v>45120</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22500,7 +22500,7 @@
         <v>45120</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22557,7 +22557,7 @@
         <v>45120</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22614,7 +22614,7 @@
         <v>45131</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22671,7 +22671,7 @@
         <v>45147</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22728,7 +22728,7 @@
         <v>45149</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22785,7 +22785,7 @@
         <v>45149</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22842,7 +22842,7 @@
         <v>45160</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22899,7 +22899,7 @@
         <v>45162</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>

--- a/Översikt SVENLJUNGA.xlsx
+++ b/Översikt SVENLJUNGA.xlsx
@@ -572,7 +572,7 @@
         <v>44579</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>44838</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>44210</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         <v>43620</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>44250</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>44613</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>44613</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1189,7 +1189,7 @@
         <v>44764</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1274,7 +1274,7 @@
         <v>43314</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1331,7 +1331,7 @@
         <v>43325</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1388,7 +1388,7 @@
         <v>43328</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1450,7 +1450,7 @@
         <v>43329</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1507,7 +1507,7 @@
         <v>43346</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1564,7 +1564,7 @@
         <v>43349</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1621,7 +1621,7 @@
         <v>43349</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1678,7 +1678,7 @@
         <v>43353</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1735,7 +1735,7 @@
         <v>43357</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
         <v>43363</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
         <v>43374</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>43381</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>43390</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
         <v>43398</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2087,7 +2087,7 @@
         <v>43402</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>43411</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         <v>43413</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>43413</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>43413</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>43419</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2434,7 +2434,7 @@
         <v>43423</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>43424</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>43425</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>43425</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         <v>43426</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         <v>43428</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>43430</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         <v>43433</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         <v>43433</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>43437</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>43437</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>43438</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>43439</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>43444</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43447</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>43447</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>43448</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>43451</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         <v>43454</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3522,7 +3522,7 @@
         <v>43454</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3584,7 +3584,7 @@
         <v>43454</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3641,7 +3641,7 @@
         <v>43454</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3698,7 +3698,7 @@
         <v>43454</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3760,7 +3760,7 @@
         <v>43454</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3817,7 +3817,7 @@
         <v>43454</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3874,7 +3874,7 @@
         <v>43455</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3931,7 +3931,7 @@
         <v>43455</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3988,7 +3988,7 @@
         <v>43455</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>43461</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>43461</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4169,7 +4169,7 @@
         <v>43462</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         <v>43473</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4283,7 +4283,7 @@
         <v>43475</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4340,7 +4340,7 @@
         <v>43486</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4397,7 +4397,7 @@
         <v>43494</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4454,7 +4454,7 @@
         <v>43495</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4511,7 +4511,7 @@
         <v>43500</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         <v>43501</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>43501</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4682,7 +4682,7 @@
         <v>43511</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>43531</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
         <v>43542</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4853,7 +4853,7 @@
         <v>43544</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         <v>43544</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4977,7 +4977,7 @@
         <v>43554</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5034,7 +5034,7 @@
         <v>43554</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>43554</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>43558</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5205,7 +5205,7 @@
         <v>43559</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5262,7 +5262,7 @@
         <v>43559</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5319,7 +5319,7 @@
         <v>43560</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5376,7 +5376,7 @@
         <v>43565</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5433,7 +5433,7 @@
         <v>43565</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5490,7 +5490,7 @@
         <v>43565</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5547,7 +5547,7 @@
         <v>43572</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5604,7 +5604,7 @@
         <v>43585</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5661,7 +5661,7 @@
         <v>43588</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5718,7 +5718,7 @@
         <v>43591</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5775,7 +5775,7 @@
         <v>43592</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5837,7 +5837,7 @@
         <v>43599</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5894,7 +5894,7 @@
         <v>43599</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5951,7 +5951,7 @@
         <v>43599</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6008,7 +6008,7 @@
         <v>43599</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6065,7 +6065,7 @@
         <v>43609</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
         <v>43609</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         <v>43620</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6241,7 +6241,7 @@
         <v>43620</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6298,7 +6298,7 @@
         <v>43626</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         <v>43626</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6412,7 +6412,7 @@
         <v>43634</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6469,7 +6469,7 @@
         <v>43644</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6526,7 +6526,7 @@
         <v>43644</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6583,7 +6583,7 @@
         <v>43644</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6640,7 +6640,7 @@
         <v>43644</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
         <v>43647</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6759,7 +6759,7 @@
         <v>43647</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6821,7 +6821,7 @@
         <v>43658</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         <v>43676</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         <v>43676</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         <v>43676</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7064,7 +7064,7 @@
         <v>43676</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7126,7 +7126,7 @@
         <v>43677</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>43697</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         <v>43699</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7307,7 +7307,7 @@
         <v>43705</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7364,7 +7364,7 @@
         <v>43706</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7421,7 +7421,7 @@
         <v>43721</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7478,7 +7478,7 @@
         <v>43728</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7535,7 +7535,7 @@
         <v>43728</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7592,7 +7592,7 @@
         <v>43733</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7649,7 +7649,7 @@
         <v>43745</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7706,7 +7706,7 @@
         <v>43758</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7763,7 +7763,7 @@
         <v>43760</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7820,7 +7820,7 @@
         <v>43761</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7877,7 +7877,7 @@
         <v>43770</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7934,7 +7934,7 @@
         <v>43771</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7991,7 +7991,7 @@
         <v>43773</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8048,7 +8048,7 @@
         <v>43780</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8105,7 +8105,7 @@
         <v>43780</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8162,7 +8162,7 @@
         <v>43782</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8219,7 +8219,7 @@
         <v>43782</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8276,7 +8276,7 @@
         <v>43788</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8333,7 +8333,7 @@
         <v>43788</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8390,7 +8390,7 @@
         <v>43788</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8447,7 +8447,7 @@
         <v>43790</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8504,7 +8504,7 @@
         <v>43791</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8561,7 +8561,7 @@
         <v>43795</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8623,7 +8623,7 @@
         <v>43798</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8680,7 +8680,7 @@
         <v>43798</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8737,7 +8737,7 @@
         <v>43798</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8794,7 +8794,7 @@
         <v>43803</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8851,7 +8851,7 @@
         <v>43803</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8908,7 +8908,7 @@
         <v>43804</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8970,7 +8970,7 @@
         <v>43817</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9032,7 +9032,7 @@
         <v>43818</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9094,7 +9094,7 @@
         <v>43832</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9151,7 +9151,7 @@
         <v>43853</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9208,7 +9208,7 @@
         <v>43867</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9265,7 +9265,7 @@
         <v>43868</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9322,7 +9322,7 @@
         <v>43868</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         <v>43868</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9436,7 +9436,7 @@
         <v>43873</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9498,7 +9498,7 @@
         <v>43892</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9555,7 +9555,7 @@
         <v>43894</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9612,7 +9612,7 @@
         <v>43900</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9669,7 +9669,7 @@
         <v>43902</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9726,7 +9726,7 @@
         <v>43902</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9783,7 +9783,7 @@
         <v>43912</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9840,7 +9840,7 @@
         <v>43914</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9897,7 +9897,7 @@
         <v>43915</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9954,7 +9954,7 @@
         <v>43915</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10011,7 +10011,7 @@
         <v>43915</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10068,7 +10068,7 @@
         <v>43920</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10125,7 +10125,7 @@
         <v>43922</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10182,7 +10182,7 @@
         <v>43923</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10239,7 +10239,7 @@
         <v>43923</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10296,7 +10296,7 @@
         <v>43933</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10353,7 +10353,7 @@
         <v>43937</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10415,7 +10415,7 @@
         <v>43949</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10472,7 +10472,7 @@
         <v>43955</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10529,7 +10529,7 @@
         <v>43962</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10586,7 +10586,7 @@
         <v>43963</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10643,7 +10643,7 @@
         <v>43965</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10700,7 +10700,7 @@
         <v>43971</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10762,7 +10762,7 @@
         <v>43983</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10824,7 +10824,7 @@
         <v>43986</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10881,7 +10881,7 @@
         <v>43986</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10938,7 +10938,7 @@
         <v>43991</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10995,7 +10995,7 @@
         <v>44008</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11052,7 +11052,7 @@
         <v>44015</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11109,7 +11109,7 @@
         <v>44018</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11166,7 +11166,7 @@
         <v>44036</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11223,7 +11223,7 @@
         <v>44036</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11280,7 +11280,7 @@
         <v>44050</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11337,7 +11337,7 @@
         <v>44053</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11394,7 +11394,7 @@
         <v>44056</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11451,7 +11451,7 @@
         <v>44061</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11508,7 +11508,7 @@
         <v>44063</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11565,7 +11565,7 @@
         <v>44063</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11622,7 +11622,7 @@
         <v>44068</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11679,7 +11679,7 @@
         <v>44069</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11736,7 +11736,7 @@
         <v>44076</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11793,7 +11793,7 @@
         <v>44082</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11850,7 +11850,7 @@
         <v>44086</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11907,7 +11907,7 @@
         <v>44086</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11964,7 +11964,7 @@
         <v>44089</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12021,7 +12021,7 @@
         <v>44109</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12078,7 +12078,7 @@
         <v>44109</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12135,7 +12135,7 @@
         <v>44116</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12192,7 +12192,7 @@
         <v>44117</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12249,7 +12249,7 @@
         <v>44127</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12306,7 +12306,7 @@
         <v>44129</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12363,7 +12363,7 @@
         <v>44130</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12420,7 +12420,7 @@
         <v>44130</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12477,7 +12477,7 @@
         <v>44130</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12534,7 +12534,7 @@
         <v>44132</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12591,7 +12591,7 @@
         <v>44133</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12648,7 +12648,7 @@
         <v>44133</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12705,7 +12705,7 @@
         <v>44138</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12762,7 +12762,7 @@
         <v>44138</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12819,7 +12819,7 @@
         <v>44154</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12876,7 +12876,7 @@
         <v>44159</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12933,7 +12933,7 @@
         <v>44159</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12990,7 +12990,7 @@
         <v>44162</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13047,7 +13047,7 @@
         <v>44165</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13104,7 +13104,7 @@
         <v>44168</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13161,7 +13161,7 @@
         <v>44173</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13223,7 +13223,7 @@
         <v>44174</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13280,7 +13280,7 @@
         <v>44174</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13337,7 +13337,7 @@
         <v>44187</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13394,7 +13394,7 @@
         <v>44194</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13451,7 +13451,7 @@
         <v>44200</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13508,7 +13508,7 @@
         <v>44209</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13565,7 +13565,7 @@
         <v>44210</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13627,7 +13627,7 @@
         <v>44210</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13689,7 +13689,7 @@
         <v>44210</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13751,7 +13751,7 @@
         <v>44218</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13808,7 +13808,7 @@
         <v>44223</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13865,7 +13865,7 @@
         <v>44224</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13922,7 +13922,7 @@
         <v>44224</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13979,7 +13979,7 @@
         <v>44224</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14036,7 +14036,7 @@
         <v>44229</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14093,7 +14093,7 @@
         <v>44242</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14150,7 +14150,7 @@
         <v>44250</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14207,7 +14207,7 @@
         <v>44250</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14264,7 +14264,7 @@
         <v>44250</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14321,7 +14321,7 @@
         <v>44258</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14378,7 +14378,7 @@
         <v>44264</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14435,7 +14435,7 @@
         <v>44320</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14492,7 +14492,7 @@
         <v>44337</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14549,7 +14549,7 @@
         <v>44337</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14606,7 +14606,7 @@
         <v>44341</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14663,7 +14663,7 @@
         <v>44344</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14725,7 +14725,7 @@
         <v>44349</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14787,7 +14787,7 @@
         <v>44350</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14849,7 +14849,7 @@
         <v>44355</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14906,7 +14906,7 @@
         <v>44357</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14968,7 +14968,7 @@
         <v>44357</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15030,7 +15030,7 @@
         <v>44357</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15092,7 +15092,7 @@
         <v>44376</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15149,7 +15149,7 @@
         <v>44391</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15206,7 +15206,7 @@
         <v>44417</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15263,7 +15263,7 @@
         <v>44418</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15320,7 +15320,7 @@
         <v>44432</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15377,7 +15377,7 @@
         <v>44432</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15434,7 +15434,7 @@
         <v>44434</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15491,7 +15491,7 @@
         <v>44440</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15548,7 +15548,7 @@
         <v>44448</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15605,7 +15605,7 @@
         <v>44491</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15662,7 +15662,7 @@
         <v>44496</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15719,7 +15719,7 @@
         <v>44496</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15776,7 +15776,7 @@
         <v>44497</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15833,7 +15833,7 @@
         <v>44497</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15890,7 +15890,7 @@
         <v>44517</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15947,7 +15947,7 @@
         <v>44517</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16004,7 +16004,7 @@
         <v>44517</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16061,7 +16061,7 @@
         <v>44517</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16118,7 +16118,7 @@
         <v>44517</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16175,7 +16175,7 @@
         <v>44530</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16237,7 +16237,7 @@
         <v>44564</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16294,7 +16294,7 @@
         <v>44579</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16351,7 +16351,7 @@
         <v>44588</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16408,7 +16408,7 @@
         <v>44588</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16465,7 +16465,7 @@
         <v>44610</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16522,7 +16522,7 @@
         <v>44613</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         <v>44615</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16636,7 +16636,7 @@
         <v>44616</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16693,7 +16693,7 @@
         <v>44616</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16750,7 +16750,7 @@
         <v>44617</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16807,7 +16807,7 @@
         <v>44641</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16869,7 +16869,7 @@
         <v>44641</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16931,7 +16931,7 @@
         <v>44641</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16993,7 +16993,7 @@
         <v>44645</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17055,7 +17055,7 @@
         <v>44656</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17112,7 +17112,7 @@
         <v>44656</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17169,7 +17169,7 @@
         <v>44656</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17226,7 +17226,7 @@
         <v>44658</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17283,7 +17283,7 @@
         <v>44659</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17340,7 +17340,7 @@
         <v>44659</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
         <v>44662</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17454,7 +17454,7 @@
         <v>44687</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17511,7 +17511,7 @@
         <v>44706</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17568,7 +17568,7 @@
         <v>44725</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17625,7 +17625,7 @@
         <v>44725</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17682,7 +17682,7 @@
         <v>44726</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17739,7 +17739,7 @@
         <v>44785</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17796,7 +17796,7 @@
         <v>44792</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17853,7 +17853,7 @@
         <v>44797</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17910,7 +17910,7 @@
         <v>44800</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17967,7 +17967,7 @@
         <v>44813</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18024,7 +18024,7 @@
         <v>44824</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18081,7 +18081,7 @@
         <v>44831</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18138,7 +18138,7 @@
         <v>44837</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18195,7 +18195,7 @@
         <v>44837</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18252,7 +18252,7 @@
         <v>44837</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18309,7 +18309,7 @@
         <v>44859</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18371,7 +18371,7 @@
         <v>44859</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18428,7 +18428,7 @@
         <v>44872</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18485,7 +18485,7 @@
         <v>44895</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18542,7 +18542,7 @@
         <v>44895</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18599,7 +18599,7 @@
         <v>44897</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18656,7 +18656,7 @@
         <v>44898</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18713,7 +18713,7 @@
         <v>44901</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18770,7 +18770,7 @@
         <v>44902</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18827,7 +18827,7 @@
         <v>44902</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18884,7 +18884,7 @@
         <v>44902</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18941,7 +18941,7 @@
         <v>44903</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18998,7 +18998,7 @@
         <v>44914</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19055,7 +19055,7 @@
         <v>44915</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19112,7 +19112,7 @@
         <v>44930</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19169,7 +19169,7 @@
         <v>44937</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19226,7 +19226,7 @@
         <v>44937</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19283,7 +19283,7 @@
         <v>44938</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19340,7 +19340,7 @@
         <v>44950</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19397,7 +19397,7 @@
         <v>44953</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19454,7 +19454,7 @@
         <v>44953</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19511,7 +19511,7 @@
         <v>44958</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19573,7 +19573,7 @@
         <v>44958</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19630,7 +19630,7 @@
         <v>44964</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19687,7 +19687,7 @@
         <v>44964</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19744,7 +19744,7 @@
         <v>44964</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19801,7 +19801,7 @@
         <v>44964</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19858,7 +19858,7 @@
         <v>44964</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19915,7 +19915,7 @@
         <v>44964</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19977,7 +19977,7 @@
         <v>44974</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20034,7 +20034,7 @@
         <v>44979</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20091,7 +20091,7 @@
         <v>44979</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20148,7 +20148,7 @@
         <v>44981</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20205,7 +20205,7 @@
         <v>44981</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20262,7 +20262,7 @@
         <v>44981</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20319,7 +20319,7 @@
         <v>44987</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20376,7 +20376,7 @@
         <v>44988</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20433,7 +20433,7 @@
         <v>45000</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20490,7 +20490,7 @@
         <v>45002</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20547,7 +20547,7 @@
         <v>45002</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20604,7 +20604,7 @@
         <v>45006</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20661,7 +20661,7 @@
         <v>45021</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20718,7 +20718,7 @@
         <v>45029</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20775,7 +20775,7 @@
         <v>45034</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20832,7 +20832,7 @@
         <v>45036</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20889,7 +20889,7 @@
         <v>45037</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         <v>45043</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21003,7 +21003,7 @@
         <v>45043</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21060,7 +21060,7 @@
         <v>45048</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21117,7 +21117,7 @@
         <v>45053</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21174,7 +21174,7 @@
         <v>45056</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21231,7 +21231,7 @@
         <v>45062</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21288,7 +21288,7 @@
         <v>45069</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21345,7 +21345,7 @@
         <v>45069</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21402,7 +21402,7 @@
         <v>45069</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21459,7 +21459,7 @@
         <v>45069</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21516,7 +21516,7 @@
         <v>45079</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         <v>45082</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21635,7 +21635,7 @@
         <v>45082</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21697,7 +21697,7 @@
         <v>45084</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21754,7 +21754,7 @@
         <v>45086</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21811,7 +21811,7 @@
         <v>45098</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21868,7 +21868,7 @@
         <v>45099</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21925,7 +21925,7 @@
         <v>45099</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -21982,7 +21982,7 @@
         <v>45099</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22044,7 +22044,7 @@
         <v>45106</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22101,7 +22101,7 @@
         <v>45107</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22158,7 +22158,7 @@
         <v>45111</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22215,7 +22215,7 @@
         <v>45111</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22272,7 +22272,7 @@
         <v>45114</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22329,7 +22329,7 @@
         <v>45114</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         <v>45120</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22443,7 +22443,7 @@
         <v>45120</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22500,7 +22500,7 @@
         <v>45120</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22557,7 +22557,7 @@
         <v>45120</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22614,7 +22614,7 @@
         <v>45131</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22671,7 +22671,7 @@
         <v>45147</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22728,7 +22728,7 @@
         <v>45149</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22785,7 +22785,7 @@
         <v>45149</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22842,7 +22842,7 @@
         <v>45160</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22899,7 +22899,7 @@
         <v>45162</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>

--- a/Översikt SVENLJUNGA.xlsx
+++ b/Översikt SVENLJUNGA.xlsx
@@ -572,7 +572,7 @@
         <v>44579</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>44838</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>44210</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         <v>43620</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>44250</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>44613</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>44613</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1189,7 +1189,7 @@
         <v>44764</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1274,7 +1274,7 @@
         <v>43314</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1331,7 +1331,7 @@
         <v>43325</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1388,7 +1388,7 @@
         <v>43328</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1450,7 +1450,7 @@
         <v>43329</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1507,7 +1507,7 @@
         <v>43346</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1564,7 +1564,7 @@
         <v>43349</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1621,7 +1621,7 @@
         <v>43349</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1678,7 +1678,7 @@
         <v>43353</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1735,7 +1735,7 @@
         <v>43357</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
         <v>43363</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
         <v>43374</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>43381</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>43390</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
         <v>43398</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2087,7 +2087,7 @@
         <v>43402</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>43411</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         <v>43413</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>43413</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>43413</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>43419</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2434,7 +2434,7 @@
         <v>43423</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>43424</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>43425</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>43425</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         <v>43426</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         <v>43428</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>43430</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         <v>43433</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         <v>43433</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>43437</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>43437</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>43438</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>43439</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>43444</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43447</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>43447</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>43448</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>43451</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         <v>43454</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3522,7 +3522,7 @@
         <v>43454</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3584,7 +3584,7 @@
         <v>43454</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3641,7 +3641,7 @@
         <v>43454</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3698,7 +3698,7 @@
         <v>43454</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3760,7 +3760,7 @@
         <v>43454</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3817,7 +3817,7 @@
         <v>43454</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3874,7 +3874,7 @@
         <v>43455</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3931,7 +3931,7 @@
         <v>43455</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3988,7 +3988,7 @@
         <v>43455</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>43461</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>43461</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4169,7 +4169,7 @@
         <v>43462</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         <v>43473</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4283,7 +4283,7 @@
         <v>43475</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4340,7 +4340,7 @@
         <v>43486</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4397,7 +4397,7 @@
         <v>43494</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4454,7 +4454,7 @@
         <v>43495</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4511,7 +4511,7 @@
         <v>43500</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         <v>43501</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>43501</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4682,7 +4682,7 @@
         <v>43511</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>43531</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
         <v>43542</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4853,7 +4853,7 @@
         <v>43544</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         <v>43544</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4977,7 +4977,7 @@
         <v>43554</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5034,7 +5034,7 @@
         <v>43554</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>43554</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>43558</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5205,7 +5205,7 @@
         <v>43559</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5262,7 +5262,7 @@
         <v>43559</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5319,7 +5319,7 @@
         <v>43560</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5376,7 +5376,7 @@
         <v>43565</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5433,7 +5433,7 @@
         <v>43565</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5490,7 +5490,7 @@
         <v>43565</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5547,7 +5547,7 @@
         <v>43572</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5604,7 +5604,7 @@
         <v>43585</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5661,7 +5661,7 @@
         <v>43588</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5718,7 +5718,7 @@
         <v>43591</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5775,7 +5775,7 @@
         <v>43592</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5837,7 +5837,7 @@
         <v>43599</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5894,7 +5894,7 @@
         <v>43599</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5951,7 +5951,7 @@
         <v>43599</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6008,7 +6008,7 @@
         <v>43599</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6065,7 +6065,7 @@
         <v>43609</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
         <v>43609</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         <v>43620</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6241,7 +6241,7 @@
         <v>43620</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6298,7 +6298,7 @@
         <v>43626</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         <v>43626</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6412,7 +6412,7 @@
         <v>43634</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6469,7 +6469,7 @@
         <v>43644</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6526,7 +6526,7 @@
         <v>43644</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6583,7 +6583,7 @@
         <v>43644</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6640,7 +6640,7 @@
         <v>43644</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
         <v>43647</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6759,7 +6759,7 @@
         <v>43647</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6821,7 +6821,7 @@
         <v>43658</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         <v>43676</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         <v>43676</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         <v>43676</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7064,7 +7064,7 @@
         <v>43676</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7126,7 +7126,7 @@
         <v>43677</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>43697</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         <v>43699</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7307,7 +7307,7 @@
         <v>43705</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7364,7 +7364,7 @@
         <v>43706</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7421,7 +7421,7 @@
         <v>43721</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7478,7 +7478,7 @@
         <v>43728</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7535,7 +7535,7 @@
         <v>43728</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7592,7 +7592,7 @@
         <v>43733</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7649,7 +7649,7 @@
         <v>43745</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7706,7 +7706,7 @@
         <v>43758</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7763,7 +7763,7 @@
         <v>43760</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7820,7 +7820,7 @@
         <v>43761</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7877,7 +7877,7 @@
         <v>43770</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7934,7 +7934,7 @@
         <v>43771</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7991,7 +7991,7 @@
         <v>43773</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8048,7 +8048,7 @@
         <v>43780</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8105,7 +8105,7 @@
         <v>43780</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8162,7 +8162,7 @@
         <v>43782</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8219,7 +8219,7 @@
         <v>43782</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8276,7 +8276,7 @@
         <v>43788</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8333,7 +8333,7 @@
         <v>43788</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8390,7 +8390,7 @@
         <v>43788</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8447,7 +8447,7 @@
         <v>43790</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8504,7 +8504,7 @@
         <v>43791</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8561,7 +8561,7 @@
         <v>43795</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8623,7 +8623,7 @@
         <v>43798</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8680,7 +8680,7 @@
         <v>43798</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8737,7 +8737,7 @@
         <v>43798</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8794,7 +8794,7 @@
         <v>43803</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8851,7 +8851,7 @@
         <v>43803</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8908,7 +8908,7 @@
         <v>43804</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8970,7 +8970,7 @@
         <v>43817</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9032,7 +9032,7 @@
         <v>43818</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9094,7 +9094,7 @@
         <v>43832</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9151,7 +9151,7 @@
         <v>43853</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9208,7 +9208,7 @@
         <v>43867</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9265,7 +9265,7 @@
         <v>43868</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9322,7 +9322,7 @@
         <v>43868</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         <v>43868</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9436,7 +9436,7 @@
         <v>43873</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9498,7 +9498,7 @@
         <v>43892</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9555,7 +9555,7 @@
         <v>43894</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9612,7 +9612,7 @@
         <v>43900</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9669,7 +9669,7 @@
         <v>43902</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9726,7 +9726,7 @@
         <v>43902</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9783,7 +9783,7 @@
         <v>43912</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9840,7 +9840,7 @@
         <v>43914</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9897,7 +9897,7 @@
         <v>43915</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9954,7 +9954,7 @@
         <v>43915</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10011,7 +10011,7 @@
         <v>43915</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10068,7 +10068,7 @@
         <v>43920</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10125,7 +10125,7 @@
         <v>43922</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10182,7 +10182,7 @@
         <v>43923</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10239,7 +10239,7 @@
         <v>43923</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10296,7 +10296,7 @@
         <v>43933</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10353,7 +10353,7 @@
         <v>43937</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10415,7 +10415,7 @@
         <v>43949</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10472,7 +10472,7 @@
         <v>43955</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10529,7 +10529,7 @@
         <v>43962</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10586,7 +10586,7 @@
         <v>43963</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10643,7 +10643,7 @@
         <v>43965</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10700,7 +10700,7 @@
         <v>43971</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10762,7 +10762,7 @@
         <v>43983</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10824,7 +10824,7 @@
         <v>43986</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10881,7 +10881,7 @@
         <v>43986</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10938,7 +10938,7 @@
         <v>43991</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10995,7 +10995,7 @@
         <v>44008</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11052,7 +11052,7 @@
         <v>44015</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11109,7 +11109,7 @@
         <v>44018</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11166,7 +11166,7 @@
         <v>44036</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11223,7 +11223,7 @@
         <v>44036</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11280,7 +11280,7 @@
         <v>44050</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11337,7 +11337,7 @@
         <v>44053</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11394,7 +11394,7 @@
         <v>44056</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11451,7 +11451,7 @@
         <v>44061</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11508,7 +11508,7 @@
         <v>44063</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11565,7 +11565,7 @@
         <v>44063</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11622,7 +11622,7 @@
         <v>44068</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11679,7 +11679,7 @@
         <v>44069</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11736,7 +11736,7 @@
         <v>44076</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11793,7 +11793,7 @@
         <v>44082</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11850,7 +11850,7 @@
         <v>44086</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11907,7 +11907,7 @@
         <v>44086</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11964,7 +11964,7 @@
         <v>44089</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12021,7 +12021,7 @@
         <v>44109</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12078,7 +12078,7 @@
         <v>44109</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12135,7 +12135,7 @@
         <v>44116</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12192,7 +12192,7 @@
         <v>44117</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12249,7 +12249,7 @@
         <v>44127</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12306,7 +12306,7 @@
         <v>44129</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12363,7 +12363,7 @@
         <v>44130</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12420,7 +12420,7 @@
         <v>44130</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12477,7 +12477,7 @@
         <v>44130</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12534,7 +12534,7 @@
         <v>44132</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12591,7 +12591,7 @@
         <v>44133</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12648,7 +12648,7 @@
         <v>44133</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12705,7 +12705,7 @@
         <v>44138</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12762,7 +12762,7 @@
         <v>44138</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12819,7 +12819,7 @@
         <v>44154</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12876,7 +12876,7 @@
         <v>44159</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12933,7 +12933,7 @@
         <v>44159</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12990,7 +12990,7 @@
         <v>44162</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13047,7 +13047,7 @@
         <v>44165</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13104,7 +13104,7 @@
         <v>44168</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13161,7 +13161,7 @@
         <v>44173</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13223,7 +13223,7 @@
         <v>44174</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13280,7 +13280,7 @@
         <v>44174</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13337,7 +13337,7 @@
         <v>44187</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13394,7 +13394,7 @@
         <v>44194</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13451,7 +13451,7 @@
         <v>44200</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13508,7 +13508,7 @@
         <v>44209</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13565,7 +13565,7 @@
         <v>44210</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13627,7 +13627,7 @@
         <v>44210</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13689,7 +13689,7 @@
         <v>44210</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13751,7 +13751,7 @@
         <v>44218</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13808,7 +13808,7 @@
         <v>44223</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13865,7 +13865,7 @@
         <v>44224</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13922,7 +13922,7 @@
         <v>44224</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13979,7 +13979,7 @@
         <v>44224</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14036,7 +14036,7 @@
         <v>44229</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14093,7 +14093,7 @@
         <v>44242</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14150,7 +14150,7 @@
         <v>44250</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14207,7 +14207,7 @@
         <v>44250</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14264,7 +14264,7 @@
         <v>44250</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14321,7 +14321,7 @@
         <v>44258</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14378,7 +14378,7 @@
         <v>44264</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14435,7 +14435,7 @@
         <v>44320</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14492,7 +14492,7 @@
         <v>44337</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14549,7 +14549,7 @@
         <v>44337</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14606,7 +14606,7 @@
         <v>44341</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14663,7 +14663,7 @@
         <v>44344</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14725,7 +14725,7 @@
         <v>44349</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14787,7 +14787,7 @@
         <v>44350</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14849,7 +14849,7 @@
         <v>44355</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14906,7 +14906,7 @@
         <v>44357</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14968,7 +14968,7 @@
         <v>44357</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15030,7 +15030,7 @@
         <v>44357</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15092,7 +15092,7 @@
         <v>44376</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15149,7 +15149,7 @@
         <v>44391</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15206,7 +15206,7 @@
         <v>44417</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15263,7 +15263,7 @@
         <v>44418</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15320,7 +15320,7 @@
         <v>44432</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15377,7 +15377,7 @@
         <v>44432</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15434,7 +15434,7 @@
         <v>44434</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15491,7 +15491,7 @@
         <v>44440</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15548,7 +15548,7 @@
         <v>44448</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15605,7 +15605,7 @@
         <v>44491</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15662,7 +15662,7 @@
         <v>44496</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15719,7 +15719,7 @@
         <v>44496</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15776,7 +15776,7 @@
         <v>44497</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15833,7 +15833,7 @@
         <v>44497</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15890,7 +15890,7 @@
         <v>44517</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15947,7 +15947,7 @@
         <v>44517</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16004,7 +16004,7 @@
         <v>44517</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16061,7 +16061,7 @@
         <v>44517</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16118,7 +16118,7 @@
         <v>44517</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16175,7 +16175,7 @@
         <v>44530</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16237,7 +16237,7 @@
         <v>44564</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16294,7 +16294,7 @@
         <v>44579</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16351,7 +16351,7 @@
         <v>44588</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16408,7 +16408,7 @@
         <v>44588</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16465,7 +16465,7 @@
         <v>44610</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16522,7 +16522,7 @@
         <v>44613</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         <v>44615</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16636,7 +16636,7 @@
         <v>44616</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16693,7 +16693,7 @@
         <v>44616</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16750,7 +16750,7 @@
         <v>44617</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16807,7 +16807,7 @@
         <v>44641</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16869,7 +16869,7 @@
         <v>44641</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16931,7 +16931,7 @@
         <v>44641</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16993,7 +16993,7 @@
         <v>44645</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17055,7 +17055,7 @@
         <v>44656</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17112,7 +17112,7 @@
         <v>44656</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17169,7 +17169,7 @@
         <v>44656</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17226,7 +17226,7 @@
         <v>44658</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17283,7 +17283,7 @@
         <v>44659</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17340,7 +17340,7 @@
         <v>44659</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
         <v>44662</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17454,7 +17454,7 @@
         <v>44687</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17511,7 +17511,7 @@
         <v>44706</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17568,7 +17568,7 @@
         <v>44725</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17625,7 +17625,7 @@
         <v>44725</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17682,7 +17682,7 @@
         <v>44726</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17739,7 +17739,7 @@
         <v>44785</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17796,7 +17796,7 @@
         <v>44792</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17853,7 +17853,7 @@
         <v>44797</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17910,7 +17910,7 @@
         <v>44800</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17967,7 +17967,7 @@
         <v>44813</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18024,7 +18024,7 @@
         <v>44824</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18081,7 +18081,7 @@
         <v>44831</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18138,7 +18138,7 @@
         <v>44837</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18195,7 +18195,7 @@
         <v>44837</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18252,7 +18252,7 @@
         <v>44837</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18309,7 +18309,7 @@
         <v>44859</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18371,7 +18371,7 @@
         <v>44859</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18428,7 +18428,7 @@
         <v>44872</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18485,7 +18485,7 @@
         <v>44895</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18542,7 +18542,7 @@
         <v>44895</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18599,7 +18599,7 @@
         <v>44897</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18656,7 +18656,7 @@
         <v>44898</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18713,7 +18713,7 @@
         <v>44901</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18770,7 +18770,7 @@
         <v>44902</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18827,7 +18827,7 @@
         <v>44902</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18884,7 +18884,7 @@
         <v>44902</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18941,7 +18941,7 @@
         <v>44903</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18998,7 +18998,7 @@
         <v>44914</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19055,7 +19055,7 @@
         <v>44915</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19112,7 +19112,7 @@
         <v>44930</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19169,7 +19169,7 @@
         <v>44937</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19226,7 +19226,7 @@
         <v>44937</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19283,7 +19283,7 @@
         <v>44938</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19340,7 +19340,7 @@
         <v>44950</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19397,7 +19397,7 @@
         <v>44953</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19454,7 +19454,7 @@
         <v>44953</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19511,7 +19511,7 @@
         <v>44958</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19573,7 +19573,7 @@
         <v>44958</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19630,7 +19630,7 @@
         <v>44964</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19687,7 +19687,7 @@
         <v>44964</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19744,7 +19744,7 @@
         <v>44964</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19801,7 +19801,7 @@
         <v>44964</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19858,7 +19858,7 @@
         <v>44964</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19915,7 +19915,7 @@
         <v>44964</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19977,7 +19977,7 @@
         <v>44974</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20034,7 +20034,7 @@
         <v>44979</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20091,7 +20091,7 @@
         <v>44979</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20148,7 +20148,7 @@
         <v>44981</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20205,7 +20205,7 @@
         <v>44981</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20262,7 +20262,7 @@
         <v>44981</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20319,7 +20319,7 @@
         <v>44987</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20376,7 +20376,7 @@
         <v>44988</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20433,7 +20433,7 @@
         <v>45000</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20490,7 +20490,7 @@
         <v>45002</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20547,7 +20547,7 @@
         <v>45002</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20604,7 +20604,7 @@
         <v>45006</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20661,7 +20661,7 @@
         <v>45021</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20718,7 +20718,7 @@
         <v>45029</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20775,7 +20775,7 @@
         <v>45034</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20832,7 +20832,7 @@
         <v>45036</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20889,7 +20889,7 @@
         <v>45037</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         <v>45043</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21003,7 +21003,7 @@
         <v>45043</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21060,7 +21060,7 @@
         <v>45048</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21117,7 +21117,7 @@
         <v>45053</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21174,7 +21174,7 @@
         <v>45056</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21231,7 +21231,7 @@
         <v>45062</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21288,7 +21288,7 @@
         <v>45069</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21345,7 +21345,7 @@
         <v>45069</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21402,7 +21402,7 @@
         <v>45069</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21459,7 +21459,7 @@
         <v>45069</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21516,7 +21516,7 @@
         <v>45079</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         <v>45082</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21635,7 +21635,7 @@
         <v>45082</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21697,7 +21697,7 @@
         <v>45084</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21754,7 +21754,7 @@
         <v>45086</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21811,7 +21811,7 @@
         <v>45098</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21868,7 +21868,7 @@
         <v>45099</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21925,7 +21925,7 @@
         <v>45099</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -21982,7 +21982,7 @@
         <v>45099</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22044,7 +22044,7 @@
         <v>45106</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22101,7 +22101,7 @@
         <v>45107</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22158,7 +22158,7 @@
         <v>45111</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22215,7 +22215,7 @@
         <v>45111</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22272,7 +22272,7 @@
         <v>45114</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22329,7 +22329,7 @@
         <v>45114</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         <v>45120</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22443,7 +22443,7 @@
         <v>45120</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22500,7 +22500,7 @@
         <v>45120</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22557,7 +22557,7 @@
         <v>45120</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22614,7 +22614,7 @@
         <v>45131</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22671,7 +22671,7 @@
         <v>45147</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22728,7 +22728,7 @@
         <v>45149</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22785,7 +22785,7 @@
         <v>45149</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22842,7 +22842,7 @@
         <v>45160</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22899,7 +22899,7 @@
         <v>45162</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>

--- a/Översikt SVENLJUNGA.xlsx
+++ b/Översikt SVENLJUNGA.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y385"/>
+  <dimension ref="A1:Y388"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44579</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>44838</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>44210</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         <v>43620</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>44250</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>44613</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>44613</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1189,7 +1189,7 @@
         <v>44764</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1274,7 +1274,7 @@
         <v>43314</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1331,7 +1331,7 @@
         <v>43325</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1388,7 +1388,7 @@
         <v>43328</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1450,7 +1450,7 @@
         <v>43329</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1507,7 +1507,7 @@
         <v>43346</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1564,7 +1564,7 @@
         <v>43349</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1621,7 +1621,7 @@
         <v>43349</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1678,7 +1678,7 @@
         <v>43353</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1735,7 +1735,7 @@
         <v>43357</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
         <v>43363</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
         <v>43374</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>43381</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>43390</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
         <v>43398</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2087,7 +2087,7 @@
         <v>43402</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>43411</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         <v>43413</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>43413</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>43413</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>43419</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2434,7 +2434,7 @@
         <v>43423</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>43424</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>43425</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>43425</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         <v>43426</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         <v>43428</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>43430</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         <v>43433</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         <v>43433</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>43437</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>43437</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>43438</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>43439</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>43444</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43447</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>43447</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>43448</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>43451</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         <v>43454</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3522,7 +3522,7 @@
         <v>43454</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3584,7 +3584,7 @@
         <v>43454</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3641,7 +3641,7 @@
         <v>43454</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3698,7 +3698,7 @@
         <v>43454</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3760,7 +3760,7 @@
         <v>43454</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3817,7 +3817,7 @@
         <v>43454</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3874,7 +3874,7 @@
         <v>43455</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3931,7 +3931,7 @@
         <v>43455</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3988,7 +3988,7 @@
         <v>43455</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>43461</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>43461</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4169,7 +4169,7 @@
         <v>43462</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         <v>43473</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4283,7 +4283,7 @@
         <v>43475</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4340,7 +4340,7 @@
         <v>43486</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4397,7 +4397,7 @@
         <v>43494</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4454,7 +4454,7 @@
         <v>43495</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4511,7 +4511,7 @@
         <v>43500</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         <v>43501</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>43501</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4682,7 +4682,7 @@
         <v>43511</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>43531</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
         <v>43542</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4853,7 +4853,7 @@
         <v>43544</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         <v>43544</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4977,7 +4977,7 @@
         <v>43554</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5034,7 +5034,7 @@
         <v>43554</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>43554</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>43558</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5205,7 +5205,7 @@
         <v>43559</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5262,7 +5262,7 @@
         <v>43559</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5319,7 +5319,7 @@
         <v>43560</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5376,7 +5376,7 @@
         <v>43565</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5433,7 +5433,7 @@
         <v>43565</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5490,7 +5490,7 @@
         <v>43565</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5547,7 +5547,7 @@
         <v>43572</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5604,7 +5604,7 @@
         <v>43585</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5661,7 +5661,7 @@
         <v>43588</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5718,7 +5718,7 @@
         <v>43591</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5775,7 +5775,7 @@
         <v>43592</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5837,7 +5837,7 @@
         <v>43599</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5894,7 +5894,7 @@
         <v>43599</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5951,7 +5951,7 @@
         <v>43599</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6008,7 +6008,7 @@
         <v>43599</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6065,7 +6065,7 @@
         <v>43609</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
         <v>43609</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         <v>43620</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6241,7 +6241,7 @@
         <v>43620</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6298,7 +6298,7 @@
         <v>43626</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         <v>43626</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6412,7 +6412,7 @@
         <v>43634</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6469,7 +6469,7 @@
         <v>43644</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6526,7 +6526,7 @@
         <v>43644</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6583,7 +6583,7 @@
         <v>43644</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6640,7 +6640,7 @@
         <v>43644</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
         <v>43647</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6759,7 +6759,7 @@
         <v>43647</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6821,7 +6821,7 @@
         <v>43658</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         <v>43676</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         <v>43676</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         <v>43676</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7064,7 +7064,7 @@
         <v>43676</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7126,7 +7126,7 @@
         <v>43677</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>43697</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         <v>43699</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7307,7 +7307,7 @@
         <v>43705</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7364,7 +7364,7 @@
         <v>43706</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7421,7 +7421,7 @@
         <v>43721</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7478,7 +7478,7 @@
         <v>43728</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7535,7 +7535,7 @@
         <v>43728</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7592,7 +7592,7 @@
         <v>43733</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7649,7 +7649,7 @@
         <v>43745</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7706,7 +7706,7 @@
         <v>43758</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7763,7 +7763,7 @@
         <v>43760</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7820,7 +7820,7 @@
         <v>43761</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7877,7 +7877,7 @@
         <v>43770</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7934,7 +7934,7 @@
         <v>43771</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7991,7 +7991,7 @@
         <v>43773</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8048,7 +8048,7 @@
         <v>43780</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8105,7 +8105,7 @@
         <v>43780</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8162,7 +8162,7 @@
         <v>43782</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8219,7 +8219,7 @@
         <v>43782</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8276,7 +8276,7 @@
         <v>43788</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8333,7 +8333,7 @@
         <v>43788</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8390,7 +8390,7 @@
         <v>43788</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8447,7 +8447,7 @@
         <v>43790</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8504,7 +8504,7 @@
         <v>43791</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8561,7 +8561,7 @@
         <v>43795</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8623,7 +8623,7 @@
         <v>43798</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8680,7 +8680,7 @@
         <v>43798</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8737,7 +8737,7 @@
         <v>43798</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8794,7 +8794,7 @@
         <v>43803</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8851,7 +8851,7 @@
         <v>43803</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8908,7 +8908,7 @@
         <v>43804</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8970,7 +8970,7 @@
         <v>43817</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9032,7 +9032,7 @@
         <v>43818</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9094,7 +9094,7 @@
         <v>43832</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9151,7 +9151,7 @@
         <v>43853</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9208,7 +9208,7 @@
         <v>43867</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9265,7 +9265,7 @@
         <v>43868</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9322,7 +9322,7 @@
         <v>43868</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         <v>43868</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9436,7 +9436,7 @@
         <v>43873</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9498,7 +9498,7 @@
         <v>43892</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9555,7 +9555,7 @@
         <v>43894</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9612,7 +9612,7 @@
         <v>43900</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9669,7 +9669,7 @@
         <v>43902</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9726,7 +9726,7 @@
         <v>43902</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9783,7 +9783,7 @@
         <v>43912</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9840,7 +9840,7 @@
         <v>43914</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9897,7 +9897,7 @@
         <v>43915</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9954,7 +9954,7 @@
         <v>43915</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10011,7 +10011,7 @@
         <v>43915</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10068,7 +10068,7 @@
         <v>43920</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10125,7 +10125,7 @@
         <v>43922</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10182,7 +10182,7 @@
         <v>43923</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10239,7 +10239,7 @@
         <v>43923</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10296,7 +10296,7 @@
         <v>43933</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10353,7 +10353,7 @@
         <v>43937</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10415,7 +10415,7 @@
         <v>43949</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10472,7 +10472,7 @@
         <v>43955</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10529,7 +10529,7 @@
         <v>43962</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10586,7 +10586,7 @@
         <v>43963</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10643,7 +10643,7 @@
         <v>43965</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10700,7 +10700,7 @@
         <v>43971</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10762,7 +10762,7 @@
         <v>43983</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10824,7 +10824,7 @@
         <v>43986</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10881,7 +10881,7 @@
         <v>43986</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10938,7 +10938,7 @@
         <v>43991</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10995,7 +10995,7 @@
         <v>44008</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11052,7 +11052,7 @@
         <v>44015</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11109,7 +11109,7 @@
         <v>44018</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11166,7 +11166,7 @@
         <v>44036</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11223,7 +11223,7 @@
         <v>44036</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11280,7 +11280,7 @@
         <v>44050</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11337,7 +11337,7 @@
         <v>44053</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11394,7 +11394,7 @@
         <v>44056</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11451,7 +11451,7 @@
         <v>44061</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11508,7 +11508,7 @@
         <v>44063</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11565,7 +11565,7 @@
         <v>44063</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11622,7 +11622,7 @@
         <v>44068</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11679,7 +11679,7 @@
         <v>44069</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11736,7 +11736,7 @@
         <v>44076</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11793,7 +11793,7 @@
         <v>44082</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11850,7 +11850,7 @@
         <v>44086</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11907,7 +11907,7 @@
         <v>44086</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11964,7 +11964,7 @@
         <v>44089</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12021,7 +12021,7 @@
         <v>44109</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12078,7 +12078,7 @@
         <v>44109</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12135,7 +12135,7 @@
         <v>44116</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12192,7 +12192,7 @@
         <v>44117</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12249,7 +12249,7 @@
         <v>44127</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12306,7 +12306,7 @@
         <v>44129</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12363,7 +12363,7 @@
         <v>44130</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12420,7 +12420,7 @@
         <v>44130</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12477,7 +12477,7 @@
         <v>44130</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12534,7 +12534,7 @@
         <v>44132</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12591,7 +12591,7 @@
         <v>44133</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12648,7 +12648,7 @@
         <v>44133</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12705,7 +12705,7 @@
         <v>44138</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12762,7 +12762,7 @@
         <v>44138</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12819,7 +12819,7 @@
         <v>44154</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12876,7 +12876,7 @@
         <v>44159</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12933,7 +12933,7 @@
         <v>44159</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12990,7 +12990,7 @@
         <v>44162</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13047,7 +13047,7 @@
         <v>44165</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13104,7 +13104,7 @@
         <v>44168</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13161,7 +13161,7 @@
         <v>44173</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13223,7 +13223,7 @@
         <v>44174</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13280,7 +13280,7 @@
         <v>44174</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13337,7 +13337,7 @@
         <v>44187</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13394,7 +13394,7 @@
         <v>44194</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13451,7 +13451,7 @@
         <v>44200</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13508,7 +13508,7 @@
         <v>44209</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13565,7 +13565,7 @@
         <v>44210</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13627,7 +13627,7 @@
         <v>44210</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13689,7 +13689,7 @@
         <v>44210</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13751,7 +13751,7 @@
         <v>44218</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13808,7 +13808,7 @@
         <v>44223</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13865,7 +13865,7 @@
         <v>44224</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13922,7 +13922,7 @@
         <v>44224</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13979,7 +13979,7 @@
         <v>44224</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14036,7 +14036,7 @@
         <v>44229</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14093,7 +14093,7 @@
         <v>44242</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14150,7 +14150,7 @@
         <v>44250</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14207,7 +14207,7 @@
         <v>44250</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14264,7 +14264,7 @@
         <v>44250</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14321,7 +14321,7 @@
         <v>44258</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14378,7 +14378,7 @@
         <v>44264</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14435,7 +14435,7 @@
         <v>44320</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14492,7 +14492,7 @@
         <v>44337</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14549,7 +14549,7 @@
         <v>44337</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14606,7 +14606,7 @@
         <v>44341</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14663,7 +14663,7 @@
         <v>44344</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14725,7 +14725,7 @@
         <v>44349</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14787,7 +14787,7 @@
         <v>44350</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14849,7 +14849,7 @@
         <v>44355</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14906,7 +14906,7 @@
         <v>44357</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14968,7 +14968,7 @@
         <v>44357</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15030,7 +15030,7 @@
         <v>44357</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15092,7 +15092,7 @@
         <v>44376</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15149,7 +15149,7 @@
         <v>44391</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15206,7 +15206,7 @@
         <v>44417</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15263,7 +15263,7 @@
         <v>44418</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15320,7 +15320,7 @@
         <v>44432</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15377,7 +15377,7 @@
         <v>44432</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15434,7 +15434,7 @@
         <v>44434</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15491,7 +15491,7 @@
         <v>44440</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15548,7 +15548,7 @@
         <v>44448</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15605,7 +15605,7 @@
         <v>44491</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15662,7 +15662,7 @@
         <v>44496</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15719,7 +15719,7 @@
         <v>44496</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15776,7 +15776,7 @@
         <v>44497</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15833,7 +15833,7 @@
         <v>44497</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15890,7 +15890,7 @@
         <v>44517</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15947,7 +15947,7 @@
         <v>44517</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16004,7 +16004,7 @@
         <v>44517</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16061,7 +16061,7 @@
         <v>44517</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16118,7 +16118,7 @@
         <v>44517</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16175,7 +16175,7 @@
         <v>44530</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16237,7 +16237,7 @@
         <v>44564</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16294,7 +16294,7 @@
         <v>44579</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16351,7 +16351,7 @@
         <v>44588</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16408,7 +16408,7 @@
         <v>44588</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16465,7 +16465,7 @@
         <v>44610</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16522,7 +16522,7 @@
         <v>44613</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         <v>44615</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16636,7 +16636,7 @@
         <v>44616</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16693,7 +16693,7 @@
         <v>44616</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16750,7 +16750,7 @@
         <v>44617</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16807,7 +16807,7 @@
         <v>44641</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16869,7 +16869,7 @@
         <v>44641</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16931,7 +16931,7 @@
         <v>44641</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16993,7 +16993,7 @@
         <v>44645</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17055,7 +17055,7 @@
         <v>44656</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17112,7 +17112,7 @@
         <v>44656</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17169,7 +17169,7 @@
         <v>44656</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17226,7 +17226,7 @@
         <v>44658</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17283,7 +17283,7 @@
         <v>44659</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17340,7 +17340,7 @@
         <v>44659</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
         <v>44662</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17454,7 +17454,7 @@
         <v>44687</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17511,7 +17511,7 @@
         <v>44706</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17568,7 +17568,7 @@
         <v>44725</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17625,7 +17625,7 @@
         <v>44725</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17682,7 +17682,7 @@
         <v>44726</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17739,7 +17739,7 @@
         <v>44785</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17796,7 +17796,7 @@
         <v>44792</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17853,7 +17853,7 @@
         <v>44797</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17910,7 +17910,7 @@
         <v>44800</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17967,7 +17967,7 @@
         <v>44813</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18024,7 +18024,7 @@
         <v>44824</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18081,7 +18081,7 @@
         <v>44831</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18138,7 +18138,7 @@
         <v>44837</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18195,7 +18195,7 @@
         <v>44837</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18252,7 +18252,7 @@
         <v>44837</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18309,7 +18309,7 @@
         <v>44859</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18371,7 +18371,7 @@
         <v>44859</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18428,7 +18428,7 @@
         <v>44872</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18485,7 +18485,7 @@
         <v>44895</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18542,7 +18542,7 @@
         <v>44895</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18599,7 +18599,7 @@
         <v>44897</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18656,7 +18656,7 @@
         <v>44898</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18713,7 +18713,7 @@
         <v>44901</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18770,7 +18770,7 @@
         <v>44902</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18827,7 +18827,7 @@
         <v>44902</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18884,7 +18884,7 @@
         <v>44902</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18941,7 +18941,7 @@
         <v>44903</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18998,7 +18998,7 @@
         <v>44914</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19055,7 +19055,7 @@
         <v>44915</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19112,7 +19112,7 @@
         <v>44930</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19169,7 +19169,7 @@
         <v>44937</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19226,7 +19226,7 @@
         <v>44937</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19283,7 +19283,7 @@
         <v>44938</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19340,7 +19340,7 @@
         <v>44950</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19397,7 +19397,7 @@
         <v>44953</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19454,7 +19454,7 @@
         <v>44953</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19511,7 +19511,7 @@
         <v>44958</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19573,7 +19573,7 @@
         <v>44958</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19630,7 +19630,7 @@
         <v>44964</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19687,7 +19687,7 @@
         <v>44964</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19744,7 +19744,7 @@
         <v>44964</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19801,7 +19801,7 @@
         <v>44964</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19858,7 +19858,7 @@
         <v>44964</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19915,7 +19915,7 @@
         <v>44964</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19977,7 +19977,7 @@
         <v>44974</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20034,7 +20034,7 @@
         <v>44979</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20091,7 +20091,7 @@
         <v>44979</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20148,7 +20148,7 @@
         <v>44981</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20205,7 +20205,7 @@
         <v>44981</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20262,7 +20262,7 @@
         <v>44981</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20319,7 +20319,7 @@
         <v>44987</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20376,7 +20376,7 @@
         <v>44988</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20433,7 +20433,7 @@
         <v>45000</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20490,7 +20490,7 @@
         <v>45002</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20547,7 +20547,7 @@
         <v>45002</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20604,7 +20604,7 @@
         <v>45006</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20661,7 +20661,7 @@
         <v>45021</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20718,7 +20718,7 @@
         <v>45029</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20775,7 +20775,7 @@
         <v>45034</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20832,7 +20832,7 @@
         <v>45036</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20889,7 +20889,7 @@
         <v>45037</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         <v>45043</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21003,7 +21003,7 @@
         <v>45043</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21060,7 +21060,7 @@
         <v>45048</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21117,7 +21117,7 @@
         <v>45053</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21174,7 +21174,7 @@
         <v>45056</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21231,7 +21231,7 @@
         <v>45062</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21288,7 +21288,7 @@
         <v>45069</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21345,7 +21345,7 @@
         <v>45069</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21402,7 +21402,7 @@
         <v>45069</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21459,7 +21459,7 @@
         <v>45069</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21516,7 +21516,7 @@
         <v>45079</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         <v>45082</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21635,7 +21635,7 @@
         <v>45082</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21697,7 +21697,7 @@
         <v>45084</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21754,7 +21754,7 @@
         <v>45086</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21811,7 +21811,7 @@
         <v>45098</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21868,7 +21868,7 @@
         <v>45099</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21925,7 +21925,7 @@
         <v>45099</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -21982,7 +21982,7 @@
         <v>45099</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22044,7 +22044,7 @@
         <v>45106</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22101,7 +22101,7 @@
         <v>45107</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22158,7 +22158,7 @@
         <v>45111</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22215,7 +22215,7 @@
         <v>45111</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22272,7 +22272,7 @@
         <v>45114</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22329,7 +22329,7 @@
         <v>45114</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         <v>45120</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22443,7 +22443,7 @@
         <v>45120</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22500,7 +22500,7 @@
         <v>45120</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22557,7 +22557,7 @@
         <v>45120</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22614,7 +22614,7 @@
         <v>45131</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22671,7 +22671,7 @@
         <v>45147</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22728,7 +22728,7 @@
         <v>45149</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22785,7 +22785,7 @@
         <v>45149</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22842,7 +22842,7 @@
         <v>45160</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22889,7 +22889,7 @@
       </c>
       <c r="R384" s="2" t="inlineStr"/>
     </row>
-    <row r="385">
+    <row r="385" ht="15" customHeight="1">
       <c r="A385" t="inlineStr">
         <is>
           <t>A 38662-2023</t>
@@ -22899,7 +22899,7 @@
         <v>45162</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -22945,6 +22945,177 @@
         <v>0</v>
       </c>
       <c r="R385" s="2" t="inlineStr"/>
+    </row>
+    <row r="386" ht="15" customHeight="1">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>A 45395-2023</t>
+        </is>
+      </c>
+      <c r="B386" s="1" t="n">
+        <v>45194</v>
+      </c>
+      <c r="C386" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E386" t="inlineStr">
+        <is>
+          <t>SVENLJUNGA</t>
+        </is>
+      </c>
+      <c r="G386" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H386" t="n">
+        <v>0</v>
+      </c>
+      <c r="I386" t="n">
+        <v>0</v>
+      </c>
+      <c r="J386" t="n">
+        <v>0</v>
+      </c>
+      <c r="K386" t="n">
+        <v>0</v>
+      </c>
+      <c r="L386" t="n">
+        <v>0</v>
+      </c>
+      <c r="M386" t="n">
+        <v>0</v>
+      </c>
+      <c r="N386" t="n">
+        <v>0</v>
+      </c>
+      <c r="O386" t="n">
+        <v>0</v>
+      </c>
+      <c r="P386" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q386" t="n">
+        <v>0</v>
+      </c>
+      <c r="R386" s="2" t="inlineStr"/>
+    </row>
+    <row r="387" ht="15" customHeight="1">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>A 45400-2023</t>
+        </is>
+      </c>
+      <c r="B387" s="1" t="n">
+        <v>45194</v>
+      </c>
+      <c r="C387" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E387" t="inlineStr">
+        <is>
+          <t>SVENLJUNGA</t>
+        </is>
+      </c>
+      <c r="G387" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H387" t="n">
+        <v>0</v>
+      </c>
+      <c r="I387" t="n">
+        <v>0</v>
+      </c>
+      <c r="J387" t="n">
+        <v>0</v>
+      </c>
+      <c r="K387" t="n">
+        <v>0</v>
+      </c>
+      <c r="L387" t="n">
+        <v>0</v>
+      </c>
+      <c r="M387" t="n">
+        <v>0</v>
+      </c>
+      <c r="N387" t="n">
+        <v>0</v>
+      </c>
+      <c r="O387" t="n">
+        <v>0</v>
+      </c>
+      <c r="P387" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q387" t="n">
+        <v>0</v>
+      </c>
+      <c r="R387" s="2" t="inlineStr"/>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>A 45397-2023</t>
+        </is>
+      </c>
+      <c r="B388" s="1" t="n">
+        <v>45194</v>
+      </c>
+      <c r="C388" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t>SVENLJUNGA</t>
+        </is>
+      </c>
+      <c r="G388" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H388" t="n">
+        <v>0</v>
+      </c>
+      <c r="I388" t="n">
+        <v>0</v>
+      </c>
+      <c r="J388" t="n">
+        <v>0</v>
+      </c>
+      <c r="K388" t="n">
+        <v>0</v>
+      </c>
+      <c r="L388" t="n">
+        <v>0</v>
+      </c>
+      <c r="M388" t="n">
+        <v>0</v>
+      </c>
+      <c r="N388" t="n">
+        <v>0</v>
+      </c>
+      <c r="O388" t="n">
+        <v>0</v>
+      </c>
+      <c r="P388" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q388" t="n">
+        <v>0</v>
+      </c>
+      <c r="R388" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt SVENLJUNGA.xlsx
+++ b/Översikt SVENLJUNGA.xlsx
@@ -572,7 +572,7 @@
         <v>44579</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>44838</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>44210</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         <v>43620</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>44250</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>44613</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>44613</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1189,7 +1189,7 @@
         <v>44764</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1274,7 +1274,7 @@
         <v>43314</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1331,7 +1331,7 @@
         <v>43325</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1388,7 +1388,7 @@
         <v>43328</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1450,7 +1450,7 @@
         <v>43329</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1507,7 +1507,7 @@
         <v>43346</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1564,7 +1564,7 @@
         <v>43349</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1621,7 +1621,7 @@
         <v>43349</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1678,7 +1678,7 @@
         <v>43353</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1735,7 +1735,7 @@
         <v>43357</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
         <v>43363</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
         <v>43374</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>43381</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>43390</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
         <v>43398</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2087,7 +2087,7 @@
         <v>43402</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>43411</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         <v>43413</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>43413</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>43413</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>43419</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2434,7 +2434,7 @@
         <v>43423</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>43424</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>43425</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>43425</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         <v>43426</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         <v>43428</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>43430</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         <v>43433</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         <v>43433</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>43437</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>43437</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>43438</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>43439</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>43444</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43447</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>43447</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>43448</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>43451</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         <v>43454</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3522,7 +3522,7 @@
         <v>43454</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3584,7 +3584,7 @@
         <v>43454</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3641,7 +3641,7 @@
         <v>43454</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3698,7 +3698,7 @@
         <v>43454</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3760,7 +3760,7 @@
         <v>43454</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3817,7 +3817,7 @@
         <v>43454</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3874,7 +3874,7 @@
         <v>43455</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3931,7 +3931,7 @@
         <v>43455</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3988,7 +3988,7 @@
         <v>43455</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>43461</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>43461</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4169,7 +4169,7 @@
         <v>43462</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         <v>43473</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4283,7 +4283,7 @@
         <v>43475</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4340,7 +4340,7 @@
         <v>43486</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4397,7 +4397,7 @@
         <v>43494</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4454,7 +4454,7 @@
         <v>43495</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4511,7 +4511,7 @@
         <v>43500</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         <v>43501</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>43501</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4682,7 +4682,7 @@
         <v>43511</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>43531</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
         <v>43542</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4853,7 +4853,7 @@
         <v>43544</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         <v>43544</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4977,7 +4977,7 @@
         <v>43554</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5034,7 +5034,7 @@
         <v>43554</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>43554</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>43558</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5205,7 +5205,7 @@
         <v>43559</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5262,7 +5262,7 @@
         <v>43559</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5319,7 +5319,7 @@
         <v>43560</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5376,7 +5376,7 @@
         <v>43565</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5433,7 +5433,7 @@
         <v>43565</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5490,7 +5490,7 @@
         <v>43565</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5547,7 +5547,7 @@
         <v>43572</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5604,7 +5604,7 @@
         <v>43585</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5661,7 +5661,7 @@
         <v>43588</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5718,7 +5718,7 @@
         <v>43591</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5775,7 +5775,7 @@
         <v>43592</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5837,7 +5837,7 @@
         <v>43599</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5894,7 +5894,7 @@
         <v>43599</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5951,7 +5951,7 @@
         <v>43599</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6008,7 +6008,7 @@
         <v>43599</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6065,7 +6065,7 @@
         <v>43609</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
         <v>43609</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         <v>43620</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6241,7 +6241,7 @@
         <v>43620</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6298,7 +6298,7 @@
         <v>43626</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         <v>43626</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6412,7 +6412,7 @@
         <v>43634</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6469,7 +6469,7 @@
         <v>43644</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6526,7 +6526,7 @@
         <v>43644</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6583,7 +6583,7 @@
         <v>43644</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6640,7 +6640,7 @@
         <v>43644</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
         <v>43647</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6759,7 +6759,7 @@
         <v>43647</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6821,7 +6821,7 @@
         <v>43658</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         <v>43676</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         <v>43676</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         <v>43676</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7064,7 +7064,7 @@
         <v>43676</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7126,7 +7126,7 @@
         <v>43677</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>43697</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         <v>43699</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7307,7 +7307,7 @@
         <v>43705</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7364,7 +7364,7 @@
         <v>43706</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7421,7 +7421,7 @@
         <v>43721</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7478,7 +7478,7 @@
         <v>43728</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7535,7 +7535,7 @@
         <v>43728</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7592,7 +7592,7 @@
         <v>43733</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7649,7 +7649,7 @@
         <v>43745</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7706,7 +7706,7 @@
         <v>43758</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7763,7 +7763,7 @@
         <v>43760</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7820,7 +7820,7 @@
         <v>43761</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7877,7 +7877,7 @@
         <v>43770</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7934,7 +7934,7 @@
         <v>43771</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7991,7 +7991,7 @@
         <v>43773</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8048,7 +8048,7 @@
         <v>43780</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8105,7 +8105,7 @@
         <v>43780</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8162,7 +8162,7 @@
         <v>43782</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8219,7 +8219,7 @@
         <v>43782</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8276,7 +8276,7 @@
         <v>43788</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8333,7 +8333,7 @@
         <v>43788</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8390,7 +8390,7 @@
         <v>43788</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8447,7 +8447,7 @@
         <v>43790</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8504,7 +8504,7 @@
         <v>43791</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8561,7 +8561,7 @@
         <v>43795</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8623,7 +8623,7 @@
         <v>43798</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8680,7 +8680,7 @@
         <v>43798</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8737,7 +8737,7 @@
         <v>43798</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8794,7 +8794,7 @@
         <v>43803</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8851,7 +8851,7 @@
         <v>43803</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8908,7 +8908,7 @@
         <v>43804</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8970,7 +8970,7 @@
         <v>43817</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9032,7 +9032,7 @@
         <v>43818</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9094,7 +9094,7 @@
         <v>43832</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9151,7 +9151,7 @@
         <v>43853</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9208,7 +9208,7 @@
         <v>43867</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9265,7 +9265,7 @@
         <v>43868</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9322,7 +9322,7 @@
         <v>43868</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         <v>43868</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9436,7 +9436,7 @@
         <v>43873</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9498,7 +9498,7 @@
         <v>43892</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9555,7 +9555,7 @@
         <v>43894</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9612,7 +9612,7 @@
         <v>43900</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9669,7 +9669,7 @@
         <v>43902</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9726,7 +9726,7 @@
         <v>43902</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9783,7 +9783,7 @@
         <v>43912</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9840,7 +9840,7 @@
         <v>43914</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9897,7 +9897,7 @@
         <v>43915</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9954,7 +9954,7 @@
         <v>43915</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10011,7 +10011,7 @@
         <v>43915</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10068,7 +10068,7 @@
         <v>43920</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10125,7 +10125,7 @@
         <v>43922</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10182,7 +10182,7 @@
         <v>43923</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10239,7 +10239,7 @@
         <v>43923</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10296,7 +10296,7 @@
         <v>43933</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10353,7 +10353,7 @@
         <v>43937</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10415,7 +10415,7 @@
         <v>43949</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10472,7 +10472,7 @@
         <v>43955</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10529,7 +10529,7 @@
         <v>43962</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10586,7 +10586,7 @@
         <v>43963</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10643,7 +10643,7 @@
         <v>43965</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10700,7 +10700,7 @@
         <v>43971</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10762,7 +10762,7 @@
         <v>43983</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10824,7 +10824,7 @@
         <v>43986</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10881,7 +10881,7 @@
         <v>43986</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10938,7 +10938,7 @@
         <v>43991</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10995,7 +10995,7 @@
         <v>44008</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11052,7 +11052,7 @@
         <v>44015</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11109,7 +11109,7 @@
         <v>44018</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11166,7 +11166,7 @@
         <v>44036</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11223,7 +11223,7 @@
         <v>44036</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11280,7 +11280,7 @@
         <v>44050</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11337,7 +11337,7 @@
         <v>44053</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11394,7 +11394,7 @@
         <v>44056</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11451,7 +11451,7 @@
         <v>44061</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11508,7 +11508,7 @@
         <v>44063</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11565,7 +11565,7 @@
         <v>44063</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11622,7 +11622,7 @@
         <v>44068</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11679,7 +11679,7 @@
         <v>44069</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11736,7 +11736,7 @@
         <v>44076</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11793,7 +11793,7 @@
         <v>44082</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11850,7 +11850,7 @@
         <v>44086</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11907,7 +11907,7 @@
         <v>44086</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11964,7 +11964,7 @@
         <v>44089</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12021,7 +12021,7 @@
         <v>44109</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12078,7 +12078,7 @@
         <v>44109</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12135,7 +12135,7 @@
         <v>44116</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12192,7 +12192,7 @@
         <v>44117</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12249,7 +12249,7 @@
         <v>44127</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12306,7 +12306,7 @@
         <v>44129</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12363,7 +12363,7 @@
         <v>44130</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12420,7 +12420,7 @@
         <v>44130</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12477,7 +12477,7 @@
         <v>44130</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12534,7 +12534,7 @@
         <v>44132</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12591,7 +12591,7 @@
         <v>44133</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12648,7 +12648,7 @@
         <v>44133</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12705,7 +12705,7 @@
         <v>44138</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12762,7 +12762,7 @@
         <v>44138</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12819,7 +12819,7 @@
         <v>44154</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12876,7 +12876,7 @@
         <v>44159</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12933,7 +12933,7 @@
         <v>44159</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12990,7 +12990,7 @@
         <v>44162</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13047,7 +13047,7 @@
         <v>44165</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13104,7 +13104,7 @@
         <v>44168</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13161,7 +13161,7 @@
         <v>44173</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13223,7 +13223,7 @@
         <v>44174</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13280,7 +13280,7 @@
         <v>44174</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13337,7 +13337,7 @@
         <v>44187</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13394,7 +13394,7 @@
         <v>44194</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13451,7 +13451,7 @@
         <v>44200</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13508,7 +13508,7 @@
         <v>44209</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13565,7 +13565,7 @@
         <v>44210</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13627,7 +13627,7 @@
         <v>44210</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13689,7 +13689,7 @@
         <v>44210</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13751,7 +13751,7 @@
         <v>44218</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13808,7 +13808,7 @@
         <v>44223</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13865,7 +13865,7 @@
         <v>44224</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13922,7 +13922,7 @@
         <v>44224</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13979,7 +13979,7 @@
         <v>44224</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14036,7 +14036,7 @@
         <v>44229</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14093,7 +14093,7 @@
         <v>44242</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14150,7 +14150,7 @@
         <v>44250</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14207,7 +14207,7 @@
         <v>44250</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14264,7 +14264,7 @@
         <v>44250</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14321,7 +14321,7 @@
         <v>44258</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14378,7 +14378,7 @@
         <v>44264</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14435,7 +14435,7 @@
         <v>44320</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14492,7 +14492,7 @@
         <v>44337</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14549,7 +14549,7 @@
         <v>44337</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14606,7 +14606,7 @@
         <v>44341</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14663,7 +14663,7 @@
         <v>44344</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14725,7 +14725,7 @@
         <v>44349</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14787,7 +14787,7 @@
         <v>44350</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14849,7 +14849,7 @@
         <v>44355</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14906,7 +14906,7 @@
         <v>44357</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14968,7 +14968,7 @@
         <v>44357</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15030,7 +15030,7 @@
         <v>44357</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15092,7 +15092,7 @@
         <v>44376</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15149,7 +15149,7 @@
         <v>44391</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15206,7 +15206,7 @@
         <v>44417</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15263,7 +15263,7 @@
         <v>44418</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15320,7 +15320,7 @@
         <v>44432</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15377,7 +15377,7 @@
         <v>44432</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15434,7 +15434,7 @@
         <v>44434</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15491,7 +15491,7 @@
         <v>44440</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15548,7 +15548,7 @@
         <v>44448</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15605,7 +15605,7 @@
         <v>44491</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15662,7 +15662,7 @@
         <v>44496</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15719,7 +15719,7 @@
         <v>44496</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15776,7 +15776,7 @@
         <v>44497</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15833,7 +15833,7 @@
         <v>44497</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15890,7 +15890,7 @@
         <v>44517</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15947,7 +15947,7 @@
         <v>44517</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16004,7 +16004,7 @@
         <v>44517</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16061,7 +16061,7 @@
         <v>44517</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16118,7 +16118,7 @@
         <v>44517</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16175,7 +16175,7 @@
         <v>44530</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16237,7 +16237,7 @@
         <v>44564</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16294,7 +16294,7 @@
         <v>44579</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16351,7 +16351,7 @@
         <v>44588</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16408,7 +16408,7 @@
         <v>44588</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16465,7 +16465,7 @@
         <v>44610</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16522,7 +16522,7 @@
         <v>44613</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         <v>44615</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16636,7 +16636,7 @@
         <v>44616</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16693,7 +16693,7 @@
         <v>44616</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16750,7 +16750,7 @@
         <v>44617</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16807,7 +16807,7 @@
         <v>44641</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16869,7 +16869,7 @@
         <v>44641</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16931,7 +16931,7 @@
         <v>44641</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16993,7 +16993,7 @@
         <v>44645</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17055,7 +17055,7 @@
         <v>44656</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17112,7 +17112,7 @@
         <v>44656</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17169,7 +17169,7 @@
         <v>44656</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17226,7 +17226,7 @@
         <v>44658</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17283,7 +17283,7 @@
         <v>44659</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17340,7 +17340,7 @@
         <v>44659</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
         <v>44662</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17454,7 +17454,7 @@
         <v>44687</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17511,7 +17511,7 @@
         <v>44706</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17568,7 +17568,7 @@
         <v>44725</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17625,7 +17625,7 @@
         <v>44725</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17682,7 +17682,7 @@
         <v>44726</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17739,7 +17739,7 @@
         <v>44785</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17796,7 +17796,7 @@
         <v>44792</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17853,7 +17853,7 @@
         <v>44797</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17910,7 +17910,7 @@
         <v>44800</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17967,7 +17967,7 @@
         <v>44813</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18024,7 +18024,7 @@
         <v>44824</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18081,7 +18081,7 @@
         <v>44831</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18138,7 +18138,7 @@
         <v>44837</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18195,7 +18195,7 @@
         <v>44837</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18252,7 +18252,7 @@
         <v>44837</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18309,7 +18309,7 @@
         <v>44859</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18371,7 +18371,7 @@
         <v>44859</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18428,7 +18428,7 @@
         <v>44872</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18485,7 +18485,7 @@
         <v>44895</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18542,7 +18542,7 @@
         <v>44895</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18599,7 +18599,7 @@
         <v>44897</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18656,7 +18656,7 @@
         <v>44898</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18713,7 +18713,7 @@
         <v>44901</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18770,7 +18770,7 @@
         <v>44902</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18827,7 +18827,7 @@
         <v>44902</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18884,7 +18884,7 @@
         <v>44902</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18941,7 +18941,7 @@
         <v>44903</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18998,7 +18998,7 @@
         <v>44914</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19055,7 +19055,7 @@
         <v>44915</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19112,7 +19112,7 @@
         <v>44930</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19169,7 +19169,7 @@
         <v>44937</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19226,7 +19226,7 @@
         <v>44937</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19283,7 +19283,7 @@
         <v>44938</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19340,7 +19340,7 @@
         <v>44950</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19397,7 +19397,7 @@
         <v>44953</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19454,7 +19454,7 @@
         <v>44953</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19511,7 +19511,7 @@
         <v>44958</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19573,7 +19573,7 @@
         <v>44958</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19630,7 +19630,7 @@
         <v>44964</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19687,7 +19687,7 @@
         <v>44964</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19744,7 +19744,7 @@
         <v>44964</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19801,7 +19801,7 @@
         <v>44964</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19858,7 +19858,7 @@
         <v>44964</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19915,7 +19915,7 @@
         <v>44964</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19977,7 +19977,7 @@
         <v>44974</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20034,7 +20034,7 @@
         <v>44979</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20091,7 +20091,7 @@
         <v>44979</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20148,7 +20148,7 @@
         <v>44981</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20205,7 +20205,7 @@
         <v>44981</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20262,7 +20262,7 @@
         <v>44981</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20319,7 +20319,7 @@
         <v>44987</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20376,7 +20376,7 @@
         <v>44988</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20433,7 +20433,7 @@
         <v>45000</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20490,7 +20490,7 @@
         <v>45002</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20547,7 +20547,7 @@
         <v>45002</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20604,7 +20604,7 @@
         <v>45006</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20661,7 +20661,7 @@
         <v>45021</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20718,7 +20718,7 @@
         <v>45029</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20775,7 +20775,7 @@
         <v>45034</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20832,7 +20832,7 @@
         <v>45036</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20889,7 +20889,7 @@
         <v>45037</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         <v>45043</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21003,7 +21003,7 @@
         <v>45043</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21060,7 +21060,7 @@
         <v>45048</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21117,7 +21117,7 @@
         <v>45053</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21174,7 +21174,7 @@
         <v>45056</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21231,7 +21231,7 @@
         <v>45062</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21288,7 +21288,7 @@
         <v>45069</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21345,7 +21345,7 @@
         <v>45069</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21402,7 +21402,7 @@
         <v>45069</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21459,7 +21459,7 @@
         <v>45069</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21516,7 +21516,7 @@
         <v>45079</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         <v>45082</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21635,7 +21635,7 @@
         <v>45082</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21697,7 +21697,7 @@
         <v>45084</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21754,7 +21754,7 @@
         <v>45086</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21811,7 +21811,7 @@
         <v>45098</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21868,7 +21868,7 @@
         <v>45099</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21925,7 +21925,7 @@
         <v>45099</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -21982,7 +21982,7 @@
         <v>45099</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22044,7 +22044,7 @@
         <v>45106</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22101,7 +22101,7 @@
         <v>45107</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22158,7 +22158,7 @@
         <v>45111</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22215,7 +22215,7 @@
         <v>45111</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22272,7 +22272,7 @@
         <v>45114</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22329,7 +22329,7 @@
         <v>45114</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         <v>45120</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22443,7 +22443,7 @@
         <v>45120</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22500,7 +22500,7 @@
         <v>45120</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22557,7 +22557,7 @@
         <v>45120</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22614,7 +22614,7 @@
         <v>45131</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22671,7 +22671,7 @@
         <v>45147</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22728,7 +22728,7 @@
         <v>45149</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22785,7 +22785,7 @@
         <v>45149</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22842,7 +22842,7 @@
         <v>45160</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22899,7 +22899,7 @@
         <v>45162</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -22956,7 +22956,7 @@
         <v>45194</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23013,7 +23013,7 @@
         <v>45194</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23070,7 +23070,7 @@
         <v>45194</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>

--- a/Översikt SVENLJUNGA.xlsx
+++ b/Översikt SVENLJUNGA.xlsx
@@ -572,7 +572,7 @@
         <v>44579</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>44838</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>44210</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         <v>43620</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>44250</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>44613</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>44613</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1189,7 +1189,7 @@
         <v>44764</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1274,7 +1274,7 @@
         <v>43314</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1331,7 +1331,7 @@
         <v>43325</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1388,7 +1388,7 @@
         <v>43328</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1450,7 +1450,7 @@
         <v>43329</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1507,7 +1507,7 @@
         <v>43346</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1564,7 +1564,7 @@
         <v>43349</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1621,7 +1621,7 @@
         <v>43349</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1678,7 +1678,7 @@
         <v>43353</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1735,7 +1735,7 @@
         <v>43357</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
         <v>43363</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
         <v>43374</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>43381</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>43390</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
         <v>43398</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2087,7 +2087,7 @@
         <v>43402</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>43411</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         <v>43413</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>43413</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>43413</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>43419</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2434,7 +2434,7 @@
         <v>43423</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>43424</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>43425</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>43425</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         <v>43426</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         <v>43428</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>43430</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         <v>43433</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         <v>43433</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>43437</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>43437</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>43438</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>43439</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>43444</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43447</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>43447</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>43448</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>43451</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         <v>43454</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3522,7 +3522,7 @@
         <v>43454</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3584,7 +3584,7 @@
         <v>43454</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3641,7 +3641,7 @@
         <v>43454</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3698,7 +3698,7 @@
         <v>43454</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3760,7 +3760,7 @@
         <v>43454</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3817,7 +3817,7 @@
         <v>43454</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3874,7 +3874,7 @@
         <v>43455</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3931,7 +3931,7 @@
         <v>43455</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3988,7 +3988,7 @@
         <v>43455</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>43461</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>43461</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4169,7 +4169,7 @@
         <v>43462</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         <v>43473</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4283,7 +4283,7 @@
         <v>43475</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4340,7 +4340,7 @@
         <v>43486</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4397,7 +4397,7 @@
         <v>43494</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4454,7 +4454,7 @@
         <v>43495</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4511,7 +4511,7 @@
         <v>43500</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         <v>43501</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>43501</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4682,7 +4682,7 @@
         <v>43511</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>43531</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
         <v>43542</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4853,7 +4853,7 @@
         <v>43544</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         <v>43544</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4977,7 +4977,7 @@
         <v>43554</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5034,7 +5034,7 @@
         <v>43554</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>43554</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>43558</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5205,7 +5205,7 @@
         <v>43559</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5262,7 +5262,7 @@
         <v>43559</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5319,7 +5319,7 @@
         <v>43560</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5376,7 +5376,7 @@
         <v>43565</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5433,7 +5433,7 @@
         <v>43565</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5490,7 +5490,7 @@
         <v>43565</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5547,7 +5547,7 @@
         <v>43572</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5604,7 +5604,7 @@
         <v>43585</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5661,7 +5661,7 @@
         <v>43588</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5718,7 +5718,7 @@
         <v>43591</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5775,7 +5775,7 @@
         <v>43592</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5837,7 +5837,7 @@
         <v>43599</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5894,7 +5894,7 @@
         <v>43599</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5951,7 +5951,7 @@
         <v>43599</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6008,7 +6008,7 @@
         <v>43599</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6065,7 +6065,7 @@
         <v>43609</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
         <v>43609</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         <v>43620</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6241,7 +6241,7 @@
         <v>43620</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6298,7 +6298,7 @@
         <v>43626</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         <v>43626</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6412,7 +6412,7 @@
         <v>43634</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6469,7 +6469,7 @@
         <v>43644</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6526,7 +6526,7 @@
         <v>43644</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6583,7 +6583,7 @@
         <v>43644</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6640,7 +6640,7 @@
         <v>43644</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
         <v>43647</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6759,7 +6759,7 @@
         <v>43647</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6821,7 +6821,7 @@
         <v>43658</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         <v>43676</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         <v>43676</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         <v>43676</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7064,7 +7064,7 @@
         <v>43676</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7126,7 +7126,7 @@
         <v>43677</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>43697</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         <v>43699</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7307,7 +7307,7 @@
         <v>43705</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7364,7 +7364,7 @@
         <v>43706</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7421,7 +7421,7 @@
         <v>43721</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7478,7 +7478,7 @@
         <v>43728</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7535,7 +7535,7 @@
         <v>43728</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7592,7 +7592,7 @@
         <v>43733</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7649,7 +7649,7 @@
         <v>43745</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7706,7 +7706,7 @@
         <v>43758</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7763,7 +7763,7 @@
         <v>43760</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7820,7 +7820,7 @@
         <v>43761</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7877,7 +7877,7 @@
         <v>43770</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7934,7 +7934,7 @@
         <v>43771</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7991,7 +7991,7 @@
         <v>43773</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8048,7 +8048,7 @@
         <v>43780</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8105,7 +8105,7 @@
         <v>43780</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8162,7 +8162,7 @@
         <v>43782</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8219,7 +8219,7 @@
         <v>43782</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8276,7 +8276,7 @@
         <v>43788</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8333,7 +8333,7 @@
         <v>43788</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8390,7 +8390,7 @@
         <v>43788</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8447,7 +8447,7 @@
         <v>43790</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8504,7 +8504,7 @@
         <v>43791</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8561,7 +8561,7 @@
         <v>43795</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8623,7 +8623,7 @@
         <v>43798</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8680,7 +8680,7 @@
         <v>43798</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8737,7 +8737,7 @@
         <v>43798</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8794,7 +8794,7 @@
         <v>43803</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8851,7 +8851,7 @@
         <v>43803</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8908,7 +8908,7 @@
         <v>43804</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8970,7 +8970,7 @@
         <v>43817</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9032,7 +9032,7 @@
         <v>43818</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9094,7 +9094,7 @@
         <v>43832</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9151,7 +9151,7 @@
         <v>43853</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9208,7 +9208,7 @@
         <v>43867</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9265,7 +9265,7 @@
         <v>43868</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9322,7 +9322,7 @@
         <v>43868</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         <v>43868</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9436,7 +9436,7 @@
         <v>43873</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9498,7 +9498,7 @@
         <v>43892</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9555,7 +9555,7 @@
         <v>43894</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9612,7 +9612,7 @@
         <v>43900</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9669,7 +9669,7 @@
         <v>43902</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9726,7 +9726,7 @@
         <v>43902</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9783,7 +9783,7 @@
         <v>43912</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9840,7 +9840,7 @@
         <v>43914</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9897,7 +9897,7 @@
         <v>43915</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9954,7 +9954,7 @@
         <v>43915</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10011,7 +10011,7 @@
         <v>43915</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10068,7 +10068,7 @@
         <v>43920</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10125,7 +10125,7 @@
         <v>43922</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10182,7 +10182,7 @@
         <v>43923</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10239,7 +10239,7 @@
         <v>43923</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10296,7 +10296,7 @@
         <v>43933</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10353,7 +10353,7 @@
         <v>43937</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10415,7 +10415,7 @@
         <v>43949</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10472,7 +10472,7 @@
         <v>43955</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10529,7 +10529,7 @@
         <v>43962</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10586,7 +10586,7 @@
         <v>43963</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10643,7 +10643,7 @@
         <v>43965</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10700,7 +10700,7 @@
         <v>43971</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10762,7 +10762,7 @@
         <v>43983</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10824,7 +10824,7 @@
         <v>43986</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10881,7 +10881,7 @@
         <v>43986</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10938,7 +10938,7 @@
         <v>43991</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10995,7 +10995,7 @@
         <v>44008</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11052,7 +11052,7 @@
         <v>44015</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11109,7 +11109,7 @@
         <v>44018</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11166,7 +11166,7 @@
         <v>44036</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11223,7 +11223,7 @@
         <v>44036</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11280,7 +11280,7 @@
         <v>44050</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11337,7 +11337,7 @@
         <v>44053</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11394,7 +11394,7 @@
         <v>44056</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11451,7 +11451,7 @@
         <v>44061</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11508,7 +11508,7 @@
         <v>44063</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11565,7 +11565,7 @@
         <v>44063</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11622,7 +11622,7 @@
         <v>44068</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11679,7 +11679,7 @@
         <v>44069</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11736,7 +11736,7 @@
         <v>44076</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11793,7 +11793,7 @@
         <v>44082</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11850,7 +11850,7 @@
         <v>44086</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11907,7 +11907,7 @@
         <v>44086</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11964,7 +11964,7 @@
         <v>44089</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12021,7 +12021,7 @@
         <v>44109</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12078,7 +12078,7 @@
         <v>44109</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12135,7 +12135,7 @@
         <v>44116</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12192,7 +12192,7 @@
         <v>44117</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12249,7 +12249,7 @@
         <v>44127</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12306,7 +12306,7 @@
         <v>44129</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12363,7 +12363,7 @@
         <v>44130</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12420,7 +12420,7 @@
         <v>44130</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12477,7 +12477,7 @@
         <v>44130</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12534,7 +12534,7 @@
         <v>44132</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12591,7 +12591,7 @@
         <v>44133</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12648,7 +12648,7 @@
         <v>44133</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12705,7 +12705,7 @@
         <v>44138</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12762,7 +12762,7 @@
         <v>44138</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12819,7 +12819,7 @@
         <v>44154</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12876,7 +12876,7 @@
         <v>44159</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12933,7 +12933,7 @@
         <v>44159</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12990,7 +12990,7 @@
         <v>44162</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13047,7 +13047,7 @@
         <v>44165</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13104,7 +13104,7 @@
         <v>44168</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13161,7 +13161,7 @@
         <v>44173</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13223,7 +13223,7 @@
         <v>44174</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13280,7 +13280,7 @@
         <v>44174</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13337,7 +13337,7 @@
         <v>44187</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13394,7 +13394,7 @@
         <v>44194</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13451,7 +13451,7 @@
         <v>44200</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13508,7 +13508,7 @@
         <v>44209</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13565,7 +13565,7 @@
         <v>44210</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13627,7 +13627,7 @@
         <v>44210</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13689,7 +13689,7 @@
         <v>44210</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13751,7 +13751,7 @@
         <v>44218</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13808,7 +13808,7 @@
         <v>44223</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13865,7 +13865,7 @@
         <v>44224</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13922,7 +13922,7 @@
         <v>44224</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13979,7 +13979,7 @@
         <v>44224</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14036,7 +14036,7 @@
         <v>44229</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14093,7 +14093,7 @@
         <v>44242</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14150,7 +14150,7 @@
         <v>44250</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14207,7 +14207,7 @@
         <v>44250</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14264,7 +14264,7 @@
         <v>44250</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14321,7 +14321,7 @@
         <v>44258</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14378,7 +14378,7 @@
         <v>44264</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14435,7 +14435,7 @@
         <v>44320</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14492,7 +14492,7 @@
         <v>44337</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14549,7 +14549,7 @@
         <v>44337</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14606,7 +14606,7 @@
         <v>44341</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14663,7 +14663,7 @@
         <v>44344</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14725,7 +14725,7 @@
         <v>44349</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14787,7 +14787,7 @@
         <v>44350</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14849,7 +14849,7 @@
         <v>44355</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14906,7 +14906,7 @@
         <v>44357</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14968,7 +14968,7 @@
         <v>44357</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15030,7 +15030,7 @@
         <v>44357</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15092,7 +15092,7 @@
         <v>44376</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15149,7 +15149,7 @@
         <v>44391</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15206,7 +15206,7 @@
         <v>44417</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15263,7 +15263,7 @@
         <v>44418</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15320,7 +15320,7 @@
         <v>44432</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15377,7 +15377,7 @@
         <v>44432</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15434,7 +15434,7 @@
         <v>44434</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15491,7 +15491,7 @@
         <v>44440</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15548,7 +15548,7 @@
         <v>44448</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15605,7 +15605,7 @@
         <v>44491</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15662,7 +15662,7 @@
         <v>44496</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15719,7 +15719,7 @@
         <v>44496</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15776,7 +15776,7 @@
         <v>44497</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15833,7 +15833,7 @@
         <v>44497</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15890,7 +15890,7 @@
         <v>44517</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15947,7 +15947,7 @@
         <v>44517</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16004,7 +16004,7 @@
         <v>44517</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16061,7 +16061,7 @@
         <v>44517</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16118,7 +16118,7 @@
         <v>44517</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16175,7 +16175,7 @@
         <v>44530</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16237,7 +16237,7 @@
         <v>44564</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16294,7 +16294,7 @@
         <v>44579</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16351,7 +16351,7 @@
         <v>44588</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16408,7 +16408,7 @@
         <v>44588</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16465,7 +16465,7 @@
         <v>44610</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16522,7 +16522,7 @@
         <v>44613</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         <v>44615</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16636,7 +16636,7 @@
         <v>44616</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16693,7 +16693,7 @@
         <v>44616</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16750,7 +16750,7 @@
         <v>44617</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16807,7 +16807,7 @@
         <v>44641</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16869,7 +16869,7 @@
         <v>44641</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16931,7 +16931,7 @@
         <v>44641</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16993,7 +16993,7 @@
         <v>44645</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17055,7 +17055,7 @@
         <v>44656</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17112,7 +17112,7 @@
         <v>44656</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17169,7 +17169,7 @@
         <v>44656</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17226,7 +17226,7 @@
         <v>44658</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17283,7 +17283,7 @@
         <v>44659</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17340,7 +17340,7 @@
         <v>44659</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
         <v>44662</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17454,7 +17454,7 @@
         <v>44687</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17511,7 +17511,7 @@
         <v>44706</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17568,7 +17568,7 @@
         <v>44725</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17625,7 +17625,7 @@
         <v>44725</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17682,7 +17682,7 @@
         <v>44726</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17739,7 +17739,7 @@
         <v>44785</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17796,7 +17796,7 @@
         <v>44792</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17853,7 +17853,7 @@
         <v>44797</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17910,7 +17910,7 @@
         <v>44800</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17967,7 +17967,7 @@
         <v>44813</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18024,7 +18024,7 @@
         <v>44824</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18081,7 +18081,7 @@
         <v>44831</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18138,7 +18138,7 @@
         <v>44837</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18195,7 +18195,7 @@
         <v>44837</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18252,7 +18252,7 @@
         <v>44837</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18309,7 +18309,7 @@
         <v>44859</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18371,7 +18371,7 @@
         <v>44859</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18428,7 +18428,7 @@
         <v>44872</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18485,7 +18485,7 @@
         <v>44895</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18542,7 +18542,7 @@
         <v>44895</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18599,7 +18599,7 @@
         <v>44897</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18656,7 +18656,7 @@
         <v>44898</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18713,7 +18713,7 @@
         <v>44901</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18770,7 +18770,7 @@
         <v>44902</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18827,7 +18827,7 @@
         <v>44902</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18884,7 +18884,7 @@
         <v>44902</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18941,7 +18941,7 @@
         <v>44903</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18998,7 +18998,7 @@
         <v>44914</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19055,7 +19055,7 @@
         <v>44915</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19112,7 +19112,7 @@
         <v>44930</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19169,7 +19169,7 @@
         <v>44937</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19226,7 +19226,7 @@
         <v>44937</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19283,7 +19283,7 @@
         <v>44938</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19340,7 +19340,7 @@
         <v>44950</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19397,7 +19397,7 @@
         <v>44953</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19454,7 +19454,7 @@
         <v>44953</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19511,7 +19511,7 @@
         <v>44958</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19573,7 +19573,7 @@
         <v>44958</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19630,7 +19630,7 @@
         <v>44964</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19687,7 +19687,7 @@
         <v>44964</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19744,7 +19744,7 @@
         <v>44964</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19801,7 +19801,7 @@
         <v>44964</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19858,7 +19858,7 @@
         <v>44964</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19915,7 +19915,7 @@
         <v>44964</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19977,7 +19977,7 @@
         <v>44974</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20034,7 +20034,7 @@
         <v>44979</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20091,7 +20091,7 @@
         <v>44979</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20148,7 +20148,7 @@
         <v>44981</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20205,7 +20205,7 @@
         <v>44981</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20262,7 +20262,7 @@
         <v>44981</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20319,7 +20319,7 @@
         <v>44987</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20376,7 +20376,7 @@
         <v>44988</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20433,7 +20433,7 @@
         <v>45000</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20490,7 +20490,7 @@
         <v>45002</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20547,7 +20547,7 @@
         <v>45002</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20604,7 +20604,7 @@
         <v>45006</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20661,7 +20661,7 @@
         <v>45021</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20718,7 +20718,7 @@
         <v>45029</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20775,7 +20775,7 @@
         <v>45034</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20832,7 +20832,7 @@
         <v>45036</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20889,7 +20889,7 @@
         <v>45037</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         <v>45043</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21003,7 +21003,7 @@
         <v>45043</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21060,7 +21060,7 @@
         <v>45048</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21117,7 +21117,7 @@
         <v>45053</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21174,7 +21174,7 @@
         <v>45056</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21231,7 +21231,7 @@
         <v>45062</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21288,7 +21288,7 @@
         <v>45069</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21345,7 +21345,7 @@
         <v>45069</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21402,7 +21402,7 @@
         <v>45069</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21459,7 +21459,7 @@
         <v>45069</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21516,7 +21516,7 @@
         <v>45079</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         <v>45082</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21635,7 +21635,7 @@
         <v>45082</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21697,7 +21697,7 @@
         <v>45084</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21754,7 +21754,7 @@
         <v>45086</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21811,7 +21811,7 @@
         <v>45098</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21868,7 +21868,7 @@
         <v>45099</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21925,7 +21925,7 @@
         <v>45099</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -21982,7 +21982,7 @@
         <v>45099</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22044,7 +22044,7 @@
         <v>45106</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22101,7 +22101,7 @@
         <v>45107</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22158,7 +22158,7 @@
         <v>45111</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22215,7 +22215,7 @@
         <v>45111</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22272,7 +22272,7 @@
         <v>45114</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22329,7 +22329,7 @@
         <v>45114</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         <v>45120</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22443,7 +22443,7 @@
         <v>45120</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22500,7 +22500,7 @@
         <v>45120</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22557,7 +22557,7 @@
         <v>45120</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22614,7 +22614,7 @@
         <v>45131</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22671,7 +22671,7 @@
         <v>45147</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22728,7 +22728,7 @@
         <v>45149</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22785,7 +22785,7 @@
         <v>45149</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22842,7 +22842,7 @@
         <v>45160</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22899,7 +22899,7 @@
         <v>45162</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -22956,7 +22956,7 @@
         <v>45194</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23013,7 +23013,7 @@
         <v>45194</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23070,7 +23070,7 @@
         <v>45194</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>

--- a/Översikt SVENLJUNGA.xlsx
+++ b/Översikt SVENLJUNGA.xlsx
@@ -572,7 +572,7 @@
         <v>44579</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>44838</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>44210</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         <v>43620</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>44250</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>44613</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>44613</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1189,7 +1189,7 @@
         <v>44764</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1274,7 +1274,7 @@
         <v>43314</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1331,7 +1331,7 @@
         <v>43325</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1388,7 +1388,7 @@
         <v>43328</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1450,7 +1450,7 @@
         <v>43329</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1507,7 +1507,7 @@
         <v>43346</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1564,7 +1564,7 @@
         <v>43349</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1621,7 +1621,7 @@
         <v>43349</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1678,7 +1678,7 @@
         <v>43353</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1735,7 +1735,7 @@
         <v>43357</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
         <v>43363</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
         <v>43374</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>43381</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>43390</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
         <v>43398</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2087,7 +2087,7 @@
         <v>43402</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>43411</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         <v>43413</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>43413</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>43413</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>43419</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2434,7 +2434,7 @@
         <v>43423</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>43424</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>43425</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>43425</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         <v>43426</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         <v>43428</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>43430</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         <v>43433</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         <v>43433</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>43437</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>43437</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>43438</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>43439</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>43444</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43447</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>43447</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>43448</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>43451</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         <v>43454</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3522,7 +3522,7 @@
         <v>43454</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3584,7 +3584,7 @@
         <v>43454</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3641,7 +3641,7 @@
         <v>43454</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3698,7 +3698,7 @@
         <v>43454</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3760,7 +3760,7 @@
         <v>43454</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3817,7 +3817,7 @@
         <v>43454</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3874,7 +3874,7 @@
         <v>43455</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3931,7 +3931,7 @@
         <v>43455</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3988,7 +3988,7 @@
         <v>43455</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>43461</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>43461</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4169,7 +4169,7 @@
         <v>43462</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         <v>43473</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4283,7 +4283,7 @@
         <v>43475</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4340,7 +4340,7 @@
         <v>43486</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4397,7 +4397,7 @@
         <v>43494</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4454,7 +4454,7 @@
         <v>43495</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4511,7 +4511,7 @@
         <v>43500</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         <v>43501</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>43501</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4682,7 +4682,7 @@
         <v>43511</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>43531</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
         <v>43542</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4853,7 +4853,7 @@
         <v>43544</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         <v>43544</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4977,7 +4977,7 @@
         <v>43554</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5034,7 +5034,7 @@
         <v>43554</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>43554</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>43558</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5205,7 +5205,7 @@
         <v>43559</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5262,7 +5262,7 @@
         <v>43559</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5319,7 +5319,7 @@
         <v>43560</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5376,7 +5376,7 @@
         <v>43565</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5433,7 +5433,7 @@
         <v>43565</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5490,7 +5490,7 @@
         <v>43565</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5547,7 +5547,7 @@
         <v>43572</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5604,7 +5604,7 @@
         <v>43585</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5661,7 +5661,7 @@
         <v>43588</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5718,7 +5718,7 @@
         <v>43591</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5775,7 +5775,7 @@
         <v>43592</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5837,7 +5837,7 @@
         <v>43599</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5894,7 +5894,7 @@
         <v>43599</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5951,7 +5951,7 @@
         <v>43599</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6008,7 +6008,7 @@
         <v>43599</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6065,7 +6065,7 @@
         <v>43609</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
         <v>43609</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         <v>43620</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6241,7 +6241,7 @@
         <v>43620</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6298,7 +6298,7 @@
         <v>43626</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         <v>43626</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6412,7 +6412,7 @@
         <v>43634</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6469,7 +6469,7 @@
         <v>43644</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6526,7 +6526,7 @@
         <v>43644</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6583,7 +6583,7 @@
         <v>43644</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6640,7 +6640,7 @@
         <v>43644</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
         <v>43647</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6759,7 +6759,7 @@
         <v>43647</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6821,7 +6821,7 @@
         <v>43658</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         <v>43676</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         <v>43676</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         <v>43676</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7064,7 +7064,7 @@
         <v>43676</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7126,7 +7126,7 @@
         <v>43677</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>43697</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         <v>43699</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7307,7 +7307,7 @@
         <v>43705</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7364,7 +7364,7 @@
         <v>43706</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7421,7 +7421,7 @@
         <v>43721</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7478,7 +7478,7 @@
         <v>43728</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7535,7 +7535,7 @@
         <v>43728</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7592,7 +7592,7 @@
         <v>43733</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7649,7 +7649,7 @@
         <v>43745</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7706,7 +7706,7 @@
         <v>43758</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7763,7 +7763,7 @@
         <v>43760</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7820,7 +7820,7 @@
         <v>43761</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7877,7 +7877,7 @@
         <v>43770</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7934,7 +7934,7 @@
         <v>43771</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7991,7 +7991,7 @@
         <v>43773</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8048,7 +8048,7 @@
         <v>43780</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8105,7 +8105,7 @@
         <v>43780</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8162,7 +8162,7 @@
         <v>43782</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8219,7 +8219,7 @@
         <v>43782</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8276,7 +8276,7 @@
         <v>43788</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8333,7 +8333,7 @@
         <v>43788</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8390,7 +8390,7 @@
         <v>43788</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8447,7 +8447,7 @@
         <v>43790</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8504,7 +8504,7 @@
         <v>43791</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8561,7 +8561,7 @@
         <v>43795</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8623,7 +8623,7 @@
         <v>43798</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8680,7 +8680,7 @@
         <v>43798</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8737,7 +8737,7 @@
         <v>43798</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8794,7 +8794,7 @@
         <v>43803</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8851,7 +8851,7 @@
         <v>43803</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8908,7 +8908,7 @@
         <v>43804</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8970,7 +8970,7 @@
         <v>43817</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9032,7 +9032,7 @@
         <v>43818</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9094,7 +9094,7 @@
         <v>43832</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9151,7 +9151,7 @@
         <v>43853</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9208,7 +9208,7 @@
         <v>43867</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9265,7 +9265,7 @@
         <v>43868</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9322,7 +9322,7 @@
         <v>43868</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         <v>43868</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9436,7 +9436,7 @@
         <v>43873</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9498,7 +9498,7 @@
         <v>43892</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9555,7 +9555,7 @@
         <v>43894</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9612,7 +9612,7 @@
         <v>43900</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9669,7 +9669,7 @@
         <v>43902</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9726,7 +9726,7 @@
         <v>43902</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9783,7 +9783,7 @@
         <v>43912</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9840,7 +9840,7 @@
         <v>43914</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9897,7 +9897,7 @@
         <v>43915</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9954,7 +9954,7 @@
         <v>43915</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10011,7 +10011,7 @@
         <v>43915</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10068,7 +10068,7 @@
         <v>43920</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10125,7 +10125,7 @@
         <v>43922</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10182,7 +10182,7 @@
         <v>43923</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10239,7 +10239,7 @@
         <v>43923</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10296,7 +10296,7 @@
         <v>43933</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10353,7 +10353,7 @@
         <v>43937</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10415,7 +10415,7 @@
         <v>43949</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10472,7 +10472,7 @@
         <v>43955</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10529,7 +10529,7 @@
         <v>43962</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10586,7 +10586,7 @@
         <v>43963</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10643,7 +10643,7 @@
         <v>43965</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10700,7 +10700,7 @@
         <v>43971</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10762,7 +10762,7 @@
         <v>43983</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10824,7 +10824,7 @@
         <v>43986</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10881,7 +10881,7 @@
         <v>43986</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10938,7 +10938,7 @@
         <v>43991</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10995,7 +10995,7 @@
         <v>44008</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11052,7 +11052,7 @@
         <v>44015</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11109,7 +11109,7 @@
         <v>44018</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11166,7 +11166,7 @@
         <v>44036</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11223,7 +11223,7 @@
         <v>44036</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11280,7 +11280,7 @@
         <v>44050</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11337,7 +11337,7 @@
         <v>44053</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11394,7 +11394,7 @@
         <v>44056</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11451,7 +11451,7 @@
         <v>44061</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11508,7 +11508,7 @@
         <v>44063</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11565,7 +11565,7 @@
         <v>44063</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11622,7 +11622,7 @@
         <v>44068</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11679,7 +11679,7 @@
         <v>44069</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11736,7 +11736,7 @@
         <v>44076</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11793,7 +11793,7 @@
         <v>44082</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11850,7 +11850,7 @@
         <v>44086</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11907,7 +11907,7 @@
         <v>44086</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11964,7 +11964,7 @@
         <v>44089</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12021,7 +12021,7 @@
         <v>44109</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12078,7 +12078,7 @@
         <v>44109</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12135,7 +12135,7 @@
         <v>44116</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12192,7 +12192,7 @@
         <v>44117</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12249,7 +12249,7 @@
         <v>44127</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12306,7 +12306,7 @@
         <v>44129</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12363,7 +12363,7 @@
         <v>44130</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12420,7 +12420,7 @@
         <v>44130</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12477,7 +12477,7 @@
         <v>44130</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12534,7 +12534,7 @@
         <v>44132</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12591,7 +12591,7 @@
         <v>44133</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12648,7 +12648,7 @@
         <v>44133</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12705,7 +12705,7 @@
         <v>44138</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12762,7 +12762,7 @@
         <v>44138</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12819,7 +12819,7 @@
         <v>44154</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12876,7 +12876,7 @@
         <v>44159</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12933,7 +12933,7 @@
         <v>44159</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12990,7 +12990,7 @@
         <v>44162</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13047,7 +13047,7 @@
         <v>44165</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13104,7 +13104,7 @@
         <v>44168</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13161,7 +13161,7 @@
         <v>44173</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13223,7 +13223,7 @@
         <v>44174</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13280,7 +13280,7 @@
         <v>44174</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13337,7 +13337,7 @@
         <v>44187</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13394,7 +13394,7 @@
         <v>44194</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13451,7 +13451,7 @@
         <v>44200</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13508,7 +13508,7 @@
         <v>44209</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13565,7 +13565,7 @@
         <v>44210</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13627,7 +13627,7 @@
         <v>44210</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13689,7 +13689,7 @@
         <v>44210</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13751,7 +13751,7 @@
         <v>44218</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13808,7 +13808,7 @@
         <v>44223</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13865,7 +13865,7 @@
         <v>44224</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13922,7 +13922,7 @@
         <v>44224</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13979,7 +13979,7 @@
         <v>44224</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14036,7 +14036,7 @@
         <v>44229</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14093,7 +14093,7 @@
         <v>44242</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14150,7 +14150,7 @@
         <v>44250</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14207,7 +14207,7 @@
         <v>44250</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14264,7 +14264,7 @@
         <v>44250</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14321,7 +14321,7 @@
         <v>44258</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14378,7 +14378,7 @@
         <v>44264</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14435,7 +14435,7 @@
         <v>44320</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14492,7 +14492,7 @@
         <v>44337</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14549,7 +14549,7 @@
         <v>44337</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14606,7 +14606,7 @@
         <v>44341</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14663,7 +14663,7 @@
         <v>44344</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14725,7 +14725,7 @@
         <v>44349</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14787,7 +14787,7 @@
         <v>44350</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14849,7 +14849,7 @@
         <v>44355</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14906,7 +14906,7 @@
         <v>44357</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14968,7 +14968,7 @@
         <v>44357</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15030,7 +15030,7 @@
         <v>44357</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15092,7 +15092,7 @@
         <v>44376</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15149,7 +15149,7 @@
         <v>44391</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15206,7 +15206,7 @@
         <v>44417</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15263,7 +15263,7 @@
         <v>44418</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15320,7 +15320,7 @@
         <v>44432</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15377,7 +15377,7 @@
         <v>44432</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15434,7 +15434,7 @@
         <v>44434</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15491,7 +15491,7 @@
         <v>44440</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15548,7 +15548,7 @@
         <v>44448</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15605,7 +15605,7 @@
         <v>44491</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15662,7 +15662,7 @@
         <v>44496</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15719,7 +15719,7 @@
         <v>44496</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15776,7 +15776,7 @@
         <v>44497</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15833,7 +15833,7 @@
         <v>44497</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15890,7 +15890,7 @@
         <v>44517</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15947,7 +15947,7 @@
         <v>44517</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16004,7 +16004,7 @@
         <v>44517</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16061,7 +16061,7 @@
         <v>44517</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16118,7 +16118,7 @@
         <v>44517</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16175,7 +16175,7 @@
         <v>44530</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16237,7 +16237,7 @@
         <v>44564</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16294,7 +16294,7 @@
         <v>44579</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16351,7 +16351,7 @@
         <v>44588</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16408,7 +16408,7 @@
         <v>44588</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16465,7 +16465,7 @@
         <v>44610</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16522,7 +16522,7 @@
         <v>44613</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         <v>44615</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16636,7 +16636,7 @@
         <v>44616</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16693,7 +16693,7 @@
         <v>44616</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16750,7 +16750,7 @@
         <v>44617</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16807,7 +16807,7 @@
         <v>44641</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16869,7 +16869,7 @@
         <v>44641</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16931,7 +16931,7 @@
         <v>44641</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16993,7 +16993,7 @@
         <v>44645</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17055,7 +17055,7 @@
         <v>44656</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17112,7 +17112,7 @@
         <v>44656</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17169,7 +17169,7 @@
         <v>44656</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17226,7 +17226,7 @@
         <v>44658</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17283,7 +17283,7 @@
         <v>44659</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17340,7 +17340,7 @@
         <v>44659</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
         <v>44662</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17454,7 +17454,7 @@
         <v>44687</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17511,7 +17511,7 @@
         <v>44706</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17568,7 +17568,7 @@
         <v>44725</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17625,7 +17625,7 @@
         <v>44725</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17682,7 +17682,7 @@
         <v>44726</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17739,7 +17739,7 @@
         <v>44785</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17796,7 +17796,7 @@
         <v>44792</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17853,7 +17853,7 @@
         <v>44797</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17910,7 +17910,7 @@
         <v>44800</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17967,7 +17967,7 @@
         <v>44813</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18024,7 +18024,7 @@
         <v>44824</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18081,7 +18081,7 @@
         <v>44831</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18138,7 +18138,7 @@
         <v>44837</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18195,7 +18195,7 @@
         <v>44837</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18252,7 +18252,7 @@
         <v>44837</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18309,7 +18309,7 @@
         <v>44859</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18371,7 +18371,7 @@
         <v>44859</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18428,7 +18428,7 @@
         <v>44872</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18485,7 +18485,7 @@
         <v>44895</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18542,7 +18542,7 @@
         <v>44895</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18599,7 +18599,7 @@
         <v>44897</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18656,7 +18656,7 @@
         <v>44898</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18713,7 +18713,7 @@
         <v>44901</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18770,7 +18770,7 @@
         <v>44902</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18827,7 +18827,7 @@
         <v>44902</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18884,7 +18884,7 @@
         <v>44902</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18941,7 +18941,7 @@
         <v>44903</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18998,7 +18998,7 @@
         <v>44914</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19055,7 +19055,7 @@
         <v>44915</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19112,7 +19112,7 @@
         <v>44930</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19169,7 +19169,7 @@
         <v>44937</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19226,7 +19226,7 @@
         <v>44937</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19283,7 +19283,7 @@
         <v>44938</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19340,7 +19340,7 @@
         <v>44950</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19397,7 +19397,7 @@
         <v>44953</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19454,7 +19454,7 @@
         <v>44953</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19511,7 +19511,7 @@
         <v>44958</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19573,7 +19573,7 @@
         <v>44958</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19630,7 +19630,7 @@
         <v>44964</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19687,7 +19687,7 @@
         <v>44964</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19744,7 +19744,7 @@
         <v>44964</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19801,7 +19801,7 @@
         <v>44964</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19858,7 +19858,7 @@
         <v>44964</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19915,7 +19915,7 @@
         <v>44964</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19977,7 +19977,7 @@
         <v>44974</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20034,7 +20034,7 @@
         <v>44979</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20091,7 +20091,7 @@
         <v>44979</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20148,7 +20148,7 @@
         <v>44981</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20205,7 +20205,7 @@
         <v>44981</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20262,7 +20262,7 @@
         <v>44981</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20319,7 +20319,7 @@
         <v>44987</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20376,7 +20376,7 @@
         <v>44988</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20433,7 +20433,7 @@
         <v>45000</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20490,7 +20490,7 @@
         <v>45002</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20547,7 +20547,7 @@
         <v>45002</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20604,7 +20604,7 @@
         <v>45006</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20661,7 +20661,7 @@
         <v>45021</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20718,7 +20718,7 @@
         <v>45029</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20775,7 +20775,7 @@
         <v>45034</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20832,7 +20832,7 @@
         <v>45036</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20889,7 +20889,7 @@
         <v>45037</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         <v>45043</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21003,7 +21003,7 @@
         <v>45043</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21060,7 +21060,7 @@
         <v>45048</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21117,7 +21117,7 @@
         <v>45053</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21174,7 +21174,7 @@
         <v>45056</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21231,7 +21231,7 @@
         <v>45062</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21288,7 +21288,7 @@
         <v>45069</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21345,7 +21345,7 @@
         <v>45069</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21402,7 +21402,7 @@
         <v>45069</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21459,7 +21459,7 @@
         <v>45069</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21516,7 +21516,7 @@
         <v>45079</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         <v>45082</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21635,7 +21635,7 @@
         <v>45082</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21697,7 +21697,7 @@
         <v>45084</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21754,7 +21754,7 @@
         <v>45086</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21811,7 +21811,7 @@
         <v>45098</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21868,7 +21868,7 @@
         <v>45099</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21925,7 +21925,7 @@
         <v>45099</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -21982,7 +21982,7 @@
         <v>45099</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22044,7 +22044,7 @@
         <v>45106</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22101,7 +22101,7 @@
         <v>45107</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22158,7 +22158,7 @@
         <v>45111</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22215,7 +22215,7 @@
         <v>45111</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22272,7 +22272,7 @@
         <v>45114</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22329,7 +22329,7 @@
         <v>45114</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         <v>45120</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22443,7 +22443,7 @@
         <v>45120</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22500,7 +22500,7 @@
         <v>45120</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22557,7 +22557,7 @@
         <v>45120</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22614,7 +22614,7 @@
         <v>45131</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22671,7 +22671,7 @@
         <v>45147</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22728,7 +22728,7 @@
         <v>45149</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22785,7 +22785,7 @@
         <v>45149</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22842,7 +22842,7 @@
         <v>45160</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22899,7 +22899,7 @@
         <v>45162</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -22956,7 +22956,7 @@
         <v>45194</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23013,7 +23013,7 @@
         <v>45194</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23070,7 +23070,7 @@
         <v>45194</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
